--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E669AB-1D91-44EC-B100-14B963472353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FD52F8-0BB1-4B94-B781-60DFED5D7E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1665" windowWidth="29895" windowHeight="19935" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>IFA fortification of wheat flour</t>
   </si>
   <si>
-    <t>IFA fortification of maize</t>
-  </si>
-  <si>
     <t>IFA fortification of rice</t>
   </si>
   <si>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4765,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4784,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4793,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,12 +4806,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4870,14 +4870,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4921,12 +4921,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4962,14 +4962,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5011,19 +5011,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5126,13 +5126,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5173,12 +5173,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5212,7 +5212,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="di5JNGJPkxwm/YBeOLTv3qJcOAj2LvzQFHdbwM5DRnRIWGt+YRf++UfyjX51ug0Oay5cz2Y3VxC+wLyKGFLuZQ==" saltValue="vVyI7cW7jYP+mCuNMBq1jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sOdjat5C02kwc7d0NHqEX+1eESDPDaNoxLqExI/50d4PdWrVvJ5+LqSrh5IL4EvcPvCfkF4b6HakMYAvK8+4mQ==" saltValue="90BLsZUwJNhO50eSmegUsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5239,48 +5239,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5360,7 +5360,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5cpYERebYkf0eE8mZd+1ohXW0Yuxkqde2aBYOcdnh0c4fbd29lCXV0Pw1V0KylIC/yIVxGnNPvcU15fqpa6EDg==" saltValue="uqvDNWq/PEQ6uy4Sf7BujQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DbnAMpqSCoPWj9wgjx1ZlTiJPjUePPqIYOJTyYcEUeUvLnN5ceEmZE8HtmKdQyPvFgze+LMaSgekFocQlyrUUQ==" saltValue="FrqvOs5b8El5jqM204hnxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5386,47 +5386,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="td7r/yl+WQqo8UmyA/DXC/uZEiaTpvKTjZDQhHP4+ZSxUsgSRTsc/mMaBAHIloBiw97IFkQxV6g0iRPV38xvfw==" saltValue="rqGr7riu6To0SYf/twRGnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SuALOLF3jWYesk0P3RLMeUv2O8dMLsJklt19ZYMB7Ht+fYPqLj/8KGsFr1NFxY+kW79PWnIjw0BwN3IO0ONiiQ==" saltValue="aY3Ctg7gbZ6f+N+lRFHHTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5575,7 +5575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LgZk+TpgV1ZLOnqvm4rTMDJua5ss3me9nIAfDJTQtCz4rrXAm7faVSao/Wc1m6RXFCfhEKbYiZZJIOfXYMRZlw==" saltValue="xlnzgAGdX2wPXFtDAFNZxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6jGXAAdA5uBAoew3zkup1k3dcl46W2Ft4OcuWCmUho+5QyydVlzIQlp8IEy2TMFgaNBbzw6juqJdw2Dwhas05Q==" saltValue="JAyCDThKoDfH5F3xOWf5yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,10 +5606,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5621,42 +5621,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6220,7 +6220,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6265,7 +6265,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7113,7 +7113,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7291,7 +7291,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gR1k7wqP7GpQtJctW0h2ao8FGdJcYfO/sIXJlSJhjGG1blPRyK3YdSbBpjhn1a/vIM0HD5C+Ao9+wT4TC96GrA==" saltValue="jy7v9WpnVvkxGDcmvwq8YA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d+JX54qumnmzsMu2UtCbYRO1+12tEFoTjzbQiLmRYVqtcBi6dKpZzJTgGS0mE0Q2//b3hwXy55G7N/xjKoyTxQ==" saltValue="4HUYj+6zJo9BkpROWmaolQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7310,26 +7310,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xzxdbmuU9/SZlOGLWcvo4anU7QHY8zxGVS7ikcIbk96A4jVNJDnYnGnSJcSJRV1CKreNFELcF/XMRBqD+9WIXA==" saltValue="Pu1C8S5NX9HniSh6cYKCIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tRWv3Hb2ek1mcKbND08o/LgN46BHg4HoB0Zs6DuTwUb84aoIqLv6sbgTKQrZB4Rl6y8VD8bK9aQs40GHl5hXMQ==" saltValue="KNteV0JT8Qs3Fh2pk4kliQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7356,24 +7356,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7537,7 +7537,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ncpiIENMX1dPpxOqwy4J7QT6pceh/6TsY/Z1MeMHBp0DtMFqbyXhtlwLvZecJV4FoncVxhhpHgIDzIPTDn+MgA==" saltValue="uLXGngN/O5F3YfP6hLhJZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QESe2F25CUspVh4JP2zHclC206F1snDJem3aT0sy+uHkOTrSbKiN0cfrYxYOdTCFeUAPZvgq2isClIMdqVvIQw==" saltValue="MtW8NtNDAmq5K4VsGBmnAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7570,10 +7570,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>1</v>
@@ -7585,42 +7585,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8252,10 +8252,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8300,7 +8300,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8717,7 +8717,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9089,7 +9089,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9308,7 +9308,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+/rHwSybiRM9q8ijjHgKJHYcOByZDiHInLwWpZE77WaE0S8YXWecap61kbQ907j/wc/Q3ocfqvM2gnPZ3SWLJQ==" saltValue="2T4DP/BEI5N3qf6iwwsP4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PssuOnhITv1aHDtvdctQxJR0eiEBe62oHvW3ZKDjNz/vQQFPqUCwy+5q2ykJ+P93ljzr2vdv0wz9g5GUUMsDgg==" saltValue="zKfPFszV2Hfuor5w7jUlJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9341,42 +9341,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9386,14 +9386,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9402,7 +9402,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9410,12 +9410,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9427,11 +9427,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9455,26 +9455,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9482,18 +9482,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9501,18 +9501,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9520,11 +9520,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9537,11 +9537,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9554,11 +9554,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9571,11 +9571,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9588,11 +9588,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9600,18 +9600,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9619,39 +9619,39 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9664,16 +9664,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9683,16 +9683,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9702,16 +9702,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9730,26 +9730,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9761,11 +9761,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9773,14 +9773,14 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9789,7 +9789,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9806,7 +9806,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9814,11 +9814,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9831,11 +9831,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9843,14 +9843,14 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9859,7 +9859,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9867,14 +9867,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9886,13 +9886,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9911,10 +9911,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9930,10 +9930,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9949,10 +9949,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9960,7 +9960,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9968,10 +9968,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9987,10 +9987,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -10006,10 +10006,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -10026,7 +10026,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -10034,27 +10034,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lP84L2pVlTIJ8XnQVME+BWoSdEbI91TzkKq9qTumGVbAR7dMihNfF7EFgIw070ZDihclKMeVLV0+u/mvnXxOTA==" saltValue="yi6Yz59erfvutENh1OFshg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cuhbz9kuZYHlGy4lTqPOaOjsHvmwvHqKt+8seQW1tXBJl4bhHKJ443YpOklgd7S8QU2fiWHT1zYyirgqnRT9sA==" saltValue="SYjkP0RiUmEou50ZKLwWWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10087,37 +10087,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10125,25 +10125,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10154,25 +10154,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10183,25 +10183,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10209,28 +10209,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10241,25 +10241,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10267,95 +10267,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10364,19 +10364,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10386,16 +10386,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10405,16 +10405,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10424,11 +10424,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gt+cYwAvxxBrmJXZD/w9spYRgJrPByXLoJaQpqnWVAZwOTxRSux52VlloS9znCBrBPVhJFnAvT9xD10q1K3vbA==" saltValue="52a0VShVs5YAGXFlt2rZZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wY8Idzmsb6ZI3KTUv+FNi8AVfRP4BFjXjF9UyBLgOGHusybTbZ1sDgSBj5xk6AIZQ/VniMWOmrBUNmRZo4jwbg==" saltValue="THyqOLerYSeJsyqI2G89+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10454,13 +10454,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -10472,7 +10472,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="94" t="s">
         <v>4</v>
@@ -10480,13 +10480,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10507,7 +10507,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10529,7 +10529,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10575,7 +10575,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10596,7 +10596,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10619,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10640,7 +10640,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10661,7 +10661,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10705,7 +10705,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10726,7 +10726,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10746,10 +10746,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10770,7 +10770,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10791,7 +10791,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10811,10 +10811,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10841,13 +10841,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10868,7 +10868,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10889,7 +10889,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10933,7 +10933,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10954,7 +10954,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10998,7 +10998,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -11019,7 +11019,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -11042,7 +11042,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -11063,7 +11063,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11084,7 +11084,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11128,7 +11128,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11149,7 +11149,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11169,10 +11169,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11199,13 +11199,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11226,7 +11226,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11247,7 +11247,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11291,7 +11291,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11312,7 +11312,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11335,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11356,7 +11356,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11377,7 +11377,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11421,7 +11421,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11442,7 +11442,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11486,7 +11486,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11507,7 +11507,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11549,7 +11549,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AjJx6Wz5OCy1PepBGyf9qsockwzLRzQAPgQRHnM0kXgGlx+rzNDy59cg1HtS67kCtl3vm48ZI5dHQmgEuM9XvQ==" saltValue="l3lAPpoO+JP9cksw4prpbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+MTSvuqhG3YDy0ROE5ivlB3LluEg06sZRaCSdXMyj+u7vVmHPKdkpnPNgzKttTNw/F/n+fjl9jYXLDTdRvw1Cw==" saltValue="ZGGP/yC/DdOn7qIgTkSZ8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11595,28 +11595,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12657,7 +12657,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RzJKv6dhCwRIhc1NSJjpoHdCe4wX/sM5lwm/kXNjIz8qHLRQ1BamsuKWl19gqGw564xi3Q/PNBeZ+5eBql3/1w==" saltValue="YscAosMrGgxrgXKWyvB+lA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9z5y7HbxU08d2d09W+SInkfXQEECEp+ZEwD5yD3d3Dpx+8ypRLnHy/3hIACl2lnnjyJ53ddPjX6Co23FVq6dfA==" saltValue="EqOiNDZmkPi9GpvLJzsKJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12691,7 +12691,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12711,7 +12711,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -13059,7 +13059,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EL+0Yp6caGAk6DVvvIU3pboFWP1B0ze3RdwyTkkcg7i2pXvttMyt0TDnrRE6LHMJxwvp+gCHxISXdBBcVFfH4w==" saltValue="aQRnz/xCXqonyaP0bBYKSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FNKPRU7hJbyrhCaage4+SLg1hCkrSSOe6O6ThZfrmoptKnRB+leWZPMUQwCUMVmrJUAZLlqYc+Pk7rDhuMJPgQ==" saltValue="nQtNMZVh8TfovWStybBpLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13089,18 +13089,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="103" t="s">
         <v>4</v>
@@ -13129,10 +13129,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13247,7 +13247,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13303,7 +13303,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13362,7 +13362,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13418,7 +13418,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13477,7 +13477,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13561,7 +13561,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13707,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13819,18 +13819,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -13842,7 +13842,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H29" s="103" t="s">
         <v>4</v>
@@ -13859,10 +13859,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13977,7 +13977,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14005,7 +14005,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -14092,7 +14092,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14148,7 +14148,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -14207,7 +14207,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14406,7 +14406,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14437,7 +14437,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14493,7 +14493,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14521,7 +14521,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14553,30 +14553,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="F56" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="G56" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="103" t="s">
-        <v>54</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14587,10 +14587,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14612,7 +14612,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14634,10 +14634,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14681,10 +14681,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14706,7 +14706,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -14740,10 +14740,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -14755,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="124" t="s">
         <v>4</v>
@@ -14772,10 +14772,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14890,7 +14890,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14946,7 +14946,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -15005,7 +15005,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -15120,7 +15120,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15232,10 +15232,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15350,7 +15350,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15406,7 +15406,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15465,7 +15465,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15608,7 +15608,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15695,7 +15695,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15807,18 +15807,18 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -15830,7 +15830,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="124" t="s">
         <v>4</v>
@@ -15848,7 +15848,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15876,7 +15876,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15962,7 +15962,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PyHUOU/Bw3Ety65jPRk4UV2Mo02dhj+5iGotc6SzhjqOwWV3D19p/Z3+FpV85uNiNT+BmTfh6jxrEYDecR9dkw==" saltValue="zfnvXWgCbRDI8aO4Xh6ixg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mJnrSzbnoC4Y2ciYBRP22FKeDHGRBvUNVzT8Ludt0PasnmkgoWkjQ1GntanRGhr8KodQpWYDrAg+W5m5CLOuGA==" saltValue="hRPPkG3tm7i/bPoZLz4kMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15993,7 +15993,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16011,7 +16011,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16040,7 +16040,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -16060,12 +16060,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16133,13 +16133,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -16163,15 +16163,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -16192,7 +16192,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -16212,10 +16212,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16236,26 +16236,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16271,7 +16271,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nxatbn2e1vBCB0+lL75ZflxV3gkknHDNluk25HkA6MJtMRoE3OYnypDgU+HkFTlFj/PTbwJTjeQFKZgrUkPx6A==" saltValue="0mozkelz/wVX7MEQWAwuww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dzZQroQocDh3+41EsbFRNBprhC0TavonGrl/NGOqwUTf+rxH7gCsv1KkqVU+7Nqh0yl2VYP/Oiayr7aylGZk5Q==" saltValue="6rBx149dZwWLHyNbf3FH9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16300,7 +16300,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
@@ -16318,10 +16318,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16339,7 +16339,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16356,10 +16356,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="136">
         <v>0.15</v>
@@ -16377,7 +16377,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="136">
         <v>0.15</v>
@@ -16415,7 +16415,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16432,10 +16432,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16453,7 +16453,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16470,10 +16470,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16491,7 +16491,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16508,10 +16508,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="136">
         <v>0.23</v>
@@ -16529,7 +16529,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16551,7 +16551,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+ma9upIAXiVKC/kbwekDI9ed6kPFKtaUfWtxss2/Hn+tjkrLNP1ZUMZn823W3CNRe5X4xmPC2NEZQiBHWeH4Ng==" saltValue="EiXJUi/CfKQDlDDYzy1tPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dVlAesbFTEu9UMvCQugT22qi6rr1fdwlqsa5NBaUD9ImaVi3o3f5lwq4e2b4T+Zb0GvKr08NHfPbuAJZ3jXC8Q==" saltValue="tfmH4UFdXY1HvuQ73yctxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16589,44 +16589,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="103" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -17154,13 +17154,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17292,7 +17292,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17347,7 +17347,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="brksoumacJvQvsJgeZTXIuTkcXmFsmJJUeB6viEXAjJ09lBIYdOGEqtBrqx/cMbRECE/f20R+5BajuxhkZnVgA==" saltValue="l8M+KhlI0nwY1mHjWo8RMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EY/WOOY3hDoexI7X+vXprslnhGVBy0eLZxzeLDUYxe2YQaMhSh6URsEa8meUaFS2wjeWxPibOUfaG1+1DSuHYA==" saltValue="PnnFWBW7G/6ZBIH+Umf7ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17385,7 +17385,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -17393,12 +17393,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17448,7 +17448,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nK9gH1jfkAXhstc7Us9JoF8hcQzOUQRDZoVvXq6J/bEqn8GvmBYfijIfUrGB5YziFs7cHJ/ckZOXlPPFLcionA==" saltValue="m8dOC9HwgdZL0pw3LfM1TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="krNzJ3eW4toN5jJI+N4LvI+EearFjPSouwpIn7EowseQpjDKyuUE9+c4Gdo/dgrV5nVOYFfI521xrGZIawnjyQ==" saltValue="3sHMxJ362JHhuhYSnhCPBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17480,13 +17480,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17498,7 +17498,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>4</v>
@@ -17506,13 +17506,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17532,7 +17532,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17572,13 +17572,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17618,10 +17618,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17661,13 +17661,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17707,10 +17707,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17750,13 +17750,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17797,10 +17797,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17842,13 +17842,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="136">
         <v>0.46</v>
@@ -17890,13 +17890,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="136">
         <v>0.46</v>
@@ -17936,13 +17936,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="136">
         <v>0.46</v>
@@ -17982,13 +17982,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18028,7 +18028,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18048,13 +18048,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18094,7 +18094,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18114,13 +18114,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18140,7 +18140,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18160,7 +18160,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18180,13 +18180,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18246,13 +18246,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18292,7 +18292,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18312,13 +18312,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18358,7 +18358,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18381,7 +18381,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="136">
         <v>0.49</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="136">
         <v>0.52</v>
@@ -18441,13 +18441,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="136">
         <v>0.93</v>
@@ -18487,13 +18487,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="136">
         <v>0.86</v>
@@ -18533,13 +18533,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="136">
         <v>0.51</v>
@@ -18578,7 +18578,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vVwfa2hQTZ4GJzBOAP+pYyCgQ7I6nN563BwmN4hxrxV7atOij3XcCRYVA/xLJsKDIDIAAGHzuef9fyla1DohRQ==" saltValue="svnxZkqaqJKd+zTgxUT4yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NiSZHpod9KTWMXtR+0A7PDkKcYPEgx7OPsGV6uPDaeamOIpuafcKz7WBIvaYUy8XzmdPNDIxVlyMk/L3tqV0Tg==" saltValue="YCA0371VxIATN3U463iPng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18606,35 +18606,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18670,13 +18670,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18695,7 +18695,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18713,13 +18713,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18738,7 +18738,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="136">
         <v>0.6</v>
@@ -18755,7 +18755,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Iumxt9Y69yBgIFPUnl8Wg0tDVAqEphWnSeHmRGz36S8N/7XB5mJC0bTvR54oEwDVkKrTZn9Annvcqxnb6T1t7Q==" saltValue="sgnBX54u9YOY96qjfY5Qjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fN8rpjE4QizjRqX8yuSch8/j5LNeeI80ZrAjf/TQDR9WhwLbEG5g3MwxEP8/tsgVswxxuZmz91dkYfl55wlYfg==" saltValue="XyIUiIwu4/e3T+M+8EwkyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18791,10 +18791,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18846,7 +18846,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18890,10 +18890,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -18902,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19096,13 +19096,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19112,7 +19112,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19128,7 +19128,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19152,7 +19152,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19160,7 +19160,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19168,7 +19168,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19184,7 +19184,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19192,7 +19192,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3zgA0o/kBQKJxYV3O15vJiWXZGFHTAF0xqv1rgmw15wqy2LNUoj+QEvrb0AkFPnnY5DOvMjBgyQBomJlAq4j+A==" saltValue="M99Eeo4GNsLrCan+he2HcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nhWrpPafHKRfMH8R+QaQbLx1Zn0+pPrq0Eh0EDGVjPvJp+mufsm6jGyzqE+NWFw2pJJdRvAYXLwDzZzgosD63g==" saltValue="rP9SQpTZlwK8quhNMU/x/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19234,7 +19234,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -19242,10 +19242,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19271,7 +19271,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19297,7 +19297,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19318,7 +19318,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19354,10 +19354,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19382,7 +19382,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19427,7 +19427,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19461,7 +19461,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1</v>
@@ -19473,39 +19473,39 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19619,7 +19619,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HgHz1WsXeB7Nk3b1oNc2B3IxF/Hi/3b7dEyXfbQhs8MiBb3mBhjwyOtpiZboGSiClh8r+I7Pw7xY7iMIJxCSbA==" saltValue="cHvkKB50PNSVEg5nOZ3vcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u2MEAWDUmtbOn6iwx7EUzotk9wnEC7EESU8WkkfySnhsNPuWkJbN9yum00TFMAQRCIYF6kE08KdNSVI7dKBKSw==" saltValue="dZcnwFo/9+ZYpzdwhtZ63w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19661,7 +19661,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -19672,7 +19672,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19756,7 +19756,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U5W1Uo9Dzy632kAHuA9OAWhk/pbhuZ4ntAJvUmqWflFoYC5fY1wtsDjBCqbypp6SXl0jom9cR0zgOYw6gaC4hA==" saltValue="CsxhPNiJgCk03FcnmnUqRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xszTRrMe1YYInZ3ZR6CDFzbTf2qLHgLscQ12kWGUmrj3oG2HhA1MjLC7J7o1ZGDFSSYfm6y9M91cu0TESXxciA==" saltValue="h5RR7hD3fdpReChEImDOrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19781,10 +19781,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -19816,10 +19816,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -19836,10 +19836,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -19856,10 +19856,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -19873,7 +19873,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -19887,7 +19887,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -19901,10 +19901,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -19932,10 +19932,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -19962,7 +19962,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rvb9qDs89s21u2P+gPj2NZ3Da/TvHk1HbAzPgHfShP1kcEhGf6WIYf8a+xGtoRdJUOiH9cIEDjy+yR5fiRnfSw==" saltValue="oPddeSqB2aU+/7E10/U0zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3vkYlFCCeoj+F8DzD4sHyJkxzwBnPo8rCz2BR/it/uyJEzK5ZbJlBk7RVFyLeHWWxiAJMDRzcLP2BTw3L7AeBw==" saltValue="UjDNzlAkYopXz3gJK1cnLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19989,27 +19989,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20063,7 +20063,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20077,7 +20077,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20085,10 +20085,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20138,7 +20138,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20150,24 +20150,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20219,11 +20219,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20233,14 +20233,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wh6tm77rjYXueVIrKtZwbDt77f1ASQ1kzXZk39PrbR6saSVRd+Gv82QlIFGwZFmluXm0sCj0Um2AovdlydMYpA==" saltValue="9uZPG5sWnns2hiKkDye+zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RdheyecCOxerEjfzWKXRA3dmxByFmcke+kZtWqSf66dbUNA0FkY/kRQb6Av8dwiTbXXziplC1W0+DAIIj1twJA==" saltValue="mZYEsG8qEcRhgUZ/e1wF8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20267,44 +20267,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kO075jPMOJ7eYiI1IPQwZHey1E+RoCAkj89TCAZC5Snj4CyTcmg9kpM0G4cdE/YVElNgqHkHXhN7HS3tL2sVWA==" saltValue="pagK0MRuNayJJMgHNk0wCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WpxjI9/FVumhv9zI/RGqZQSjzUL+r8NwNE+A2Bjcg0atpQgTgA8G/y4iVCR7t+Z9g90JVPBFNjIZs8gyIyAZ4A==" saltValue="gGDhhLQLJeLgwbM8I0EvNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20332,25 +20332,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20362,12 +20362,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20379,12 +20379,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20396,12 +20396,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20413,12 +20413,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20430,12 +20430,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20447,12 +20447,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20464,12 +20464,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20481,12 +20481,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20498,12 +20498,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20515,12 +20515,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20532,12 +20532,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20549,12 +20549,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20566,12 +20566,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20583,12 +20583,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20600,12 +20600,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20617,12 +20617,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20634,12 +20634,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20651,12 +20651,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20668,12 +20668,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20685,12 +20685,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20702,12 +20702,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20719,12 +20719,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20736,12 +20736,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20753,12 +20753,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20770,12 +20770,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20787,12 +20787,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20804,12 +20804,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20821,12 +20821,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20838,12 +20838,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20855,12 +20855,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20872,12 +20872,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20889,12 +20889,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20906,12 +20906,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -20923,12 +20923,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -20940,13 +20940,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -20958,12 +20958,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -20975,14 +20975,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GDqJpZstgXfdC6XX4QFjgt5fZnifpSdVVIFN9ln18uUmcOHzzDZgHGgy4x/+4TYfNlgAEV6pHxbe0L1IlTcu+w==" saltValue="GfsVU9j84WGn3Fq+ZHa40Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5NFIj7yewtWTrDv5AcGtsDAS8wQ6lvI1tOis0c+Sceh1/2mvL/8Fhb0NKGsji3dS8xNzO1bOhVQMEK3r/psxwQ==" saltValue="3ijrS2+Q4ijXAbPMFas+yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FD52F8-0BB1-4B94-B781-60DFED5D7E30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6200A38E-486C-4ECF-B06C-1ACB785DF801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
-    <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
+    <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes de décès" sheetId="4" r:id="rId3"/>
+    <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
+    <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Paquets IYCF" sheetId="55" r:id="rId7"/>
+    <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
+    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
+    <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
+    <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
-    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
@@ -58,26 +58,26 @@
     <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
     <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
-    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
-    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
-    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
-    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
-    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
     <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
-    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
-    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
-    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
-    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
-    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
     <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
     <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
-    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
+    <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
     <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
     <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
@@ -409,437 +409,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>1-5 months</t>
-  </si>
-  <si>
-    <t>6-11 months</t>
-  </si>
-  <si>
-    <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neonatal sepsis</t>
-  </si>
-  <si>
-    <t>Neonatal pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal asphyxia</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal prematurity</t>
-  </si>
-  <si>
-    <t>Neonatal other</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="271">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Balanced energy-protein supplementation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Long-lasting insecticide-treated bednets</t>
-  </si>
-  <si>
     <t>General population</t>
   </si>
   <si>
-    <t>non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Antepartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Intrapartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Postpartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Hypertensive disorders</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>Abortion</t>
-  </si>
-  <si>
-    <t>Embolism</t>
-  </si>
-  <si>
-    <t>Other direct causes</t>
-  </si>
-  <si>
-    <t>Indirect causes</t>
-  </si>
-  <si>
-    <t>Iron and iodine fortification of salt</t>
-  </si>
-  <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>WRA: 15-19 years</t>
-  </si>
-  <si>
-    <t>WRA: 20-29 years</t>
-  </si>
-  <si>
-    <t>WRA: 30-39 years</t>
-  </si>
-  <si>
-    <t>WRA: 40-49 years</t>
-  </si>
-  <si>
-    <t>PW: 15-19 years</t>
-  </si>
-  <si>
-    <t>PW: 20-29 years</t>
-  </si>
-  <si>
-    <t>PW: 30-39 years</t>
-  </si>
-  <si>
-    <t>PW: 40-49 years</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
-    <t>Cash transfers</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
-  </si>
-  <si>
     <t>MAM</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of SAM</t>
-  </si>
-  <si>
-    <t>Prevalence of iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
-    <t>Diarrhoea</t>
-  </si>
-  <si>
-    <t>Diarrhoea incidence</t>
-  </si>
-  <si>
-    <t>Neonatal diarrhoea</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>First birth</t>
-  </si>
-  <si>
-    <t>less than 18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>24 months or greater</t>
-  </si>
-  <si>
-    <t>WASH: Improved water source</t>
-  </si>
-  <si>
-    <t>WASH: Piped water</t>
-  </si>
-  <si>
-    <t>WASH: Improved sanitation</t>
-  </si>
-  <si>
-    <t>WASH: Hygenic disposal</t>
-  </si>
-  <si>
-    <t>WASH: Handwashing</t>
-  </si>
-  <si>
-    <t>Oral rehydration salts</t>
-  </si>
-  <si>
-    <t>Zinc for treatment + ORS</t>
-  </si>
-  <si>
-    <t>Calcium supplementation</t>
-  </si>
-  <si>
-    <t>Mg for pre-eclampsia</t>
-  </si>
-  <si>
-    <t>Mg for eclampsia</t>
-  </si>
-  <si>
-    <t>Fraction of pregnancies ending in spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Under 5 mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Infant mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Neonatal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Stillbirths (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>Fraction of subsistence farming</t>
-  </si>
-  <si>
-    <t>Fraction eating rice as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating wheat as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating maize as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction on other staples as main staple food</t>
-  </si>
-  <si>
-    <t>Age distribution of pregnant women</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 15-19 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 30-39 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 40-49 years</t>
-  </si>
-  <si>
-    <t>School attendance (percentage of 15-19 year women)</t>
-  </si>
-  <si>
-    <t>Percentage of population food insecure (default poor)</t>
-  </si>
-  <si>
-    <t>Percentage of population at risk of malaria</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women attending health facility</t>
-  </si>
-  <si>
-    <t>Percentage of children attending health facility</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning</t>
-  </si>
-  <si>
-    <t>Percentage of diarrhea that is severe</t>
-  </si>
-  <si>
-    <t>Number of births</t>
-  </si>
-  <si>
-    <t>Total WRA</t>
-  </si>
-  <si>
-    <t>Wasting (weight-for-height)</t>
-  </si>
-  <si>
-    <t>Stunting (height-for-age)</t>
-  </si>
-  <si>
-    <t>Moderate (HAZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Normal (HAZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>Average episodes per year: &lt;1 month</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 1-5 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 6-11 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 24-59 months</t>
-  </si>
-  <si>
-    <t>Total (must be 100%)</t>
-  </si>
-  <si>
-    <t>Estimated pregnant women</t>
-  </si>
-  <si>
-    <t>Prevalence of anaemia</t>
-  </si>
-  <si>
-    <t>Percentage of anaemia that is iron deficient</t>
-  </si>
-  <si>
-    <t>Birth outcome distribution</t>
-  </si>
-  <si>
-    <t>Other risks</t>
-  </si>
-  <si>
-    <t>Baseline year mortality and risk factors</t>
-  </si>
-  <si>
-    <t>Lipid-based nutrition supplements</t>
-  </si>
-  <si>
-    <t>Micronutrient powders</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Stunting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Wasting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Anaemia prevalence (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of age-appropriate breastfeeding</t>
-  </si>
-  <si>
     <t>Children 0-59 months</t>
   </si>
   <si>
-    <t>Women of reproductive age</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t>Children 6-23 months</t>
-  </si>
-  <si>
-    <t>Children 0-5 months</t>
-  </si>
-  <si>
-    <t>Under five (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Delayed cord clamping</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -888,54 +483,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Predominant</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Maternal (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Threshold dependency</t>
-  </si>
-  <si>
-    <t>Exclusion dependency</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -945,81 +492,12 @@
     <t>Community-based</t>
   </si>
   <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Add extension</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (community)</t>
-  </si>
-  <si>
-    <t>IFAS (community)</t>
-  </si>
-  <si>
-    <t>IFAS (retailer)</t>
-  </si>
-  <si>
-    <t>IFAS (school)</t>
-  </si>
-  <si>
-    <t>Projection years</t>
-  </si>
-  <si>
-    <t>End year</t>
-  </si>
-  <si>
-    <t>Baseline year (projection start year)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Kangaroo mother care</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
-  </si>
-  <si>
-    <t>Family planning</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>Linear (constant marginal cost) [default]</t>
-  </si>
-  <si>
-    <t>Curved with increasing marginal cost</t>
-  </si>
-  <si>
-    <t>Curved with decreasing marginal cost</t>
-  </si>
-  <si>
-    <t>S-shaped (decreasing then increasing marginal cost)</t>
-  </si>
-  <si>
-    <t>Cost-coverage relationship</t>
-  </si>
-  <si>
-    <t>IFAS (health facility)</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (health facility)</t>
-  </si>
-  <si>
-    <t>Children under 5 population</t>
-  </si>
-  <si>
-    <t>Neonatal</t>
-  </si>
-  <si>
     <t>Causes</t>
   </si>
   <si>
@@ -1209,22 +687,541 @@
     <t>Données de l'année de référence</t>
   </si>
   <si>
+    <t>Années de projection</t>
+  </si>
+  <si>
+    <t>Année de référence (année de début de la projection)</t>
+  </si>
+  <si>
+    <t>Fin d'année</t>
+  </si>
+  <si>
+    <t>Données sur la population</t>
+  </si>
+  <si>
+    <t>Population des enfants de moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population en situation d'insécurité alimentaire (pauvre par défaut)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population exposée au risque de paludisme</t>
+  </si>
+  <si>
+    <t>Fréquentation scolaire (pourcentage de femmes de 15 à 19 ans)</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enfants fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Besoin non satisfait de planification familiale</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Fraction de l'agriculture de subsistance</t>
+  </si>
+  <si>
+    <t>Fraction de personnes consommant du riz comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de ceux qui consomment du blé comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population consommant du maïs comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population qui consomme d'autres aliments de base comme principale denrée alimentaire</t>
+  </si>
+  <si>
+    <t>Répartition par âge des femmes enceintes</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes de 15 à 19 ans</t>
+  </si>
+  <si>
     <t>Pourcentage de femmes enceintes âgées de 20 à 29 ans</t>
   </si>
   <si>
-    <t>Average episodes per year: 12-23 mois</t>
+    <t>Pourcentage de femmes enceintes âgées de 30 à 39 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes âgées de 40 à 49 ans</t>
+  </si>
+  <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Total (doit être 100%)</t>
+  </si>
+  <si>
+    <t>Mortalité de l'année de référence et facteurs de risque</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Mortalité néonatale (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité infantile (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de 5 ans (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité maternelle (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Fraction des grossesses se terminant par un avortement spontané</t>
+  </si>
+  <si>
+    <t>Mortinatalité (pour 1 000 naissances totales)</t>
+  </si>
+  <si>
+    <t>Distribution des résultats des naissances</t>
+  </si>
+  <si>
+    <t>SGA avant terme</t>
+  </si>
+  <si>
+    <t>AGA avant terme</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
+    <t>Incidence de la diarrhée</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Épisodes moyens par an : 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+  </si>
+  <si>
+    <t>Autres risques</t>
+  </si>
+  <si>
+    <t>Pourcentage de diarrhée grave</t>
+  </si>
+  <si>
+    <t>Pourcentage d'anémie avec carence en fer</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Total FAP</t>
+  </si>
+  <si>
+    <t>Estimation des femmes enceintes</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Septicémie néonatale</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
   </si>
   <si>
     <t>Tétanos néonatal</t>
   </si>
   <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
     <t>12-23 mois</t>
   </si>
   <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Septicémie</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids par rapport à la taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MAM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>SAM (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>PW : 15-19 ans</t>
+  </si>
+  <si>
+    <t>PW : 20-29 ans</t>
+  </si>
+  <si>
+    <t>PW : 30-39 ans</t>
+  </si>
+  <si>
+    <t>PW : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Paquet IYCF</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communauté</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>AIFC 1</t>
+  </si>
+  <si>
+    <t>AIFC 2</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Défaut</t>
+  </si>
+  <si>
+    <t>Ajouter une extension</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Couverture à saturation de la population cible</t>
+  </si>
+  <si>
+    <t>Relation coût-couverture</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts en espèces</t>
+  </si>
+  <si>
+    <t>Retardement du clampage du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement en ACI de la farine de blé</t>
+  </si>
+  <si>
+    <t>IFAS (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS (établissement de santé)</t>
+  </si>
+  <si>
+    <t>IFAS (détaillant)</t>
+  </si>
+  <si>
+    <t>IFAS (école)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Soins maternels kangourou</t>
+  </si>
+  <si>
+    <t>Suppléments nutritionnels à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
+    <t>WASH : lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH : Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH : Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH : Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH : Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Linéaire (coût marginal constant) [par défaut].</t>
+  </si>
+  <si>
+    <t>Dépendance d'exclusion</t>
+  </si>
+  <si>
+    <t>Dépendance de seuil</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal décroissant</t>
+  </si>
+  <si>
+    <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4762,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4781,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4790,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,12 +4803,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4819,7 +4816,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4859,7 +4856,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4870,14 +4867,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4893,7 +4890,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4909,7 +4906,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4921,12 +4918,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4962,14 +4959,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4993,7 +4990,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5001,7 +4998,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5011,19 +5008,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5078,13 +5075,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5093,7 +5090,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5112,7 +5109,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5126,13 +5123,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5149,7 +5146,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5165,7 +5162,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5173,12 +5170,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5202,7 +5199,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5212,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sOdjat5C02kwc7d0NHqEX+1eESDPDaNoxLqExI/50d4PdWrVvJ5+LqSrh5IL4EvcPvCfkF4b6HakMYAvK8+4mQ==" saltValue="90BLsZUwJNhO50eSmegUsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MuXf66Ym21d8ttv/2DICuwRD5fsBNSNPp8E1CJyZm3muQulwWiMCw6gx5uP/pd3A1+6I36mRgMAKjSiLWWwRlQ==" saltValue="pFjLtE4wgFqbut9wjZqnpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5239,48 +5236,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5360,7 +5357,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DbnAMpqSCoPWj9wgjx1ZlTiJPjUePPqIYOJTyYcEUeUvLnN5ceEmZE8HtmKdQyPvFgze+LMaSgekFocQlyrUUQ==" saltValue="FrqvOs5b8El5jqM204hnxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8wmx+I7LIsAnygY4CsNjtFGKmkb+JVl6tP1njNEBSO/j+UsEaJcBn9IAe8DJzHX0YKAkAD6yrDOZfGPqzl2XjA==" saltValue="Pui80Ug5Jy4A28DQnXRiGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5386,47 +5383,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5460,7 +5457,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SuALOLF3jWYesk0P3RLMeUv2O8dMLsJklt19ZYMB7Ht+fYPqLj/8KGsFr1NFxY+kW79PWnIjw0BwN3IO0ONiiQ==" saltValue="aY3Ctg7gbZ6f+N+lRFHHTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Cye7tkEruspFd/E2PJzzetPLXX64s3fQ75XQYxAzbThGpfHkVVsAW5jb9AZjxm9xWvClvjW/zZq7vpJnmcjmg==" saltValue="YNBH5rE/m1cO0kGd6zMqeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5481,27 +5478,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5575,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6jGXAAdA5uBAoew3zkup1k3dcl46W2Ft4OcuWCmUho+5QyydVlzIQlp8IEy2TMFgaNBbzw6juqJdw2Dwhas05Q==" saltValue="JAyCDThKoDfH5F3xOWf5yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RE4VkiIvre8+ywbBjz7wOqRVfwSnC9bV7zSgvtHNKHvf3pEmxi2ilZ1VklZNCT0yjVPAD+R7LPiQrkd6HpG/6A==" saltValue="ib7XweWw3Q9L/ccq/gfrmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,57 +5603,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5704,7 +5701,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5748,7 +5745,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5792,7 +5789,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5838,7 +5835,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5885,7 +5882,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5980,7 +5977,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6028,7 +6025,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6072,7 +6069,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6168,10 +6165,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6220,7 +6217,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6265,7 +6262,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6314,7 +6311,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6362,7 +6359,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6454,7 +6451,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6498,7 +6495,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6549,10 +6546,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6600,7 +6597,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6696,7 +6693,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6744,7 +6741,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6799,10 +6796,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6857,7 +6854,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6912,7 +6909,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7011,7 +7008,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7068,7 +7065,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7113,7 +7110,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7291,7 +7288,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d+JX54qumnmzsMu2UtCbYRO1+12tEFoTjzbQiLmRYVqtcBi6dKpZzJTgGS0mE0Q2//b3hwXy55G7N/xjKoyTxQ==" saltValue="4HUYj+6zJo9BkpROWmaolQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CVO24EqauolWRHle8E3KDnHBPbC33Ew4qgbvoG8uCmvcbnSldkVFD1jgA0QzHiR1SnQTkg0LW+PjpGdj0UJs/Q==" saltValue="uVx42XL9YnYcJ1SyOimxBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7310,26 +7307,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tRWv3Hb2ek1mcKbND08o/LgN46BHg4HoB0Zs6DuTwUb84aoIqLv6sbgTKQrZB4Rl6y8VD8bK9aQs40GHl5hXMQ==" saltValue="KNteV0JT8Qs3Fh2pk4kliQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FLJrcsD5ZJGNvRv2TIuysH11v2Odo+BzQ0s0C+EowSc1piVLJaJ8DvGFFrbFJJNue6jLTqnL6KhOBqr17ILryQ==" saltValue="S1BMA1fuOqUWuG88hwXJgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7356,24 +7353,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7409,7 +7406,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7445,7 +7442,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7463,7 +7460,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7481,7 +7478,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7499,7 +7496,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7537,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QESe2F25CUspVh4JP2zHclC206F1snDJem3aT0sy+uHkOTrSbKiN0cfrYxYOdTCFeUAPZvgq2isClIMdqVvIQw==" saltValue="MtW8NtNDAmq5K4VsGBmnAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3ygJxzONC9ZkdazNooqgB/vogfxg+zSJoJBTCCaleepCUmR1tpGjg2TD666J1dq+4E0lVjPdRbqbOlpXE6Rm9A==" saltValue="narPGdlldLWs6SaDvKBwWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7570,57 +7567,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7664,7 +7661,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7708,7 +7705,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7752,7 +7749,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7796,7 +7793,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -7840,7 +7837,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -8016,7 +8013,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8104,7 +8101,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8148,7 +8145,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8192,7 +8189,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8252,10 +8249,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8300,7 +8297,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8344,7 +8341,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8388,7 +8385,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8564,7 +8561,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8624,10 +8621,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8672,7 +8669,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8717,7 +8714,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8805,7 +8802,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8865,10 +8862,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8912,7 +8909,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8956,7 +8953,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -9000,7 +8997,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -9044,7 +9041,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9089,7 +9086,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9265,7 +9262,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9308,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PssuOnhITv1aHDtvdctQxJR0eiEBe62oHvW3ZKDjNz/vQQFPqUCwy+5q2ykJ+P93ljzr2vdv0wz9g5GUUMsDgg==" saltValue="zKfPFszV2Hfuor5w7jUlJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TUnlhhCqCpJ7jsAmSmva1jE9Bh+2GsrcoKPDn8aqvEaFqHR+EIb2ufQgTe08TDyI1exukoKpxJxIICXCPjNP7A==" saltValue="wYOMyqZG3ggbQdLB8rndFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9341,42 +9338,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9386,14 +9383,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9402,7 +9399,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9410,12 +9407,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9427,11 +9424,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9444,7 +9441,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9455,26 +9452,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9482,18 +9479,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9501,18 +9498,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9520,11 +9517,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9537,11 +9534,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9554,11 +9551,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9571,11 +9568,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9588,11 +9585,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9600,18 +9597,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9619,39 +9616,39 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9664,16 +9661,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9683,16 +9680,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9702,16 +9699,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9721,7 +9718,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9730,26 +9727,26 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9761,11 +9758,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9773,14 +9770,14 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9789,7 +9786,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9797,7 +9794,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9806,7 +9803,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9814,11 +9811,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9831,11 +9828,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9843,14 +9840,14 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9859,7 +9856,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9867,14 +9864,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9886,13 +9883,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9903,7 +9900,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9911,10 +9908,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9922,7 +9919,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9930,10 +9927,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9941,7 +9938,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9949,10 +9946,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9960,7 +9957,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9968,10 +9965,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9987,10 +9984,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9998,7 +9995,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -10006,10 +10003,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -10017,7 +10014,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -10026,7 +10023,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -10034,27 +10031,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cuhbz9kuZYHlGy4lTqPOaOjsHvmwvHqKt+8seQW1tXBJl4bhHKJ443YpOklgd7S8QU2fiWHT1zYyirgqnRT9sA==" saltValue="SYjkP0RiUmEou50ZKLwWWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/nQC5d3ObRGkBXVk7rgU6qhiWqv4GOgZ62OkSVuPLNh5hJs2ooHRZ0414FPeeaU+9Mstizn0VNt4zXhzMdiW6Q==" saltValue="ffW7anjgjxznjCtQhy6UnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10087,63 +10084,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10151,28 +10148,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10180,28 +10177,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10209,28 +10206,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10238,28 +10235,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10267,95 +10264,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10364,19 +10361,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10386,16 +10383,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10405,16 +10402,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10424,11 +10421,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wY8Idzmsb6ZI3KTUv+FNi8AVfRP4BFjXjF9UyBLgOGHusybTbZ1sDgSBj5xk6AIZQ/VniMWOmrBUNmRZo4jwbg==" saltValue="THyqOLerYSeJsyqI2G89+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fxOJXL2aDHhUnm5/qnYJkwHZ9BWcSaRwXYq6THbZ6V/osTwpW1LYUOESgwSLXiLddRwptsf5MAE067e5n+8rYg==" saltValue="0vjLFPyzWHwNOkqTBjvXWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10454,39 +10451,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10507,7 +10504,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10529,7 +10526,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10550,10 +10547,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10575,7 +10572,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10596,7 +10593,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10616,10 +10613,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10640,7 +10637,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10661,7 +10658,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10681,10 +10678,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10705,7 +10702,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10726,7 +10723,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10746,10 +10743,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10770,7 +10767,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10791,7 +10788,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10811,10 +10808,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10841,13 +10838,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10868,7 +10865,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10889,7 +10886,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10909,10 +10906,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10933,7 +10930,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10954,7 +10951,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10974,10 +10971,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10998,7 +10995,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -11019,7 +11016,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -11039,10 +11036,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -11063,7 +11060,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11084,7 +11081,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11104,10 +11101,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11128,7 +11125,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11149,7 +11146,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11169,10 +11166,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11199,13 +11196,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11226,7 +11223,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11247,7 +11244,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11267,10 +11264,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11291,7 +11288,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11312,7 +11309,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11332,10 +11329,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11356,7 +11353,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11377,7 +11374,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11397,10 +11394,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11421,7 +11418,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11442,7 +11439,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11462,10 +11459,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11486,7 +11483,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11507,7 +11504,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11527,10 +11524,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11549,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+MTSvuqhG3YDy0ROE5ivlB3LluEg06sZRaCSdXMyj+u7vVmHPKdkpnPNgzKttTNw/F/n+fjl9jYXLDTdRvw1Cw==" saltValue="ZGGP/yC/DdOn7qIgTkSZ8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X/g42M7fR/Wor/s7F5N5ZLkGp5vKSJIi86uKW9rU47tkWYWhCITCD5aHleZ3hKK9b0BXEfnoYzMJZuaej9b+cA==" saltValue="SGSZphbSYhUHyevWbVeFaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11592,31 +11589,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12657,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9z5y7HbxU08d2d09W+SInkfXQEECEp+ZEwD5yD3d3Dpx+8ypRLnHy/3hIACl2lnnjyJ53ddPjX6Co23FVq6dfA==" saltValue="EqOiNDZmkPi9GpvLJzsKJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tzQBJyQR9InN5c5jsUX6SanI7j9uG5XqfFTqELggaTBKVVWmOWB1ji7NbtcdpPwmuBUbIL+Uht2VZUQafRSjUQ==" saltValue="H0gXwH3gsmmOViIxpOuY9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12691,27 +12688,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12721,7 +12718,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12738,7 +12735,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12755,7 +12752,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12772,7 +12769,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12795,7 +12792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12820,7 +12817,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12830,7 +12827,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12840,7 +12837,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12858,7 +12855,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12876,7 +12873,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12903,7 +12900,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12914,7 +12911,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -12950,7 +12947,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -12986,7 +12983,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -13003,7 +13000,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -13020,7 +13017,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -13037,7 +13034,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -13059,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FNKPRU7hJbyrhCaage4+SLg1hCkrSSOe6O6ThZfrmoptKnRB+leWZPMUQwCUMVmrJUAZLlqYc+Pk7rDhuMJPgQ==" saltValue="nQtNMZVh8TfovWStybBpLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TKxHFl6XpR7hvlxtgVbEPlTEC5+vYVbSxcSYjKEJnmcYVxND4HPKiOYTnrY99zjIZI/52F8CjRBLDkA7hOeA7Q==" saltValue="75uskD6oTLgjEmjteyRatQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13089,33 +13086,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -13129,10 +13126,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13160,7 +13157,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13216,7 +13213,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13244,10 +13241,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13275,7 +13272,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13331,7 +13328,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13359,10 +13356,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13390,7 +13387,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13418,7 +13415,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13446,7 +13443,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13474,10 +13471,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13505,7 +13502,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13533,7 +13530,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13561,7 +13558,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13589,10 +13586,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13620,7 +13617,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13648,7 +13645,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13676,7 +13673,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13704,10 +13701,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13735,7 +13732,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13763,7 +13760,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13791,7 +13788,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13819,33 +13816,33 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -13859,10 +13856,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13890,7 +13887,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13918,7 +13915,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13946,7 +13943,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13974,10 +13971,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14005,7 +14002,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14033,7 +14030,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -14061,7 +14058,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -14089,10 +14086,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14120,7 +14117,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14148,7 +14145,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -14176,7 +14173,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -14204,10 +14201,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14235,7 +14232,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14263,7 +14260,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14291,7 +14288,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14319,10 +14316,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14350,7 +14347,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14378,7 +14375,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14406,7 +14403,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14434,10 +14431,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14465,7 +14462,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14493,7 +14490,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14521,7 +14518,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14553,30 +14550,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14587,10 +14584,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14612,7 +14609,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14634,10 +14631,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14659,7 +14656,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14681,10 +14678,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14706,7 +14703,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14732,33 +14729,33 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -14772,10 +14769,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14803,7 +14800,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14831,7 +14828,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14859,7 +14856,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14887,10 +14884,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14918,7 +14915,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14946,7 +14943,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14974,7 +14971,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -15002,10 +14999,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -15033,7 +15030,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -15061,7 +15058,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -15089,7 +15086,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -15117,10 +15114,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -15148,7 +15145,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -15176,7 +15173,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -15204,7 +15201,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15232,10 +15229,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15263,7 +15260,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15291,7 +15288,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15319,7 +15316,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15347,10 +15344,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15378,7 +15375,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15406,7 +15403,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15434,7 +15431,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15462,10 +15459,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15493,7 +15490,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15521,7 +15518,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15549,7 +15546,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15577,10 +15574,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15608,7 +15605,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15664,7 +15661,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15692,10 +15689,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15723,7 +15720,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15751,7 +15748,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15779,7 +15776,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15807,33 +15804,33 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -15848,7 +15845,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15876,7 +15873,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15904,7 +15901,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15932,7 +15929,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15962,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mJnrSzbnoC4Y2ciYBRP22FKeDHGRBvUNVzT8Ludt0PasnmkgoWkjQ1GntanRGhr8KodQpWYDrAg+W5m5CLOuGA==" saltValue="hRPPkG3tm7i/bPoZLz4kMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P8tHN/YwNawotbchhp/A124mXaOdmgtf2Yo8pHGI7vEYb6OymetZfufM9Mb7JbxSNNcvTghxxkQpTzHBuhedCQ==" saltValue="H6mW7nDa5Pusu7LmdZOVeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15993,36 +15990,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16040,7 +16037,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -16060,12 +16057,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16085,7 +16082,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16105,7 +16102,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16133,13 +16130,13 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -16163,15 +16160,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -16192,7 +16189,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -16212,10 +16209,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16236,26 +16233,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16271,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dzZQroQocDh3+41EsbFRNBprhC0TavonGrl/NGOqwUTf+rxH7gCsv1KkqVU+7Nqh0yl2VYP/Oiayr7aylGZk5Q==" saltValue="6rBx149dZwWLHyNbf3FH9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RPFwCQ83ENyOJOpYFceOZPlTyJoaUPUXsN7SKGO/zGKIZiuhGbmWWqy0lQM0JOPiMmLpJwZBVE0/WzTePaYKpg==" saltValue="8elCCir0NHbjVWrMJkDyRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16300,28 +16297,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16339,7 +16336,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16356,10 +16353,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C4" s="136">
         <v>0.15</v>
@@ -16377,7 +16374,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16394,10 +16391,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C6" s="136">
         <v>0.15</v>
@@ -16415,7 +16412,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16432,10 +16429,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16453,7 +16450,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16470,10 +16467,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16491,7 +16488,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16508,10 +16505,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C12" s="136">
         <v>0.23</v>
@@ -16529,7 +16526,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16551,7 +16548,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dVlAesbFTEu9UMvCQugT22qi6rr1fdwlqsa5NBaUD9ImaVi3o3f5lwq4e2b4T+Zb0GvKr08NHfPbuAJZ3jXC8Q==" saltValue="tfmH4UFdXY1HvuQ73yctxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s0I9DZuWFA8e9cDTlMaPA5G/y72At75hc9dUhqaDbBllw5bTtW0IvwQmWkALuIbcYolLMeYdXYoy0Su3TDrNZg==" saltValue="hdUGJ2BOUVnfZnPgINRIXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16580,53 +16577,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16670,7 +16667,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16714,7 +16711,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16758,7 +16755,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16802,7 +16799,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16846,7 +16843,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16890,7 +16887,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16934,7 +16931,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -16978,7 +16975,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -17022,7 +17019,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -17066,7 +17063,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -17110,7 +17107,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -17154,13 +17151,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -17204,7 +17201,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17248,7 +17245,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17292,7 +17289,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17347,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EY/WOOY3hDoexI7X+vXprslnhGVBy0eLZxzeLDUYxe2YQaMhSh6URsEa8meUaFS2wjeWxPibOUfaG1+1DSuHYA==" saltValue="PnnFWBW7G/6ZBIH+Umf7ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Kq3SlFu7jxDH892aikeHQDCAqI3JT/G0GzZa0Adh2fz/s9Xcr3U/WXNn8N9dKI4s+MTARbQbmRt9ms6BTRpzA==" saltValue="WeehXzVzh70ceXQcW22Q/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17376,29 +17373,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17418,7 +17415,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17429,7 +17426,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17448,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="krNzJ3eW4toN5jJI+N4LvI+EearFjPSouwpIn7EowseQpjDKyuUE9+c4Gdo/dgrV5nVOYFfI521xrGZIawnjyQ==" saltValue="3sHMxJ362JHhuhYSnhCPBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vuGw6U329IUDGGbU2+7zAVNWNrhtV5RnO/SQcPiyM+Qu/6WJafIctBCZL44PH1TVWx3Q84aHTQBN7wYLI5eL1Q==" saltValue="AMOa5s6evDIpn/hAOs3pXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17480,39 +17477,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17532,7 +17529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17552,7 +17549,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17572,13 +17569,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17598,7 +17595,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17618,10 +17615,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17641,7 +17638,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17661,13 +17658,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17687,7 +17684,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17707,10 +17704,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17730,7 +17727,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17750,13 +17747,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17776,7 +17773,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17797,10 +17794,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17821,7 +17818,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17842,13 +17839,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17869,7 +17866,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D18" s="136">
         <v>0.46</v>
@@ -17890,13 +17887,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17916,7 +17913,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D20" s="136">
         <v>0.46</v>
@@ -17936,13 +17933,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17962,7 +17959,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D22" s="136">
         <v>0.46</v>
@@ -17982,13 +17979,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -18008,7 +18005,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18028,7 +18025,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18048,13 +18045,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18094,7 +18091,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18114,13 +18111,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18140,7 +18137,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18160,7 +18157,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18180,13 +18177,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18206,7 +18203,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18246,13 +18243,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18272,7 +18269,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18292,7 +18289,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18312,13 +18309,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18338,7 +18335,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18358,7 +18355,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18378,10 +18375,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18401,7 +18398,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D42" s="136">
         <v>0.49</v>
@@ -18421,7 +18418,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D43" s="136">
         <v>0.52</v>
@@ -18441,13 +18438,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18467,7 +18464,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D45" s="136">
         <v>0.93</v>
@@ -18487,13 +18484,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18513,7 +18510,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D47" s="136">
         <v>0.86</v>
@@ -18533,13 +18530,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18559,7 +18556,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D49" s="136">
         <v>0.51</v>
@@ -18578,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NiSZHpod9KTWMXtR+0A7PDkKcYPEgx7OPsGV6uPDaeamOIpuafcKz7WBIvaYUy8XzmdPNDIxVlyMk/L3tqV0Tg==" saltValue="YCA0371VxIATN3U463iPng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iQrOI4776KRkRGZ0gqlG5Z13tixPkqJhtlvooKIckCYHJQh25GqKVa6nVEYpRW2X4NlyhgrpJEWXnTUBUM/qzw==" saltValue="bIq5v1M1K5IQkN8NAK20eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18606,35 +18603,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18652,7 +18649,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18670,13 +18667,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18695,7 +18692,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18713,13 +18710,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18738,7 +18735,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D7" s="136">
         <v>0.6</v>
@@ -18755,7 +18752,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fN8rpjE4QizjRqX8yuSch8/j5LNeeI80ZrAjf/TQDR9WhwLbEG5g3MwxEP8/tsgVswxxuZmz91dkYfl55wlYfg==" saltValue="XyIUiIwu4/e3T+M+8EwkyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nxdCwjILAWXgWpYg1i7u/GPrZpRKAtXxJMcshQ32llYbzwjFbGrFfdVetY1rAOFfjY1mQu9nsRftYt7u0GIMkw==" saltValue="ghAObQ07oMiR7G82PkXm7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18791,13 +18788,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18806,7 +18803,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18814,7 +18811,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18822,7 +18819,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18830,7 +18827,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18838,7 +18835,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18846,7 +18843,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18854,7 +18851,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18862,7 +18859,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18870,7 +18867,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18890,28 +18887,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18928,7 +18925,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18945,7 +18942,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18962,7 +18959,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18979,7 +18976,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18996,7 +18993,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19013,7 +19010,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19030,7 +19027,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19047,7 +19044,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19064,7 +19061,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19096,13 +19093,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="C25" s="41" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19112,7 +19109,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19120,7 +19117,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19128,7 +19125,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19136,7 +19133,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19144,7 +19141,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19152,7 +19149,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19160,7 +19157,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19168,7 +19165,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19176,7 +19173,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19184,7 +19181,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19192,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nhWrpPafHKRfMH8R+QaQbLx1Zn0+pPrq0Eh0EDGVjPvJp+mufsm6jGyzqE+NWFw2pJJdRvAYXLwDzZzgosD63g==" saltValue="rP9SQpTZlwK8quhNMU/x/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hMWZh8Td9PK+hzDIzk0HYS2LAkBc2uDuSZOnBiPbb/VwXNEK+Fl9l+MUJF7TIUT5bKHcn25Qyp46WrmI5TUv5Q==" saltValue="Zgyau/D0W+8mFcGXTeGa0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19222,30 +19219,30 @@
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19271,7 +19268,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19297,7 +19294,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19318,7 +19315,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19354,10 +19351,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19382,7 +19379,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19427,7 +19424,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19461,51 +19458,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19549,7 +19546,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19619,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u2MEAWDUmtbOn6iwx7EUzotk9wnEC7EESU8WkkfySnhsNPuWkJbN9yum00TFMAQRCIYF6kE08KdNSVI7dKBKSw==" saltValue="dZcnwFo/9+ZYpzdwhtZ63w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l85ED6GmIfAv/tIw/Hio4B4jKGSFwhcdYi8Fv6Te4VRybnkvnW5H/6BymZznGZlCLMeFP7HDxPIXgInbwtVn9g==" saltValue="/a5SUuVGJ1KsDeyPUuVWcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19649,30 +19646,30 @@
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19692,7 +19689,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19712,7 +19709,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19732,7 +19729,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19756,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xszTRrMe1YYInZ3ZR6CDFzbTf2qLHgLscQ12kWGUmrj3oG2HhA1MjLC7J7o1ZGDFSSYfm6y9M91cu0TESXxciA==" saltValue="h5RR7hD3fdpReChEImDOrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="db5rbwa/Hn8GaUzn/DSfeaEgBY46Gvjd1dsG6gEytAxH/1Mdrga6DxpOWtwWO3oXIszvsQRGMA8SvtsvS8Bt0Q==" saltValue="hzG8nmnM8CJVnpmmvLOyfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19781,10 +19778,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -19816,10 +19813,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -19836,10 +19833,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -19856,10 +19853,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -19873,7 +19870,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -19887,7 +19884,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -19901,10 +19898,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -19918,7 +19915,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -19932,10 +19929,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -19949,7 +19946,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -19962,7 +19959,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3vkYlFCCeoj+F8DzD4sHyJkxzwBnPo8rCz2BR/it/uyJEzK5ZbJlBk7RVFyLeHWWxiAJMDRzcLP2BTw3L7AeBw==" saltValue="UjDNzlAkYopXz3gJK1cnLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pWLt4AnWLkt0N+Y8VNpVsoSonGdP6WMGak8hCIKrRwOGhGqWV3ZWuJ+Os777+IV6HqlBJWfLe+yAcUuPynN6TQ==" saltValue="ddhsyp4KssG9Q8ShMWDaZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19989,27 +19986,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20021,7 +20018,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20035,7 +20032,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20049,7 +20046,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20063,7 +20060,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20077,7 +20074,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20085,10 +20082,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20102,7 +20099,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20114,7 +20111,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20126,7 +20123,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20138,7 +20135,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20150,24 +20147,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20177,11 +20174,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20191,11 +20188,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20205,11 +20202,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20219,11 +20216,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20233,14 +20230,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RdheyecCOxerEjfzWKXRA3dmxByFmcke+kZtWqSf66dbUNA0FkY/kRQb6Av8dwiTbXXziplC1W0+DAIIj1twJA==" saltValue="mZYEsG8qEcRhgUZ/e1wF8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WSOt49inExIfAqZZVvstW/Sa6OJOrRJLVN8Mezjkq7lu5Al15QOAe8y3nznraxWn3m3n7GpvCruNCCK4aEoadA==" saltValue="3Dlm2GkGj+UeYZjFXbdh7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20267,44 +20264,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WpxjI9/FVumhv9zI/RGqZQSjzUL+r8NwNE+A2Bjcg0atpQgTgA8G/y4iVCR7t+Z9g90JVPBFNjIZs8gyIyAZ4A==" saltValue="gGDhhLQLJeLgwbM8I0EvNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/40XBbsqY4TRrKR3xAG7sRopt8HezgNbPJ7ommPEteP6GQ1GbemODpcFpGh+xfClhhP31z72F7THqep/vYYEdQ==" saltValue="jLpIzBsC5M/D1I56KWcCAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20332,25 +20329,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20362,12 +20359,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20379,12 +20376,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20396,12 +20393,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20413,12 +20410,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20430,12 +20427,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20447,12 +20444,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20464,12 +20461,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20481,12 +20478,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20498,12 +20495,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20515,12 +20512,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20532,12 +20529,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20549,12 +20546,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20566,12 +20563,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20583,12 +20580,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20600,12 +20597,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20617,12 +20614,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20634,12 +20631,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20651,12 +20648,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20668,12 +20665,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20685,12 +20682,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20702,12 +20699,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20719,12 +20716,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20736,12 +20733,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20753,12 +20750,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20770,12 +20767,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20787,12 +20784,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20804,12 +20801,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20821,12 +20818,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20838,12 +20835,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20855,12 +20852,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20872,12 +20869,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20889,12 +20886,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20906,12 +20903,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -20923,12 +20920,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -20940,13 +20937,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -20958,12 +20955,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -20975,14 +20972,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5NFIj7yewtWTrDv5AcGtsDAS8wQ6lvI1tOis0c+Sceh1/2mvL/8Fhb0NKGsji3dS8xNzO1bOhVQMEK3r/psxwQ==" saltValue="3ijrS2+Q4ijXAbPMFas+yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dc6L9bGWRVJygJykeMWXwCvbkw3FxjNXWqAnv34fP72fzI0gbLTRMZuXcvobkUXsHqmMeUA6aPeILQPMr6AZcw==" saltValue="Y3s1oR6dsydggWA/UHZKng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6200A38E-486C-4ECF-B06C-1ACB785DF801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07EA9358-64C7-424F-A4A3-EEE363903EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -5209,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MuXf66Ym21d8ttv/2DICuwRD5fsBNSNPp8E1CJyZm3muQulwWiMCw6gx5uP/pd3A1+6I36mRgMAKjSiLWWwRlQ==" saltValue="pFjLtE4wgFqbut9wjZqnpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jzVl1DGrJufWuz/gE1qg+Gh24T5xmC60TN3zxP+/NtIBN6WPVQDnVVmOv6kv6QuVFQQEV3XBEgXPvojecCJlmA==" saltValue="gYuRsaE6O+w10krgF8sIlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5357,7 +5357,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8wmx+I7LIsAnygY4CsNjtFGKmkb+JVl6tP1njNEBSO/j+UsEaJcBn9IAe8DJzHX0YKAkAD6yrDOZfGPqzl2XjA==" saltValue="Pui80Ug5Jy4A28DQnXRiGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uaSFwRGdwmkHo4Sr+Bkek3OS+xNmaG8dw3q8tLZDFwf/KVY0RTqtrmj9id3R1V+BKyIl9GQYyipNMmlRDdyhMQ==" saltValue="Sf7nM5ZES9JXt7kBEMRhzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5457,7 +5457,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Cye7tkEruspFd/E2PJzzetPLXX64s3fQ75XQYxAzbThGpfHkVVsAW5jb9AZjxm9xWvClvjW/zZq7vpJnmcjmg==" saltValue="YNBH5rE/m1cO0kGd6zMqeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FctXii/ogm1xz/yyS1B7Mic9ws1FHmXJa0tmxauSq0fucaAydJYFIgfawS0eW8RHHmzOr84n0l8JJVrY56+Qfg==" saltValue="pTAW4VIee1DaJ9cY3OODXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5572,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RE4VkiIvre8+ywbBjz7wOqRVfwSnC9bV7zSgvtHNKHvf3pEmxi2ilZ1VklZNCT0yjVPAD+R7LPiQrkd6HpG/6A==" saltValue="ib7XweWw3Q9L/ccq/gfrmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QxUrhHixvonuCbGh/Zu2kQQQP0UPCyvrFFFC9K00fLN+zhckMXvmhSHE433C1RoBshaBdB8vXfvx9TSTXGmEsg==" saltValue="ptnpQS+9DtJrc3/EeN7hhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7288,7 +7288,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CVO24EqauolWRHle8E3KDnHBPbC33Ew4qgbvoG8uCmvcbnSldkVFD1jgA0QzHiR1SnQTkg0LW+PjpGdj0UJs/Q==" saltValue="uVx42XL9YnYcJ1SyOimxBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4aFUGfImJhiU506dDrOr09S2tc4a3OKUkuzVG5cxlu6TSFvr2mFxDpkuqhmgIDZw+xiwAGt3IuUGfeec38Tt0Q==" saltValue="GTcYHjcklndQ/GrKNc4x9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7326,7 +7326,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FLJrcsD5ZJGNvRv2TIuysH11v2Odo+BzQ0s0C+EowSc1piVLJaJ8DvGFFrbFJJNue6jLTqnL6KhOBqr17ILryQ==" saltValue="S1BMA1fuOqUWuG88hwXJgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t79yQYOVtOJyooXQMK4XnXhHymlLBTJC+R4jHZopi+AeWCrYqdab2RWZ7duEZVBstOpEQJSwyNgpZ0zj2ek3TA==" saltValue="s2DKmUht8v8qdaCSrePOXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7534,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3ygJxzONC9ZkdazNooqgB/vogfxg+zSJoJBTCCaleepCUmR1tpGjg2TD666J1dq+4E0lVjPdRbqbOlpXE6Rm9A==" saltValue="narPGdlldLWs6SaDvKBwWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9A3lY8tOx7JtIGiBE1YgGUZVlA/7BVsPPsle9sMJtqg+Ozg/E21DtoqTcBMwVEh1GmbK1KCG8FztCY7lJvUALA==" saltValue="StnyMOlNdjaOPGIN/IM9GA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9305,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TUnlhhCqCpJ7jsAmSmva1jE9Bh+2GsrcoKPDn8aqvEaFqHR+EIb2ufQgTe08TDyI1exukoKpxJxIICXCPjNP7A==" saltValue="wYOMyqZG3ggbQdLB8rndFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sPIcQvmvJqLJWsX1/1hpJQKaSMtJfgUmL0UM/ADlXSDh54Sj3ccyRV2zc3eAwPs1EVJerwvxc06W7VdjzxTGlA==" saltValue="XN1a7SaDAKBSVtqmVboAPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10051,7 +10051,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/nQC5d3ObRGkBXVk7rgU6qhiWqv4GOgZ62OkSVuPLNh5hJs2ooHRZ0414FPeeaU+9Mstizn0VNt4zXhzMdiW6Q==" saltValue="ffW7anjgjxznjCtQhy6UnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KR/gdJBP/XFkrQc8yG2QGC0ntji5g50QR9SAo4oiZNr+4mfafQNXKsSC5mBDXSwg/VzzP/6eQLuFuPj9XrGBlA==" saltValue="iEWTHmSRkrd2RvILhzLe9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10425,7 +10425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fxOJXL2aDHhUnm5/qnYJkwHZ9BWcSaRwXYq6THbZ6V/osTwpW1LYUOESgwSLXiLddRwptsf5MAE067e5n+8rYg==" saltValue="0vjLFPyzWHwNOkqTBjvXWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WOx7aq6hjCihJKU0sOWomK4d/3W76tGvos5nGaQz4OjSBqwQAkx/vKrwJ/FDYBsrNlToaQ3Xs3OKtmMEUFZxFw==" saltValue="yDs/zDEg0zdNkr/4yOkBuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11546,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X/g42M7fR/Wor/s7F5N5ZLkGp5vKSJIi86uKW9rU47tkWYWhCITCD5aHleZ3hKK9b0BXEfnoYzMJZuaej9b+cA==" saltValue="SGSZphbSYhUHyevWbVeFaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KgLNszkWJlJwJw8qPqEv3qUo5D5xZMX76YMvNU2JxeL2Ezvau672ZNFxewcZHdwvi9KPp9hr5GeXur5GpWn+BQ==" saltValue="DX6qFC4SWeSPD+1jKrOKVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12654,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tzQBJyQR9InN5c5jsUX6SanI7j9uG5XqfFTqELggaTBKVVWmOWB1ji7NbtcdpPwmuBUbIL+Uht2VZUQafRSjUQ==" saltValue="H0gXwH3gsmmOViIxpOuY9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rwZVrz+/sKWX6rSdha+BgkXoEgVDgxHmx7bKdlbyHymVwG3RIwIrwemDgSZ7XCQGQ/lUVLrqwYA8Wr3H/0hxhw==" saltValue="eDASBvehzr8VC5NtRnsznQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13056,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TKxHFl6XpR7hvlxtgVbEPlTEC5+vYVbSxcSYjKEJnmcYVxND4HPKiOYTnrY99zjIZI/52F8CjRBLDkA7hOeA7Q==" saltValue="75uskD6oTLgjEmjteyRatQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IpiZxjNYMCSHR8iIyrfD98q6MWZ0F1u/dtzHt1Ph34p2wVD872kvRCU36lZZU6jQuHq7pzx/iazYSNJx9A/ezw==" saltValue="/uecJLYZx6m2P3+8T3zpJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15959,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P8tHN/YwNawotbchhp/A124mXaOdmgtf2Yo8pHGI7vEYb6OymetZfufM9Mb7JbxSNNcvTghxxkQpTzHBuhedCQ==" saltValue="H6mW7nDa5Pusu7LmdZOVeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DGkdJc0z5mM8nhV8aveUq+xJBOgdkEPVkFIDOpltSt/K2g7wG5gOUhWF0NmEHnHXXqYGP/rcLVGX6V9f9ty2pg==" saltValue="NpT2ycBHrtBLhay4aEbeIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16268,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RPFwCQ83ENyOJOpYFceOZPlTyJoaUPUXsN7SKGO/zGKIZiuhGbmWWqy0lQM0JOPiMmLpJwZBVE0/WzTePaYKpg==" saltValue="8elCCir0NHbjVWrMJkDyRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xWQAYf1Ybgwcc7nz6ELFzO1UF6lsuaf0XyFeYUdo6Fwp3UVS9pxjli8P3xNAbr/bNEkGoHJ3GtgnOIFSa1SnPg==" saltValue="DEg0z23YioRr5YRG4/8ZKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16548,7 +16548,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s0I9DZuWFA8e9cDTlMaPA5G/y72At75hc9dUhqaDbBllw5bTtW0IvwQmWkALuIbcYolLMeYdXYoy0Su3TDrNZg==" saltValue="hdUGJ2BOUVnfZnPgINRIXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0FVxOxsjIlBo22Vey23EiIanXTKeUtGV8WvY43v4pkQkvR0SU2tBcdF9Nw4UiKSrgOJqSfVuLe3j3BQv2QUceA==" saltValue="sHUHlSWprgqhgWJN6mg93Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17344,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Kq3SlFu7jxDH892aikeHQDCAqI3JT/G0GzZa0Adh2fz/s9Xcr3U/WXNn8N9dKI4s+MTARbQbmRt9ms6BTRpzA==" saltValue="WeehXzVzh70ceXQcW22Q/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TSfmmKtBL+/JPvl72H2Mw8R2nNXl/aZKe49K8Gqv/tWVRAa9P3nVKsEneF6kLPuTnbu2JQDjuYm1SvioQszGZg==" saltValue="zl0KnPiwFe7RHkx9wzbstQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vuGw6U329IUDGGbU2+7zAVNWNrhtV5RnO/SQcPiyM+Qu/6WJafIctBCZL44PH1TVWx3Q84aHTQBN7wYLI5eL1Q==" saltValue="AMOa5s6evDIpn/hAOs3pXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GAPUyYVszDFEV+3nnQySnLYqJ3r1FyNAdAO2UC++XY//QE7XKuRoUjPBVRfMoZwDEXfsSOWI+DRFieH0Jcr0Tw==" saltValue="aTGYsYIEpm7g3BhiWjgpUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18575,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iQrOI4776KRkRGZ0gqlG5Z13tixPkqJhtlvooKIckCYHJQh25GqKVa6nVEYpRW2X4NlyhgrpJEWXnTUBUM/qzw==" saltValue="bIq5v1M1K5IQkN8NAK20eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4ejO/0qd6jPDl25srTFj9jhXfJRO4yngebaSaPnqYGR5Tua379n1KkPvor9pTWkRGKBSYYBmwaju/APqYdGKvw==" saltValue="p24CQNLeSoQWrHs1QhmY+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18752,7 +18752,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nxdCwjILAWXgWpYg1i7u/GPrZpRKAtXxJMcshQ32llYbzwjFbGrFfdVetY1rAOFfjY1mQu9nsRftYt7u0GIMkw==" saltValue="ghAObQ07oMiR7G82PkXm7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GTeD03eRrbZ5FqZClLFueNe2fBPZgsbvWHJeQSlczHAH8YC/wHUt/EeOOiVjruMCEmZL8ZrcmdTwbnSI4UizUw==" saltValue="ZmTBib4RboIi9tOM99qzEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19189,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hMWZh8Td9PK+hzDIzk0HYS2LAkBc2uDuSZOnBiPbb/VwXNEK+Fl9l+MUJF7TIUT5bKHcn25Qyp46WrmI5TUv5Q==" saltValue="Zgyau/D0W+8mFcGXTeGa0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NRWzCpcc9yqO1UgslGFMnNykqSZChSeUr/EaGddHPtoZ8NB2NFgDRHA942SaOJb2GhNzG5Ejnjsm+Np9Q2Mk9A==" saltValue="7I7AOp0N3i9jz8Ns1dsxJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19616,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l85ED6GmIfAv/tIw/Hio4B4jKGSFwhcdYi8Fv6Te4VRybnkvnW5H/6BymZznGZlCLMeFP7HDxPIXgInbwtVn9g==" saltValue="/a5SUuVGJ1KsDeyPUuVWcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OuOSspx+1h7irk7e45dCyOyqxXDsPupO6gXofHxZgx2HkepPlMPlwY1jqGACGUaEWOvULG0XIX+r5LiycpncEQ==" saltValue="WQyOde53rMZNubSC1/qkJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19753,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="db5rbwa/Hn8GaUzn/DSfeaEgBY46Gvjd1dsG6gEytAxH/1Mdrga6DxpOWtwWO3oXIszvsQRGMA8SvtsvS8Bt0Q==" saltValue="hzG8nmnM8CJVnpmmvLOyfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lvxMGBOFdOMNaXWVqM0nQjWI/KcSo4L85OTz/312e3TmnONcO0lEJPJX0Qowz830pJRjnjGDe5/D/lEZPlGi7Q==" saltValue="+y/8rYjTEE3BsYxkKZPfDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19959,7 +19959,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pWLt4AnWLkt0N+Y8VNpVsoSonGdP6WMGak8hCIKrRwOGhGqWV3ZWuJ+Os777+IV6HqlBJWfLe+yAcUuPynN6TQ==" saltValue="ddhsyp4KssG9Q8ShMWDaZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9d7ycFkI+8HmHB1vLw9Y64U8TlzA+kPjExfEvHirSHdBEZPVzlLiv3ZFdhEMD0UFBxPcUDi5VLRAHNkaNNQ8Uw==" saltValue="FPbWQbrJWOXUR2R6Q1Hmig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20237,7 +20237,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WSOt49inExIfAqZZVvstW/Sa6OJOrRJLVN8Mezjkq7lu5Al15QOAe8y3nznraxWn3m3n7GpvCruNCCK4aEoadA==" saltValue="3Dlm2GkGj+UeYZjFXbdh7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="01LwKgZXIKKl5nT7p95LCGa912h+V31uRKT5IVO3W+Skgb/6qRdRUoO13loaoDCjpRSN8LX2N22UY58sh+sESg==" saltValue="XJaXgNuWsvSHORcZ3gf6yg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20301,7 +20301,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/40XBbsqY4TRrKR3xAG7sRopt8HezgNbPJ7ommPEteP6GQ1GbemODpcFpGh+xfClhhP31z72F7THqep/vYYEdQ==" saltValue="jLpIzBsC5M/D1I56KWcCAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/sbhdx2RHXnS75O0cXp+VNy2S1YxcXZO7LtDQYfbypq4OzuXS3VSjgR4RC9B1i2zOaaycfxaY58s21UhmPmXxA==" saltValue="gaH1k3KDipnMk6P/QwDd5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20979,7 +20979,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dc6L9bGWRVJygJykeMWXwCvbkw3FxjNXWqAnv34fP72fzI0gbLTRMZuXcvobkUXsHqmMeUA6aPeILQPMr6AZcw==" saltValue="Y3s1oR6dsydggWA/UHZKng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p2K0+DRyI8nyR+9qyY9pNxK7tCBvu3yxmQiwMM1sLiBeofIJhX1vlb8aBcfzB4w/8tWUvy+PNbCsW0k4hAKaMA==" saltValue="QgiaKrY+4BiTt2Avy1Rl4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EE813D-78D6-41DD-A56D-DDD98B678775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A5DD1CC-6AFB-4577-96A4-44566E75521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
     <t>Année finale</t>
   </si>
   <si>
-    <t>Données sur la population</t>
+    <t>Données démographiques</t>
   </si>
   <si>
     <t>Population des enfants de moins de 5 ans</t>
@@ -1056,7 +1056,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Retard de croissance</t>
@@ -1146,19 +1146,19 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -5194,7 +5194,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rWfGgy0k6pOaHw2YtPiOxx6VFXmZvWUfx47SQ0YQi5hXfByCDksyopiVT2x87dSaqa5SBmGBN/4gM/P8tYy66Q==" saltValue="OxrV9NT42SmUbNBq6KwtCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oc/pD44kIGj8whqBavgxh1qJqLCd37A2KdxRGbsAwr6cPYAb/V1q/bjlqCp55JTIZKyxD7QgheGISVucimsieQ==" saltValue="QnYe1yBbUombCVvH9QtZQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PUeKUXMz4CVqCJk5LCLzPzFl32W1s0Q+ZFA3Biscr+L71YuAIIniefD0BlwC/iLPcTpvqjmnQydPhDfzSmNxnA==" saltValue="zIeVqhAOWv4NlU7+0MUULw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+3UjwJJxu86sIRwiq2+N3hjzfnSmz7RUuVnwyrc4DnEDKlZRyHfBu08S7NwZhxBD5eYusU6UdbVgZXrehQaR7Q==" saltValue="sFDd7pGnBdgXQNgbHzdfsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5442,7 +5442,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HE782WKDME9kUoI/RKVq2PtLrLp1UY8nG8EHH/rzmr9cWo/4dCUNfqehFvP/5Jywo5tL5x8evumHguxb2iRf0Q==" saltValue="CRcHOO4ArhK0wgd6DPegJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B+NUa+sl0EwI7jvqMj1bfnCUYantWGJkAzwwgQ52woOfjK/HCTB2cDOpbMBc12LG2+YhbRN9ADwoCwexGmtbiQ==" saltValue="KFuVP9CoYQpNpQN7tHnCiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XXltTCHUX9o8z1t6xWv7YgclIIzM6TH2sa7TZ2mHhgTJXZWlVovJhixatDYam7gKEE8eLWhcsBryjjMX5cHYwQ==" saltValue="BEsGw5amMWoaE7pnCdyJSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P+7jOnxUrQTxQLZGuwHNprnrd44d66NWmILOVEdhQ6eHaeVToH0sKAElhu1XD03ns+DagHDJLgXqbzezJP15QQ==" saltValue="al8f/7EFqLC4eSuvya6/Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7273,7 +7273,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DhNsdylbA2ATyWEQ/8GZ73rU4jPudQSje7vbcMF3Yn9I4LlWdRoZXU6r4ETTYwW7TkvXkRE82iImTGMp26ubWQ==" saltValue="vSb1ZvIrmyn+O+9xPEgOtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rLFx37RouNE7/vPBMi4OmFY9whlCgdtGnL/BzSNrorMkPofLQ+ki9LhfyC3TK6lAvkByZVFCGyW9zyKSuSswww==" saltValue="AMDTyA1CwEPYIwT17wyIJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y91qrg/miWsapR8NC2dg2uhcHH2yXpN+krjYf3+U0NEHyOa9KOmsUNULM36ydIHEgwHhkv6bbajpgtZGVxqCrA==" saltValue="vHm2MDoM15wO62TKH8jEbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4e4CCu9KQkFcZkjlNFRLpWMRo4ZdEW3Y3b8vGAOfOnK2MSqOchuWmIE0+aw9vNa1CQFZNbYYnPfuOcxHRaN+Sw==" saltValue="yORJBWWrJYal01rFP/0yzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7519,7 +7519,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="irS7/3syvheCZO69kvUjJIAGU4WEX8cWMAMdmqKd9NA9PJ2m6Gq3yBsf8SeIcs0SsieAezIYZWI7ty1Goaw9ZA==" saltValue="p1XsWvzTi1r2ppzSLy/kwA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="98nVAQ6JBYFX4CPVLDIUXPIkThgFeWvh4LrjUCxA45EcwKFDYHfTsjXwkNw4U5tXOJ0lxCP5iR5bKZ88skvgkg==" saltValue="DMNbhzgHFfHt/WlBVrqw6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bZ1In3TSSKoyFMk0teRneotVtV9O7lTl4i99UrTPZs8BGAC4mF39v5pgqXkSwU87FZNBqGvIHG6ADScMYOQTMg==" saltValue="4713UhctuMQxr5eCWknDGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AV73vzLW/qZfsoHZ1iqd082w7/yoY+6KmiSAJundiHqnl2s4M/KM1c/87HdSX0EtNkvsllh4MukEiMTd5fnqaw==" saltValue="SLCFkAPTAe6GV+ebfAOzjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qA7mxJrRoMbh3YKAUz/Na6n950xje3zuZ7hv/F1nn8lwvJyoqrlS+YVqNpg95OwpCZ/Frv089LV0jJ2IhZCf/Q==" saltValue="CX3ptapKwX9estV3C2BP/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j9Y/efg3eD7JdXOLaoMACKDjFid586g0ykiVqBtioWbnJJTdO020B7s4hGCvg2BjYfDFOvgmJyHm0zmc6FV9rg==" saltValue="EoX6FhsLFzHIIbDclXcYXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xM65bUdRRfpl7uMZSUTv3OtWDxBaZYdw5ewXbJYQu5yE+EBvf4ZbaZQFLe/0sCPCL5RzH7fay//bApVOgW5uug==" saltValue="wyV4MdvsXYbxu3pYHvQEYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jxe64jyWcix7anejwnhDyiU911pEDejigKXWMX8B8Jj73+JyafoXjaOuajrDAn1xfqCrHgeGJDmrgPVBwzHDDQ==" saltValue="wCHJnz04XWWdbag96EYMCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Dr/C2tWr0aXxsGd4DE5rKtBp/NpdVIfHaALaQoDcwyVMH7ZbQY9wjyliMUjv6d3UkENFJja5WKnM9SBjn5wAsw==" saltValue="I8Xefi5BHFohOERQv4VTGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QYJBJcRThoDAOjyCwWvNmkctAVszklH1IRtXDB2M/HVhjgIXGa+vWxgiX+CuIxneOMVRvfdQSPSF3uJ4mBhprg==" saltValue="POCmkdz9vIubQNvrQUkAzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GwTioFXq19GZDzAChZzNpN9HVr4NfbElqNJNm3ducmYAS0YkIJjNh+0M/zaV8/yxTvim1HsvOLwcUy/3F3jDkQ==" saltValue="ioYuGRxmjDccH85lXbym5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zwMjGBt4NM2UA+oMPvmDrDzprdSqCK8HxZbriIBzJ48YDg30MC0+2fTlIGi3dAfxiJyYYT8bSyKEMhQ0STUxPg==" saltValue="c6pfl1srgx2KCwXHBhGrng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13041,7 +13041,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JbQO6tG1EpogaYvY2nvXIZB4TOAyDeNRnp7mxKNK3S8QqiWv0wXfF4RLjcJsmOAdOElYIc08VXhpuDtoubgKYg==" saltValue="TJfDEnONWgpHCN9p1IDyCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fiGmTPRz2sfIIj74+irkqwiv5HyXp+gUqd0HmYC+Ng5QyBtKEGa4iBRpldwEVAPvTyazI9KsUq6KiVnaFPmpoA==" saltValue="2CZaTPlECSApIGuTRO3h4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15944,7 +15944,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AtFik99pNruXTGcYtt/QS9+qbHLWXjFBbTRnLO8FCsuuA7ecjpw8+9DHYqvahH4N323tzEX6H2b+5Xe5W++/Lg==" saltValue="XugwFUda4f6tC9567xJwZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kwERFHNT62ZohGoZAZ3i61D+u9LVuYgKmT8JREkPPw/S8740jqHE4v8BGq8cbtUhulQFP43EY8No/Yf6d0FWng==" saltValue="T0bIwuI8Qrx3IYwptw3crQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z4A0yPEoHzQGqgliIxt83yqot06brltyxo11tmzk9wQJKgrK5XuItC4HJUpq636uzdsoaT0+4/K3MNYOHjQMKQ==" saltValue="vJ/FlcUGf947/KjljMhdeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hNUdVdm8PwqL7wEVPlpz3HDPvnQzMIZsXBUOvQsQhVcv1zPApyixjav+oF2phKt3YZ1EbAQ8wv5ZZqZPG/Whng==" saltValue="++qIG+Dow1TyClEsVRDO7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16533,7 +16533,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hRXBiBot13Onrnc7a8f2D+R2iqQpGKQaTvacG44OD8/m8BiLxWfi7sYylGpCNFJTg3QfPYlPTkE1I/xXfYSmMg==" saltValue="suYI7pkBpFKim/xFeiS9hQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZMOfgo+V6Wk4Vrlst2yKjScU6TVzv8/Ja9iWsyuUo2xdJRxz1dXe+9saxLnAC9xHDMh4UL1ACknbkPONAGue5g==" saltValue="xDJej9nbuPzM50KgI05poA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17329,7 +17329,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oK+nAdr+Vbw++Qp1zXpqlP2t82koLOC23HUmOVcyi1sOZVevRmr3Cehyc1q2emBw6EuwqMMy1oQLy8E8RRt+ng==" saltValue="rNcauPfcbkrcCT1vbFCj8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R+RxsedRv2HTPuDO5vuGb2j0LnwrTQexy3x2Ta2FvMetHPKLIGjPFIajEodpjg4rDz2PD13xDkinRbJ4oHUhzg==" saltValue="+Ckpqemws3Vy45ZzfRMfzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XHmi0mPlKm0Lq2xeAjZhH79nV/5V7zxFlfTlxUP7ADTa6q3Y52h/nfaZ48vlYMJSxwBR3zusAmf3SPvVK2cQ9w==" saltValue="NT/ibMrvJmzZfZenLtK3ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+pDeriBbr4AkPGYvhM7veoQBggAaxjv22daF8+raUNUfraaqrWdF6DE2sa+ydSk7/B30dA77KNK/mDWfFwmICQ==" saltValue="GqHL9bybxMqzZ7gOz0b7xA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="liKn6Rp2MRmPIsR9Cd8j+RCl4jmXaRMfzjRL36bhCeF+h+GlCOU2OglUY7pMzXKwhQ6+llZwkGbViLZcJRmIJA==" saltValue="NNEo0LKlhRm9dFUrFldg3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AcT8saxpbxAdpiol15rTlxLz3/qzLhfAQJ0J7d9LljTnUWe2XC84ZfpgXwPpeFnSYu7c67ivpFGPaXg5YMuF2A==" saltValue="3byQ5PziQ45szahO+lVzxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8LPcjE02jp1oxFvzjHnMNBEeBqzrtOwxHgGH6rGtr42Nnc+yiET/Gu8zF6UFqSmUmse4R3cs8XvZIVBNCjIbhA==" saltValue="DnW7Y8ijHVr67/NwWyRUdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R3NjI2p42zjn9jg0SH2zHH1scF4LdiUtB2GD+/bjRZKqZGI/kX5Add/8FAd9/0y9x6f2epSngW7V8Q0xOI5Oew==" saltValue="6pEhj8LazPjLF8K1TaVhGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jIVCev5t6MT9arKPG63mkKGG2pwN7eNEC5485MI054cfMRvXmlxyq3fqnXf/LVf9K2M/TYsfUPg3P817tza7wA==" saltValue="U7GQg+QCr200UX4PoQf7cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="084fLJSPJ7l56GRFm750isX3NVZz+sW1HCLSYxeqWQuqPDTj1jIvGr4QcODq8rkpObH3xauVqlLhHsyaUsHDRg==" saltValue="7MqKKBXI5PQnFPmZXnq/kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ljZNK8y8/VyoXNc3WT/q7RmoNrcFxGkD7x6fY3CtuGnE1ZMyyvQbEJOKgzihvymLR1X/LDak3PKItDp4XxaXdA==" saltValue="d4oPAHQLnAO8qST30DJbYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e5mLT10QfzaZDRK49ROSm5go0oJ9ZgjYccLeDA36uiv+zj5Z/HV1TSwmpC6nVw3akddBAXwyDkdFdtuv8eIK6w==" saltValue="xl/qhw2s0OHc+GQI5WAGtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GO5rvdDh/MO7E5aCZKSlesnomJ9XQhvNOImYDcfGOY6Vu+BaNV1QfwiL9Z+gDvKK10rJf5g7bONzNqc8SpDWnQ==" saltValue="kcichKYC7BaVfWuHdPQtbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BGwkk2GMwKvYJBZAlFLqU7027VgCT6tItdaBujr0dnTEfobTrG2i5bqokEgtMBNZqpG0MdVfvn/ATt0z5yQnOw==" saltValue="yZxv0Hh6Q4GRupjFcVfCCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19944,7 +19944,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wkSroEcMQXEdXxVXFZTS1D4sKqQPiW9PzzlYWTPaI2dIcaBeYuT/I0NGWAyda32HrDewk/76Tw1FOq6vdh5VQQ==" saltValue="g0PORN9sJAO7hfRcYGCgYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BTXGmFoeeJ1FssaWlarGM95cD+i1kj+iL+zcOpPvX195t2yTfS+eX7bYoUxwOcUctSdKH1lPv/NPzAwWhxWOnQ==" saltValue="yfVxFjrq/S6WcgezZXDT/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20222,7 +20222,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iNfMW3yTu+EBaep5bVRvsIbpxjnxN/eOOTpB62yVMPssq3pDmqH53qCxUxmCtLpbzR61G09JL7Ksw9kGv4ckxw==" saltValue="TaMbGVaRYTi96Syey1QpGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UpMAD14gpAGnuQTA6ZnEf23NBYqOXVSxG/KAL9X2wh5cOhVWi3Biu6l4MX0aFCKX2sRbKYR7ikE0sy9nh6BMtQ==" saltValue="1b30+xSEKpW5xulU4fyumA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20286,7 +20286,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A6049aunn+LbGqpeNtbvF17nFuL0wHBjtaYQdEWgMPc87XvSmGal/eqSpwzY5jiOLuY7sLYAu12SgDdGkyuMPA==" saltValue="6y7UZVdGHPJmMf5S6WLJDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="03YeNWTEGQGXc9mydc1YJYfDdgsRjvbyc9jwFUtn1Kc/TyRMs7uZZg5HqPgh7xeQt/ezKAE9J/kb/3y+zlUh6w==" saltValue="THoI1S5gqW2HbJRbFUXQIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20964,7 +20964,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v/dsXrKgdET0DoGh4+egsfwHT1yczRo/TQZD9rhGIaweSiSmPSuHEFGvkndvD8izIjTIoX4Q6DWob6YWyPxH3w==" saltValue="qD4ecsmQPnXhgnj9E891pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H7EhKLzQC1b21Rh6WX8DSzfFH0Ed2WTXspb96bc0qw2BxMIqP/qJ0iB7EwuyJXAodmOcAPmrvJ4bjjFadVwsMw==" saltValue="N6oNwgnE973dMDt9DXa1KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A5DD1CC-6AFB-4577-96A4-44566E75521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D31191-16C2-442A-B147-85293D86DE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4738,14 +4738,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4756,14 +4756,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -4772,7 +4772,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
@@ -4781,17 +4781,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -4847,17 +4847,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
@@ -4938,18 +4938,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>53</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>54</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>56</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>57</v>
       </c>
@@ -4990,20 +4990,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>60</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>62</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>64</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
@@ -5055,16 +5055,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5103,16 +5103,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>73</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>75</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -5153,12 +5153,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>81</v>
       </c>
@@ -5190,11 +5190,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oc/pD44kIGj8whqBavgxh1qJqLCd37A2KdxRGbsAwr6cPYAb/V1q/bjlqCp55JTIZKyxD7QgheGISVucimsieQ==" saltValue="QnYe1yBbUombCVvH9QtZQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ostBY7DLVlCpPE+mbgnOtGts8RBlRgX5JkKRbA8isYydT7He7QBbpQ+inFjmVlICgyOV3IqJHWse8JNmLDvVWA==" saltValue="/IZwNTQAod+mlxmo4yOuiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5211,15 +5211,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>195</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>192</v>
       </c>
@@ -5266,83 +5266,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+3UjwJJxu86sIRwiq2+N3hjzfnSmz7RUuVnwyrc4DnEDKlZRyHfBu08S7NwZhxBD5eYusU6UdbVgZXrehQaR7Q==" saltValue="sFDd7pGnBdgXQNgbHzdfsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gNKn0IN6XAMuouCslapGE1JO2wCZH1kMJJQi6ejTnTgq3D2KAgjnQFDR7CHCzwY0pGTv1Dm+BCBirgXdbPCG8A==" saltValue="e9gaDhOPPK3CefyhJRdIhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5360,89 +5360,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B+NUa+sl0EwI7jvqMj1bfnCUYantWGJkAzwwgQ52woOfjK/HCTB2cDOpbMBc12LG2+YhbRN9ADwoCwexGmtbiQ==" saltValue="KFuVP9CoYQpNpQN7tHnCiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v8rKfvKWuTvMY4zj9VRCbHUl5wIPggzFDlRPSzG8sfA/6I+vekIN3vrvCoX2nACA9ue6Q7kT99DHbixT4De4sg==" saltValue="+Fq07RlXXoQbYRLpRt+KfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5459,9 +5459,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>209</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P+7jOnxUrQTxQLZGuwHNprnrd44d66NWmILOVEdhQ6eHaeVToH0sKAElhu1XD03ns+DagHDJLgXqbzezJP15QQ==" saltValue="al8f/7EFqLC4eSuvya6/Zw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HblmZgdT779nisiFe5aPvMoA83sJd0sZTcw7TMS9BG6UGbxzDbOdPWEuHdfaB5ZUxCNP99DEMqYAJQOgKOpHpg==" saltValue="SKelQBwu4i6q1mPJVqwN4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5574,19 +5574,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>187</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>192</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>194</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>195</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>165</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>196</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>202</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>203</v>
       </c>
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>173</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>184</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>90</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>180</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>181</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>182</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6779,7 +6779,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>210</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>178</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>179</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>186</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>189</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>197</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>198</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>199</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>200</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
@@ -7269,11 +7269,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rLFx37RouNE7/vPBMi4OmFY9whlCgdtGnL/BzSNrorMkPofLQ+ki9LhfyC3TK6lAvkByZVFCGyW9zyKSuSswww==" saltValue="AMDTyA1CwEPYIwT17wyIJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PBkTgODD0CaKO3fzxl9LMh8aeOd4nde335syjwEcUlw575ZeFdCgtdbFDXO0lbSbzB1lwLyy8wODvEawor3i2Q==" saltValue="dG3pUBnyCcZhIRbdKkgzsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7288,30 +7288,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4e4CCu9KQkFcZkjlNFRLpWMRo4ZdEW3Y3b8vGAOfOnK2MSqOchuWmIE0+aw9vNa1CQFZNbYYnPfuOcxHRaN+Sw==" saltValue="yORJBWWrJYal01rFP/0yzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="csMqKo1oULHvWFW9Mz3SVhwUGoC5LTTgSBy5dl7XnMBczXcN8dRmO7uD6qiM5Q734T2sHeFPzxyynplfOccmOw==" saltValue="83FVl+euNJYeEkUYBhG/xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7327,16 +7327,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
@@ -7515,11 +7515,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="98nVAQ6JBYFX4CPVLDIUXPIkThgFeWvh4LrjUCxA45EcwKFDYHfTsjXwkNw4U5tXOJ0lxCP5iR5bKZ88skvgkg==" saltValue="DMNbhzgHFfHt/WlBVrqw6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HY+8JKqLi7Xk6VdS7/Uww+eAzq86KXBCS25JwEFEnM9sfWZ/D1iBG3T3vshep18/0RoS+1zyhNToN2EzQ94yqQ==" saltValue="HdYSFW8nWpGmb1POnrM/Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7537,20 +7537,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>23</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>187</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>188</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>192</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>195</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>165</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>196</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>202</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8232,7 +8232,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>114</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>173</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>184</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>185</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>190</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>191</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>193</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8604,7 +8604,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>90</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>180</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>181</v>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>182</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8845,7 +8845,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>210</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>186</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>189</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>197</v>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>198</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>199</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>200</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>201</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AV73vzLW/qZfsoHZ1iqd082w7/yoY+6KmiSAJundiHqnl2s4M/KM1c/87HdSX0EtNkvsllh4MukEiMTd5fnqaw==" saltValue="SLCFkAPTAe6GV+ebfAOzjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x1VV44q5GHXgh2FBiKtlI1av0CzZ3iy1szzRS/oYiOdqdPEIm5VGNv3ch8DlWLMFBuZ6hljW6IjnPPdWN7Livg==" saltValue="P8kMyMUGEtPqWxAYdmEpfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9306,22 +9306,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -9424,7 +9424,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>184</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>185</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -9794,7 +9794,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -9921,7 +9921,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j9Y/efg3eD7JdXOLaoMACKDjFid586g0ykiVqBtioWbnJJTdO020B7s4hGCvg2BjYfDFOvgmJyHm0zmc6FV9rg==" saltValue="EoX6FhsLFzHIIbDclXcYXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0tuV5xyc7tJ6r5qtHFOdV7fNi1mrKeC01fbPZbGbx7eYO7qYLaVOR2Jx5TkbE1bghuHVceR+lSHJEHfRarLAOw==" saltValue="QhchM6+cTMfsA3k2fL/vgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10052,22 +10052,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>113</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>136</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>137</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>139</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>86</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jxe64jyWcix7anejwnhDyiU911pEDejigKXWMX8B8Jj73+JyafoXjaOuajrDAn1xfqCrHgeGJDmrgPVBwzHDDQ==" saltValue="wCHJnz04XWWdbag96EYMCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wekKOUx6w65pazCgUnCyBLuaOOaQvQOpW1u/g0Cn0pW+0rRnLNNd+r7LI17VIhJG3XobS0NfuV82qkOh7TXeHw==" saltValue="kQ7gMRuP+92PAp3F4icR8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10426,15 +10426,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>222</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>161</v>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>162</v>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>123</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>161</v>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>162</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>110</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>161</v>
@@ -10640,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>162</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>111</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>161</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>162</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>112</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>161</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
@@ -10791,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>163</v>
       </c>
@@ -10814,14 +10814,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>161</v>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>162</v>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>123</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>161</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>162</v>
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>110</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>161</v>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>162</v>
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>111</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>161</v>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>162</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>112</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>161</v>
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>162</v>
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
         <v>163</v>
       </c>
@@ -11172,14 +11172,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
         <v>224</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>161</v>
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>162</v>
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>123</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>161</v>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>162</v>
@@ -11312,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>110</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>161</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>162</v>
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>111</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>161</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>162</v>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>112</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>161</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>162</v>
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
         <v>163</v>
       </c>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QYJBJcRThoDAOjyCwWvNmkctAVszklH1IRtXDB2M/HVhjgIXGa+vWxgiX+CuIxneOMVRvfdQSPSF3uJ4mBhprg==" saltValue="POCmkdz9vIubQNvrQUkAzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7LoqRdajuObfEm9j5aWFrGWDm7oZLYggN/Xu4mbdwfYYdIcwf86DUKejjEeejFY/gEw6PB4g1hSN6mds7LFCWQ==" saltValue="rUo69Bcl62OuaxHW/kZLrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11565,14 +11565,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11634,7 +11634,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11667,7 +11667,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11700,7 +11700,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11733,7 +11733,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11766,7 +11766,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11799,7 +11799,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11832,7 +11832,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11865,7 +11865,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11898,7 +11898,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11931,7 +11931,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11964,7 +11964,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11997,7 +11997,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12030,7 +12030,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12063,7 +12063,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12454,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12523,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zwMjGBt4NM2UA+oMPvmDrDzprdSqCK8HxZbriIBzJ48YDg30MC0+2fTlIGi3dAfxiJyYYT8bSyKEMhQ0STUxPg==" saltValue="c6pfl1srgx2KCwXHBhGrng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zcw+FqFs8E9/xDib9aWz+d7QaECyjLrsHgZhABdLWpzAw8kBsjyw/PReFwsgiYJL3JIUxS1Wu1KXF/FOQFxw/A==" saltValue="bjM31UzNg3QmbeV2fpn6Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12661,22 +12661,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>70</v>
@@ -12691,7 +12691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>226</v>
       </c>
@@ -12701,7 +12701,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>53</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>54</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>55</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>56</v>
       </c>
@@ -12769,13 +12769,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>233</v>
       </c>
@@ -12793,14 +12793,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
         <v>227</v>
       </c>
@@ -12810,7 +12810,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>228</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>229</v>
       </c>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>230</v>
       </c>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>231</v>
       </c>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12883,7 +12883,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>232</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
         <v>92</v>
       </c>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
         <v>93</v>
       </c>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
         <v>94</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>95</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
         <v>96</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
         <v>97</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
         <v>98</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
         <v>99</v>
       </c>
@@ -13034,14 +13034,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fiGmTPRz2sfIIj74+irkqwiv5HyXp+gUqd0HmYC+Ng5QyBtKEGa4iBRpldwEVAPvTyazI9KsUq6KiVnaFPmpoA==" saltValue="2CZaTPlECSApIGuTRO3h4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XDbmcTuWnJy1w7wUFZVe6vw8tWbD8RwaTBcw8oflQqQ60EVtVJRNlSkBZL4Ivb6BjKWiWdySe1dRPSssiHF3OQ==" saltValue="8lcmTCwiroJAOpsrDPTprQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13058,23 +13058,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>216</v>
       </c>
@@ -13108,7 +13108,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>101</v>
@@ -13140,7 +13140,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>237</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>238</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>239</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>237</v>
       </c>
@@ -13283,7 +13283,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>238</v>
       </c>
@@ -13311,7 +13311,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>239</v>
       </c>
@@ -13339,7 +13339,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>104</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>237</v>
       </c>
@@ -13398,7 +13398,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
@@ -13426,7 +13426,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>239</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
@@ -13485,7 +13485,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>237</v>
       </c>
@@ -13513,7 +13513,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>238</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>239</v>
       </c>
@@ -13569,7 +13569,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>237</v>
       </c>
@@ -13628,7 +13628,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>238</v>
       </c>
@@ -13656,7 +13656,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>239</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>109</v>
       </c>
@@ -13715,7 +13715,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>237</v>
       </c>
@@ -13743,7 +13743,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>238</v>
       </c>
@@ -13771,7 +13771,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>239</v>
       </c>
@@ -13799,12 +13799,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
         <v>26</v>
       </c>
@@ -13838,7 +13838,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>101</v>
@@ -13870,7 +13870,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>237</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>209</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>208</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>102</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>237</v>
       </c>
@@ -14013,7 +14013,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>209</v>
       </c>
@@ -14041,7 +14041,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>208</v>
       </c>
@@ -14069,7 +14069,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>104</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>237</v>
       </c>
@@ -14128,7 +14128,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>209</v>
       </c>
@@ -14156,7 +14156,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>208</v>
       </c>
@@ -14184,7 +14184,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>105</v>
       </c>
@@ -14215,7 +14215,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>237</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>209</v>
       </c>
@@ -14271,7 +14271,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>208</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>103</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>237</v>
       </c>
@@ -14358,7 +14358,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>209</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>208</v>
       </c>
@@ -14414,7 +14414,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>109</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>237</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>209</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>208</v>
       </c>
@@ -14529,16 +14529,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
         <v>135</v>
       </c>
@@ -14566,7 +14566,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>115</v>
@@ -14592,7 +14592,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -14639,7 +14639,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
@@ -14686,7 +14686,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14708,16 +14708,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
         <v>142</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>92</v>
@@ -14783,7 +14783,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>145</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>146</v>
       </c>
@@ -14867,7 +14867,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>93</v>
       </c>
@@ -14898,7 +14898,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>144</v>
       </c>
@@ -14926,7 +14926,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>145</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>146</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
@@ -15013,7 +15013,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>144</v>
       </c>
@@ -15041,7 +15041,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>145</v>
       </c>
@@ -15069,7 +15069,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>146</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
@@ -15128,7 +15128,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>144</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>145</v>
       </c>
@@ -15184,7 +15184,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>146</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
@@ -15243,7 +15243,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>144</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>145</v>
       </c>
@@ -15299,7 +15299,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>146</v>
       </c>
@@ -15327,7 +15327,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>102</v>
       </c>
@@ -15358,7 +15358,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>144</v>
       </c>
@@ -15386,7 +15386,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>145</v>
       </c>
@@ -15414,7 +15414,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>146</v>
       </c>
@@ -15442,7 +15442,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>104</v>
       </c>
@@ -15473,7 +15473,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>144</v>
       </c>
@@ -15501,7 +15501,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>145</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>146</v>
       </c>
@@ -15557,7 +15557,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>103</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>144</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>145</v>
       </c>
@@ -15644,7 +15644,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>146</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>106</v>
       </c>
@@ -15703,7 +15703,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>144</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>145</v>
       </c>
@@ -15759,7 +15759,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>146</v>
       </c>
@@ -15787,12 +15787,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
         <v>101</v>
       </c>
@@ -15826,7 +15826,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15856,7 +15856,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>144</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>145</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>146</v>
       </c>
@@ -15940,11 +15940,11 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kwERFHNT62ZohGoZAZ3i61D+u9LVuYgKmT8JREkPPw/S8740jqHE4v8BGq8cbtUhulQFP43EY8No/Yf6d0FWng==" saltValue="T0bIwuI8Qrx3IYwptw3crQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C1qrv54C2C7MMGT+zHWU5ce83p8XCBV5r43m6e+d9HH7Mm4b/IJtUNEXQeeM4EeMu77VaBIaTJ1t5agoorWyBA==" saltValue="SAFpk+Q/BVITwkOqx9T/Uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15961,24 +15961,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
         <v>249</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16040,12 +16040,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
         <v>195</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>188</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
         <v>203</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16113,12 +16113,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>187</v>
@@ -16139,16 +16139,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>26</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>256</v>
@@ -16192,7 +16192,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>135</v>
       </c>
@@ -16215,13 +16215,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
         <v>176</v>
       </c>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hNUdVdm8PwqL7wEVPlpz3HDPvnQzMIZsXBUOvQsQhVcv1zPApyixjav+oF2phKt3YZ1EbAQ8wv5ZZqZPG/Whng==" saltValue="++qIG+Dow1TyClEsVRDO7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VHBKANNPvTgu0uP4IVnZXLpBreYRNMral6Bdf02VClW0THqR667szHtQWXQO6FNmCjv4T7rys9QoOxf+aGlpuw==" saltValue="qC6jqSVHvV/YtscoTTrMYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16271,16 +16271,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>164</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>172</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>258</v>
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>184</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>258</v>
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>185</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>258</v>
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>258</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>189</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>258</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>193</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>258</v>
@@ -16526,14 +16526,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZMOfgo+V6Wk4Vrlst2yKjScU6TVzv8/Ja9iWsyuUo2xdJRxz1dXe+9saxLnAC9xHDMh4UL1ACknbkPONAGue5g==" saltValue="xDJej9nbuPzM50KgI05poA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HD+n+rEzZzzxqjCZKHuYIhHoGY0CvH3GFO5AcVC2mAocRim1yCIPlTYhsObXwt836NvycM8qJJUE/zeDVhdW9Q==" saltValue="ZNWYWF/dsCcP2v1P7Ljr7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16550,15 +16550,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16601,12 +16601,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>180</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>181</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>182</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>183</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>184</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>185</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>188</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>189</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>192</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>193</v>
       </c>
@@ -17134,13 +17134,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
         <v>177</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
         <v>178</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
         <v>179</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>186</v>
       </c>
@@ -17316,20 +17316,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R+RxsedRv2HTPuDO5vuGb2j0LnwrTQexy3x2Ta2FvMetHPKLIGjPFIajEodpjg4rDz2PD13xDkinRbJ4oHUhzg==" saltValue="+Ckpqemws3Vy45ZzfRMfzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zn+y/aIf/hQKoZEoSOA/ECDkvj4TUU5j1NfreHMEQMn0KjUTVZA1XrFBQbmOnZI2RcL+2N084xC2c3sE7kPCbw==" saltValue="gCI+jxiBhmcBNuuQH8c2+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17346,15 +17346,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17373,12 +17373,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>165</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>262</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
         <v>169</v>
       </c>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+pDeriBbr4AkPGYvhM7veoQBggAaxjv22daF8+raUNUfraaqrWdF6DE2sa+ydSk7/B30dA77KNK/mDWfFwmICQ==" saltValue="GqHL9bybxMqzZ7gOz0b7xA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7+twXPmGw3BpMCwdqqKam49o3aO+Xqvw3U1w/vpGjGo0CSSeEkVpwqjrvMMrkSs8xodPo7HeUapPpDRq0F+qMA==" saltValue="kc/uYfXl7HC09HrJOxRbmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17447,20 +17447,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>196</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>264</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>265</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>195</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>209</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>265</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>188</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>265</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>209</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>265</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>265</v>
       </c>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>209</v>
       </c>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>265</v>
       </c>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>179</v>
       </c>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>264</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>177</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>264</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>178</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>264</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>200</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>264</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>265</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>201</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>264</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>265</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>199</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>264</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>265</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>198</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>264</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>265</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>197</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>264</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>265</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>264</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>265</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>102</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>264</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>265</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>194</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>264</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>202</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>264</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>187</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>264</v>
       </c>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AcT8saxpbxAdpiol15rTlxLz3/qzLhfAQJ0J7d9LljTnUWe2XC84ZfpgXwPpeFnSYu7c67ivpFGPaXg5YMuF2A==" saltValue="3byQ5PziQ45szahO+lVzxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7GyzV43LH3IIaAj0XNReLXcX3TvL72pOkJhMXOz3ibmfNP3tbJu25Wmy20VIx3eyiOxiBHMMZQYYNQbdbNkB+Q==" saltValue="B3PwO6BZuNsuZX2C/9Z84g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18577,16 +18577,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>164</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>173</v>
       </c>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>264</v>
       </c>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>191</v>
       </c>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>264</v>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>190</v>
       </c>
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>264</v>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R3NjI2p42zjn9jg0SH2zHH1scF4LdiUtB2GD+/bjRZKqZGI/kX5Add/8FAd9/0y9x6f2epSngW7V8Q0xOI5Oew==" saltValue="6pEhj8LazPjLF8K1TaVhGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D6KdDrySpAhMtGUctAFL/N/bNddM0EOFMuYqHhbVFH0H3CkXMXiLEjgJMhXkMkWCQhHfiF8g1PmKxqA0X/CjiA==" saltValue="KL0hbYzqXv4fWuL/bHBFzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18753,14 +18753,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18771,7 +18771,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -18786,7 +18786,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>95</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>98</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
@@ -18861,7 +18861,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18870,7 +18870,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>100</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>102</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>103</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>104</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>105</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>107</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>108</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19076,7 +19076,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -19092,7 +19092,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>115</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>116</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>117</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>119</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>120</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>121</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>122</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="084fLJSPJ7l56GRFm750isX3NVZz+sW1HCLSYxeqWQuqPDTj1jIvGr4QcODq8rkpObH3xauVqlLhHsyaUsHDRg==" saltValue="7MqKKBXI5PQnFPmZXnq/kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qcVLQmJO7iIeAAdWHxvUCFVihVoozij1JJOcVoJXyLhLg0ltsfXU10Cd+Yc34pT47Z7O2zX+UW6m0v0tA9+IqA==" saltValue="iewgBlyltt1Nb8gwv8ApaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19192,13 +19192,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19222,7 +19222,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>127</v>
@@ -19276,7 +19276,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>128</v>
@@ -19297,7 +19297,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>129</v>
@@ -19318,7 +19318,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19326,7 +19326,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19334,7 +19334,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19441,7 +19441,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>141</v>
       </c>
@@ -19586,14 +19586,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e5mLT10QfzaZDRK49ROSm5go0oJ9ZgjYccLeDA36uiv+zj5Z/HV1TSwmpC6nVw3akddBAXwyDkdFdtuv8eIK6w==" saltValue="xl/qhw2s0OHc+GQI5WAGtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L6DLPBHM9WpczcwxWehyayMXTp//U9P9Qo2NsHKhjkubaskeE+nRzC0nrJuiIBqIuciVlG2b2jRkx8v+WFN/EA==" saltValue="Eb5RDlKcV6DkrGIGIOb1TQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19619,13 +19619,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19649,7 +19649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>145</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>146</v>
       </c>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BGwkk2GMwKvYJBZAlFLqU7027VgCT6tItdaBujr0dnTEfobTrG2i5bqokEgtMBNZqpG0MdVfvn/ATt0z5yQnOw==" saltValue="yZxv0Hh6Q4GRupjFcVfCCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vjNVS63SqSTkdqjUgFACSRdYTm1hyehIB2evAvUsXADVlcoa99PtJgv0ZMtVnp+aGvkJWwlKL2KGGaDAgMDMtQ==" saltValue="DsxnWs3wiFFkfhAXaykvAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19755,13 +19755,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -19813,10 +19813,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -19833,10 +19833,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -19853,7 +19853,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
@@ -19867,7 +19867,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -19881,7 +19881,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -19898,7 +19898,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>154</v>
       </c>
@@ -19912,7 +19912,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -19929,7 +19929,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>156</v>
       </c>
@@ -19944,7 +19944,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BTXGmFoeeJ1FssaWlarGM95cD+i1kj+iL+zcOpPvX195t2yTfS+eX7bYoUxwOcUctSdKH1lPv/NPzAwWhxWOnQ==" saltValue="yfVxFjrq/S6WcgezZXDT/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bBJmXqYQDmcROlEmC7HIcyR0WcuOmyayo2UgqFRtjdSuNlnJFPNBS+Shz8Pk0yMCR9xDhqJCArU8U0yBg732cg==" saltValue="CUEAZU1xahyXO6C23wiEPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19961,15 +19961,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>123</v>
@@ -20014,7 +20014,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>110</v>
@@ -20028,7 +20028,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>111</v>
@@ -20042,7 +20042,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>112</v>
@@ -20056,7 +20056,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>163</v>
@@ -20065,7 +20065,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>123</v>
@@ -20093,7 +20093,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>110</v>
@@ -20105,7 +20105,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>111</v>
@@ -20117,7 +20117,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>112</v>
@@ -20129,7 +20129,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>163</v>
@@ -20140,7 +20140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>123</v>
@@ -20170,7 +20170,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
@@ -20184,7 +20184,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>111</v>
@@ -20198,7 +20198,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>112</v>
@@ -20212,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>163</v>
@@ -20222,7 +20222,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UpMAD14gpAGnuQTA6ZnEf23NBYqOXVSxG/KAL9X2wh5cOhVWi3Biu6l4MX0aFCKX2sRbKYR7ikE0sy9nh6BMtQ==" saltValue="1b30+xSEKpW5xulU4fyumA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F85iyvWKUv6ZlIesbhkHL5vL2VmLBQKousJ7P3qjAM2yssy5DyJIszv4VwIbBl25pEIwqlRdgpZqamgZWUEGpg==" saltValue="nkFvfO7v6zrlztI32eO0cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20239,15 +20239,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
@@ -20273,7 +20273,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>168</v>
       </c>
@@ -20286,7 +20286,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="03YeNWTEGQGXc9mydc1YJYfDdgsRjvbyc9jwFUtn1Kc/TyRMs7uZZg5HqPgh7xeQt/ezKAE9J/kb/3y+zlUh6w==" saltValue="THoI1S5gqW2HbJRbFUXQIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4QMaTYKt/t5B8FUjVy4YRkUNXe1OcXwIKDXo1E8NsK1ADCkUzufyDBhxZwcad/HoSChGGWSZ9P//S2OAx/un2Q==" saltValue="/GclhOagZTVTJhrDOxODOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20302,17 +20302,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>164</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -20381,7 +20381,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -20415,7 +20415,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>184</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -20670,7 +20670,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -20755,7 +20755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -20857,7 +20857,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -20926,7 +20926,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -20960,11 +20960,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H7EhKLzQC1b21Rh6WX8DSzfFH0Ed2WTXspb96bc0qw2BxMIqP/qJ0iB7EwuyJXAodmOcAPmrvJ4bjjFadVwsMw==" saltValue="N6oNwgnE973dMDt9DXa1KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xN5DCToo9ECpt6a//kVQu746OpPQgr1aFIllrPq4bO+lMZ6g3qGwsiWmlClWoUfPK3kHLn7HICZjdaf3f4nrWw==" saltValue="7NOSe1Jo5b7ig+37Oj8ILA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D31191-16C2-442A-B147-85293D86DE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C89DDE-F042-4414-B859-0C25C0E60928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -5194,7 +5194,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ostBY7DLVlCpPE+mbgnOtGts8RBlRgX5JkKRbA8isYydT7He7QBbpQ+inFjmVlICgyOV3IqJHWse8JNmLDvVWA==" saltValue="/IZwNTQAod+mlxmo4yOuiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yL+NQJny0HA3yNv1WqmLaipgsd5quVp6LcyfmbfG8Myq79fd4I67/LTg0NEIGlVM/eR9bxrropS43ZcCw2WpZA==" saltValue="9y3B7NZXw4aCHJL84QgDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gNKn0IN6XAMuouCslapGE1JO2wCZH1kMJJQi6ejTnTgq3D2KAgjnQFDR7CHCzwY0pGTv1Dm+BCBirgXdbPCG8A==" saltValue="e9gaDhOPPK3CefyhJRdIhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bn+sEWIm4Y2u2ocPn6HMhFbkC7lJJHkRICHernJRyjgvauNLPcNLapFjBZmAevBGk1HlG2iTv+TpP01MMLVKFA==" saltValue="6kyP4ce35QJjJhloCKcqAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5442,7 +5442,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v8rKfvKWuTvMY4zj9VRCbHUl5wIPggzFDlRPSzG8sfA/6I+vekIN3vrvCoX2nACA9ue6Q7kT99DHbixT4De4sg==" saltValue="+Fq07RlXXoQbYRLpRt+KfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LPydnFeueC9OQS6WliXNH23q7Ttfm9f3a0IPyUL6f3ZEkYhlFHWew92aw16snfrB3YShqTIY6VY9QgZjboB2zQ==" saltValue="XzIx31oszx8j43gmD592OQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HblmZgdT779nisiFe5aPvMoA83sJd0sZTcw7TMS9BG6UGbxzDbOdPWEuHdfaB5ZUxCNP99DEMqYAJQOgKOpHpg==" saltValue="SKelQBwu4i6q1mPJVqwN4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t+c6R0wmgEFqc8xXxE0sf8ACYX0iHnaoCDMJy8t3z32zdEzP8S0mAQTLE1ud+yX3Axl8KDxyHCtI2XoPSf2dbw==" saltValue="Eojls8XT4gHz7f6nWu5BVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7273,7 +7273,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PBkTgODD0CaKO3fzxl9LMh8aeOd4nde335syjwEcUlw575ZeFdCgtdbFDXO0lbSbzB1lwLyy8wODvEawor3i2Q==" saltValue="dG3pUBnyCcZhIRbdKkgzsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rBmUL468U4d6TmIV0NXnOneWNBG1r9ANblarJ9Pt8jVSyfhHN8a0/HTDwD9Ip2LglxyWVM9optLDfjwNNwN+6Q==" saltValue="AJXA9kggsBK2L1qfI5K+Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="csMqKo1oULHvWFW9Mz3SVhwUGoC5LTTgSBy5dl7XnMBczXcN8dRmO7uD6qiM5Q734T2sHeFPzxyynplfOccmOw==" saltValue="83FVl+euNJYeEkUYBhG/xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r+d1ETZjkuIxV9Tpps5gh52xNcQMmbLu9UIz9thm8yDHy5nz2y6nHxWItKKVlviKWGzyANgioInrFN79UXh52w==" saltValue="p4jzSnQXGvKS1G4e4f0pIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7519,7 +7519,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HY+8JKqLi7Xk6VdS7/Uww+eAzq86KXBCS25JwEFEnM9sfWZ/D1iBG3T3vshep18/0RoS+1zyhNToN2EzQ94yqQ==" saltValue="HdYSFW8nWpGmb1POnrM/Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LqdoeUWHzzD5cfmIz5cAtOKaLfaa2ouT4S6qF4spTg0Vnxz9mVQvSEFxgvm3r+m7nbCouu4krvShyrR1GWzCXg==" saltValue="RgdZ976Nxwy4SbkM6KpdRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x1VV44q5GHXgh2FBiKtlI1av0CzZ3iy1szzRS/oYiOdqdPEIm5VGNv3ch8DlWLMFBuZ6hljW6IjnPPdWN7Livg==" saltValue="P8kMyMUGEtPqWxAYdmEpfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MkDF9KLiYEqJRsc4qIK/uON9wxpxigENViT3wD+bMyltxJXcPdRhzv7RjcUE91bZfB96X/ftpXi47x3psv1+Rw==" saltValue="BeRFf7DHw3VEhD3TJ4oLMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0tuV5xyc7tJ6r5qtHFOdV7fNi1mrKeC01fbPZbGbx7eYO7qYLaVOR2Jx5TkbE1bghuHVceR+lSHJEHfRarLAOw==" saltValue="QhchM6+cTMfsA3k2fL/vgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rREuUvdy1wDu4kEABrVWo4IAeKVg9jzVhS2TaXqoNtGxjnPXp8pj9nvy0vG4na4NgO2orLHeQB4MZVPdVoBDOw==" saltValue="vkvlIAKYLmF+aYXPq3QAcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wekKOUx6w65pazCgUnCyBLuaOOaQvQOpW1u/g0Cn0pW+0rRnLNNd+r7LI17VIhJG3XobS0NfuV82qkOh7TXeHw==" saltValue="kQ7gMRuP+92PAp3F4icR8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FIvEFWbyF5Wh/8zikLTCxfepcClK8BW9ldWzTuRKt+GEIvqUEP1DPB949bX7hARo4X9SQ4+4bvxzmJOG0clGJg==" saltValue="cuy1rlx0RAAf0wz7yLmdpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7LoqRdajuObfEm9j5aWFrGWDm7oZLYggN/Xu4mbdwfYYdIcwf86DUKejjEeejFY/gEw6PB4g1hSN6mds7LFCWQ==" saltValue="rUo69Bcl62OuaxHW/kZLrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SlbEpPinjHP9F1K2Qx3oy09+Q82YLzOuKnhImgzoovtCNkky5Bh0HPafLzDLFOvEgj2paFvJfWu/CfFIC4cy1g==" saltValue="2ZVoTX+UVuhGNrXJKGUMVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zcw+FqFs8E9/xDib9aWz+d7QaECyjLrsHgZhABdLWpzAw8kBsjyw/PReFwsgiYJL3JIUxS1Wu1KXF/FOQFxw/A==" saltValue="bjM31UzNg3QmbeV2fpn6Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNaYu5fmy+ZlcFXaEWYSTJex7ubj9CuBHywO6xQU4h7miUuXJRrHgzKDWEoZgy0l44QsFgFhSUW2cFzbH3N7iw==" saltValue="OZD8eSh/8ABqe2dDhC1I0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13041,7 +13041,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XDbmcTuWnJy1w7wUFZVe6vw8tWbD8RwaTBcw8oflQqQ60EVtVJRNlSkBZL4Ivb6BjKWiWdySe1dRPSssiHF3OQ==" saltValue="8lcmTCwiroJAOpsrDPTprQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h/dJ8yjG6KBkaa8o9DAXoTdS6plrqcS1rBV1nCKdeINSDakCkGHVNwJMhgPIeBpaCJJ/VsCOCEcnOKp62+TIGg==" saltValue="/M/m8CuObdU9p+u6dbZ4mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15944,7 +15944,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C1qrv54C2C7MMGT+zHWU5ce83p8XCBV5r43m6e+d9HH7Mm4b/IJtUNEXQeeM4EeMu77VaBIaTJ1t5agoorWyBA==" saltValue="SAFpk+Q/BVITwkOqx9T/Uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="axiY+Q54MM60BV9hU+MgVEv7J+1kgV3fDbdLKf0XGfRjwgWpW8A+HwS+Or1p+R/NG88EQFSZF3NPpVv6hOxmzA==" saltValue="VQfVvxzZFvfhLXvLbk38WA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VHBKANNPvTgu0uP4IVnZXLpBreYRNMral6Bdf02VClW0THqR667szHtQWXQO6FNmCjv4T7rys9QoOxf+aGlpuw==" saltValue="qC6jqSVHvV/YtscoTTrMYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d5oMC4ufD32rNPxaZ1jXgd3BpFQm0idSDlwYWOpkRqZSHIvaec/jTCxo6D8o9oFWMkerD0e8jvo6oKe+yNGrbA==" saltValue="e0FMRDLSe9weEfb65V3EQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16533,7 +16533,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HD+n+rEzZzzxqjCZKHuYIhHoGY0CvH3GFO5AcVC2mAocRim1yCIPlTYhsObXwt836NvycM8qJJUE/zeDVhdW9Q==" saltValue="ZNWYWF/dsCcP2v1P7Ljr7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vvH3lPZsIu7QKGrI9iSPnrks9wveW1qBiFGNk/HKua4x+csCR/VNrMQju2CzWgY73ogjZPVWqdq706+JrA27cA==" saltValue="AULY6P6PRCv6BHIA1WbHeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17329,7 +17329,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zn+y/aIf/hQKoZEoSOA/ECDkvj4TUU5j1NfreHMEQMn0KjUTVZA1XrFBQbmOnZI2RcL+2N084xC2c3sE7kPCbw==" saltValue="gCI+jxiBhmcBNuuQH8c2+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GbjeYKl588szM4zgjmW92rh5uMdOBZfHTRrQ0VeDlRbxs8c/eGipcWPQJImlQ2ZILoFdgGQ7bhZ54aeju4T6cQ==" saltValue="OqJe4ld68kv6RwMbkPMe+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7+twXPmGw3BpMCwdqqKam49o3aO+Xqvw3U1w/vpGjGo0CSSeEkVpwqjrvMMrkSs8xodPo7HeUapPpDRq0F+qMA==" saltValue="kc/uYfXl7HC09HrJOxRbmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="reQfdWbBxe/RgIVWr3wod03JIoWegccBooRR89ZmF5gE2m3cxzCUNJDXA/kTdB777JzBAs5mDDT20jnAAT5jbQ==" saltValue="MpfArBk4cXLfVBpj8xbDKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7GyzV43LH3IIaAj0XNReLXcX3TvL72pOkJhMXOz3ibmfNP3tbJu25Wmy20VIx3eyiOxiBHMMZQYYNQbdbNkB+Q==" saltValue="B3PwO6BZuNsuZX2C/9Z84g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JBAbZ+hZ9J/YjZjq4NhnBqgcOx8nqEowIeWCoHtOX35rbtVEaItBsrM4wsoGGSVuJDcmQAyUmgunKkt3HvY9bg==" saltValue="qEHiEpgPSSvX/Owu8ckfeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D6KdDrySpAhMtGUctAFL/N/bNddM0EOFMuYqHhbVFH0H3CkXMXiLEjgJMhXkMkWCQhHfiF8g1PmKxqA0X/CjiA==" saltValue="KL0hbYzqXv4fWuL/bHBFzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XvZX/Kl1AR+GlyGWgzpmxQybQBkmAxeA9T1lCKP/dSqLN4zLwDiAVjAF5VphMDEmcitVVRpAkq+B9t8qYxRxkA==" saltValue="qGDMRTLenhAuskk1nRUH8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qcVLQmJO7iIeAAdWHxvUCFVihVoozij1JJOcVoJXyLhLg0ltsfXU10Cd+Yc34pT47Z7O2zX+UW6m0v0tA9+IqA==" saltValue="iewgBlyltt1Nb8gwv8ApaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PiMeC3fjaypVVnLlVZ46+5yFri2QgXfa/Vj9R8KwEPKBPrQR/OiWjt/8ujWYV/GKTTmC6/bzmS2uzjnxBBdoUg==" saltValue="rVO5zayAFjqfksUq+FUVcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L6DLPBHM9WpczcwxWehyayMXTp//U9P9Qo2NsHKhjkubaskeE+nRzC0nrJuiIBqIuciVlG2b2jRkx8v+WFN/EA==" saltValue="Eb5RDlKcV6DkrGIGIOb1TQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hu+7Ei/e07HhDQAE720Ui4LvRVPK4XgDYxAhoaMWwZWm9iwwCl3cvdMFXjwRyh4BT8V7U/WYz4mx+GKGyEO1zw==" saltValue="y710BF3saYpb7ivEKdJ4IA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vjNVS63SqSTkdqjUgFACSRdYTm1hyehIB2evAvUsXADVlcoa99PtJgv0ZMtVnp+aGvkJWwlKL2KGGaDAgMDMtQ==" saltValue="DsxnWs3wiFFkfhAXaykvAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8QaLb/KN2loUzZf05BGlNXYhTk04end0lOmF2OZi81mK5ThimhRLq2cV1GZ1a74WWfbFS//pr/Izxxg4WGyKDw==" saltValue="Hp2rBrxgnLDU+QLEQB8YcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19944,7 +19944,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bBJmXqYQDmcROlEmC7HIcyR0WcuOmyayo2UgqFRtjdSuNlnJFPNBS+Shz8Pk0yMCR9xDhqJCArU8U0yBg732cg==" saltValue="CUEAZU1xahyXO6C23wiEPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NGkedIrK9YsUW0oiFQnd3+NwWuKlJ2Mz2Wb1S6O+Iw0SdtG1efy35UgE4ikwanXdKtoWVFu9/U+Ad1TsmEYWxw==" saltValue="Fgm/v/mD2XI8sp784j3HOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20222,7 +20222,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F85iyvWKUv6ZlIesbhkHL5vL2VmLBQKousJ7P3qjAM2yssy5DyJIszv4VwIbBl25pEIwqlRdgpZqamgZWUEGpg==" saltValue="nkFvfO7v6zrlztI32eO0cA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gJqbguNqMsaHX/Ed6GeZrB/kt/aIQ4oopDLWB7iOpZPwNT+sMTfxJNkU9GjE6NlbBLUCIa3MoD7vBMCKiyFM/A==" saltValue="YEaDEyVJJH2fxixbbVIVpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20286,7 +20286,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4QMaTYKt/t5B8FUjVy4YRkUNXe1OcXwIKDXo1E8NsK1ADCkUzufyDBhxZwcad/HoSChGGWSZ9P//S2OAx/un2Q==" saltValue="/GclhOagZTVTJhrDOxODOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rx3kCJ3/xJtDKFiU0JGkYALGcQDYYU4NMxuaYgUdY3QrxBZiveYwnSbX8XFvRw8CW7Y/ShweEvv84DiEp8YeBw==" saltValue="Zn5DYtzty0mZurb/QUYDIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20964,7 +20964,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xN5DCToo9ECpt6a//kVQu746OpPQgr1aFIllrPq4bO+lMZ6g3qGwsiWmlClWoUfPK3kHLn7HICZjdaf3f4nrWw==" saltValue="7NOSe1Jo5b7ig+37Oj8ILA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h4Gyrx3CuG/S9Kpwkfy0vfTRDkmQJRooR8+0FlF98DyLyPDVXkFbnL2cha5ZzaYQ3qeE6joFnwSGoKt3gdiakg==" saltValue="VKoigdSYrKLLou9R3L+IQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C89DDE-F042-4414-B859-0C25C0E60928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1136464-FCE6-449C-8FCA-878D48507C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="268">
   <si>
     <t>Condition</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -684,6 +678,9 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
+    <t>année</t>
+  </si>
+  <si>
     <t>Néonatal</t>
   </si>
   <si>
@@ -1056,135 +1053,141 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
     <t>efficacité</t>
   </si>
   <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1201,6 +1204,9 @@
   </si>
   <si>
     <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4747,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4766,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4775,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4788,12 +4794,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4801,7 +4807,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4809,7 +4815,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4841,7 +4847,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4852,14 +4858,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4875,7 +4881,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4883,7 +4889,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4903,12 +4909,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4916,7 +4922,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4924,7 +4930,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4932,7 +4938,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4944,14 +4950,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4993,19 +4999,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5013,7 +5019,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5023,7 +5029,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5033,7 +5039,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5041,7 +5047,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5060,13 +5066,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5075,7 +5081,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5084,7 +5090,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5108,13 +5114,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5123,7 +5129,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5131,7 +5137,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5139,7 +5145,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5155,12 +5161,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5168,7 +5174,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5176,7 +5182,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5194,7 +5200,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yL+NQJny0HA3yNv1WqmLaipgsd5quVp6LcyfmbfG8Myq79fd4I67/LTg0NEIGlVM/eR9bxrropS43ZcCw2WpZA==" saltValue="9y3B7NZXw4aCHJL84QgDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YQOAOiAJ2SnMhXdvLOzfozOYP4xKVX65vV7+MBEz5M1+L8lGW3hTZpzGGRv77FYrryFhxGVb7NHFM9ZLHRYVJg==" saltValue="/yZoBVbA3QIMtu12nWimTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5221,48 +5227,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5342,7 +5348,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bn+sEWIm4Y2u2ocPn6HMhFbkC7lJJHkRICHernJRyjgvauNLPcNLapFjBZmAevBGk1HlG2iTv+TpP01MMLVKFA==" saltValue="6kyP4ce35QJjJhloCKcqAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bzKFqxgZ2Qi97iNkqj4xocOXKddhsIYtcMOdVUUlXbNaiki3DVyxB8s0p5OxPAVKd5iGo//7RW66HrPLTSEkzw==" saltValue="fG91bYRuTfuCTVQlB7bnAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5368,12 +5374,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5383,32 +5389,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5442,7 +5448,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LPydnFeueC9OQS6WliXNH23q7Ttfm9f3a0IPyUL6f3ZEkYhlFHWew92aw16snfrB3YShqTIY6VY9QgZjboB2zQ==" saltValue="XzIx31oszx8j43gmD592OQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3sPxwgs5HnOb4ayfUa0oQzVS6IfzFhzPGjmgIUXpCdkDebP3cx1Q6+nAVIZtWEKXnMZzP8IKFhuX4G7JtjeK5Q==" saltValue="20Z2OlddOp5AIibY68w2TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5466,24 +5472,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5508,7 +5514,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5557,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t+c6R0wmgEFqc8xXxE0sf8ACYX0iHnaoCDMJy8t3z32zdEzP8S0mAQTLE1ud+yX3Axl8KDxyHCtI2XoPSf2dbw==" saltValue="Eojls8XT4gHz7f6nWu5BVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0wpr+XTpTw5Et/uIuhkVwwNx3xEUPKkVHSu/gjqB+gbtrTAZimInnwrIblnAx3yaiDiHgojjszfkilkjVAbeNw==" saltValue="MJ3l/t+AlatRo6e01FF6Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5588,57 +5594,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5686,7 +5692,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5730,7 +5736,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5820,7 +5826,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5867,7 +5873,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5916,7 +5922,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6010,7 +6016,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6103,7 +6109,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6150,10 +6156,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6202,7 +6208,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6247,7 +6253,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6296,7 +6302,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6436,7 +6442,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6480,7 +6486,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6531,10 +6537,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6582,7 +6588,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6678,7 +6684,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6726,7 +6732,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6781,10 +6787,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6839,7 +6845,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6894,7 +6900,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6993,7 +6999,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7050,7 +7056,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7095,7 +7101,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7139,7 +7145,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7273,7 +7279,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rBmUL468U4d6TmIV0NXnOneWNBG1r9ANblarJ9Pt8jVSyfhHN8a0/HTDwD9Ip2LglxyWVM9optLDfjwNNwN+6Q==" saltValue="AJXA9kggsBK2L1qfI5K+Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WazMepHYpxJNW2pHFILhNrMhMl207pERY6BWLdfA96hnEOqv2oSji7Ku6Xgh0/TBqiuDMuynqXZgtnqfITgFvg==" saltValue="YQXpQ+NXXtzYTIkFhyiH0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7292,26 +7298,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r+d1ETZjkuIxV9Tpps5gh52xNcQMmbLu9UIz9thm8yDHy5nz2y6nHxWItKKVlviKWGzyANgioInrFN79UXh52w==" saltValue="p4jzSnQXGvKS1G4e4f0pIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g7U2EOg+iLJJlRvWha28jxD95fZmMczyNRt9djL3cPRuL4XQ+UXyo35pyrXxJQhRDe5IlmyH9b0Hlc2hLuc6Ig==" saltValue="mLr/D/YYz52m2jmrtxfxOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7341,7 +7347,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>15</v>
@@ -7519,7 +7525,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LqdoeUWHzzD5cfmIz5cAtOKaLfaa2ouT4S6qF4spTg0Vnxz9mVQvSEFxgvm3r+m7nbCouu4krvShyrR1GWzCXg==" saltValue="RgdZ976Nxwy4SbkM6KpdRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qpmqHUxKnlfS4UkU65BqQ0jjTRzMF52+8CbGmyXCH3uIECZEBjwRG2CXmXb8impb10K+vfvSyiJACflH2NpFRg==" saltValue="526o4LZYonnz2cm/xXrluA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7552,57 +7558,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -7646,7 +7652,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -7822,7 +7828,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="133">
         <v>1</v>
@@ -7866,7 +7872,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="133">
         <v>0</v>
@@ -7910,7 +7916,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="133">
         <v>0</v>
@@ -7954,7 +7960,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="133">
         <v>1</v>
@@ -7998,7 +8004,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="133">
         <v>0</v>
@@ -8042,7 +8048,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -8086,7 +8092,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -8130,7 +8136,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="133">
         <v>1</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="133">
         <v>0</v>
@@ -8234,10 +8240,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="133">
         <v>0</v>
@@ -8282,7 +8288,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -8326,7 +8332,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -8370,7 +8376,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8458,7 +8464,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -8502,7 +8508,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="133">
         <v>0</v>
@@ -8546,7 +8552,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="133">
         <v>0</v>
@@ -8606,10 +8612,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="133">
         <v>0</v>
@@ -8654,7 +8660,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -8699,7 +8705,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -8743,7 +8749,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -8787,7 +8793,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -8847,10 +8853,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="133">
         <v>1</v>
@@ -8894,7 +8900,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -8938,7 +8944,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -8982,7 +8988,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -9026,7 +9032,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="133">
         <v>1</v>
@@ -9071,7 +9077,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="133">
         <v>1</v>
@@ -9115,7 +9121,7 @@
     </row>
     <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="133">
         <v>1</v>
@@ -9159,7 +9165,7 @@
     </row>
     <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="133">
         <v>1</v>
@@ -9203,7 +9209,7 @@
     </row>
     <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="133">
         <v>1</v>
@@ -9247,7 +9253,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="133">
         <v>1</v>
@@ -9290,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MkDF9KLiYEqJRsc4qIK/uON9wxpxigENViT3wD+bMyltxJXcPdRhzv7RjcUE91bZfB96X/ftpXi47x3psv1+Rw==" saltValue="BeRFf7DHw3VEhD3TJ4oLMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Chh8UyhtY1aktg6U1PkTwzm/uBoWnxtQ56ZW4Mzwb4knhpzUUOlg+QIm4w2RU9IwKctgF6W2FQ2Dik82SSjQAQ==" saltValue="5b2+O1cRRbPMyqAksl3u9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9323,42 +9329,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -9375,7 +9381,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -9392,7 +9398,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
@@ -9426,7 +9432,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -9445,7 +9451,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
@@ -9464,7 +9470,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
@@ -9483,7 +9489,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
@@ -9502,7 +9508,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
@@ -9519,7 +9525,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -9536,7 +9542,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -9553,7 +9559,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -9570,7 +9576,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -9589,7 +9595,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
@@ -9629,7 +9635,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
@@ -9703,7 +9709,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="133"/>
       <c r="C21" s="133"/>
@@ -9722,7 +9728,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="133" t="s">
         <v>21</v>
@@ -9743,7 +9749,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
@@ -9762,7 +9768,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -9779,7 +9785,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="133"/>
       <c r="C25" s="133"/>
@@ -9796,7 +9802,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
@@ -9813,7 +9819,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
@@ -9832,7 +9838,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="133" t="s">
         <v>21</v>
@@ -9868,7 +9874,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="133"/>
       <c r="C30" s="133"/>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -9904,7 +9910,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="133"/>
       <c r="C32" s="133"/>
@@ -9923,7 +9929,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -9942,7 +9948,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="133"/>
       <c r="C34" s="133"/>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="133"/>
       <c r="C35" s="133"/>
@@ -9980,7 +9986,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="133"/>
       <c r="C36" s="133"/>
@@ -9999,7 +10005,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="133"/>
       <c r="C37" s="133"/>
@@ -10016,7 +10022,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="133" t="s">
         <v>21</v>
@@ -10036,7 +10042,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rREuUvdy1wDu4kEABrVWo4IAeKVg9jzVhS2TaXqoNtGxjnPXp8pj9nvy0vG4na4NgO2orLHeQB4MZVPdVoBDOw==" saltValue="vkvlIAKYLmF+aYXPq3QAcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RPjS05K5Ealwmsy5U0VX42UcZWttWToJdIs6/brWlICBej439I5+J2rl9ak2oFubWVBXfGdEHBMr7NbxBZrQnA==" saltValue="AIjzP7bDJiMLfRHKrzm1kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10069,42 +10075,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>21</v>
@@ -10133,7 +10139,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>21</v>
@@ -10162,7 +10168,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>21</v>
@@ -10191,7 +10197,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>21</v>
@@ -10220,7 +10226,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>21</v>
@@ -10249,7 +10255,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
@@ -10270,7 +10276,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
@@ -10291,7 +10297,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
@@ -10312,7 +10318,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
@@ -10333,7 +10339,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -10354,7 +10360,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -10373,7 +10379,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -10392,7 +10398,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -10410,7 +10416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FIvEFWbyF5Wh/8zikLTCxfepcClK8BW9ldWzTuRKt+GEIvqUEP1DPB949bX7hARo4X9SQ4+4bvxzmJOG0clGJg==" saltValue="cuy1rlx0RAAf0wz7yLmdpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XKuiU9gqlO5pwTRRJzT0cfctvAA8Xe5H7UgCGNJ82FYtUDtR1h7As7QTU0aW0uxhI3PFsfjQFUEHNNTQ1TDcpQ==" saltValue="9UGbNGOu5MVnbx3XVTYcng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10436,39 +10442,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -10489,7 +10495,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -10511,7 +10517,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -10532,10 +10538,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -10557,7 +10563,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -10578,7 +10584,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -10598,10 +10604,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -10622,7 +10628,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -10643,7 +10649,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -10663,10 +10669,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -10687,7 +10693,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -10708,7 +10714,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -10728,10 +10734,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -10752,7 +10758,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -10773,7 +10779,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -10793,10 +10799,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -10823,13 +10829,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -10850,7 +10856,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -10871,7 +10877,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -10891,10 +10897,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -10915,7 +10921,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -10936,7 +10942,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -10956,10 +10962,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -10980,7 +10986,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -11001,7 +11007,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -11021,10 +11027,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -11045,7 +11051,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -11066,7 +11072,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -11086,10 +11092,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -11110,7 +11116,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -11131,7 +11137,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -11151,10 +11157,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -11181,13 +11187,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -11208,7 +11214,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -11229,7 +11235,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -11249,10 +11255,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -11273,7 +11279,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -11294,7 +11300,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -11314,10 +11320,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -11338,7 +11344,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -11359,7 +11365,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -11379,10 +11385,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -11403,7 +11409,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -11424,7 +11430,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -11444,10 +11450,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -11468,7 +11474,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -11489,7 +11495,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -11509,10 +11515,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -11531,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SlbEpPinjHP9F1K2Qx3oy09+Q82YLzOuKnhImgzoovtCNkky5Bh0HPafLzDLFOvEgj2paFvJfWu/CfFIC4cy1g==" saltValue="2ZVoTX+UVuhGNrXJKGUMVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tV16240URYI8wvM5rNuvlf3CNifMJs2sRFr8ju0uN2ElzxXmLGxlepPhgX02yc7YIIP/gcH40DK2Eg5E07yv8A==" saltValue="77pVDixoaUiaK6oBMZmjCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11574,31 +11580,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12639,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cNaYu5fmy+ZlcFXaEWYSTJex7ubj9CuBHywO6xQU4h7miUuXJRrHgzKDWEoZgy0l44QsFgFhSUW2cFzbH3N7iw==" saltValue="OZD8eSh/8ABqe2dDhC1I0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Bmp9ADosiK8bDUfm+g225RpQ/7jjlh7zr0CVY5KsF58rtN1ncIERQPhIoeBWc87Lj/geWkwk90ugWHGYgFkdRw==" saltValue="ZnPWAn+RHjpdlb2vk4cSWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12673,27 +12679,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12703,7 +12709,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12720,7 +12726,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12737,7 +12743,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12754,7 +12760,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -12777,7 +12783,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12802,7 +12808,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12812,7 +12818,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12822,7 +12828,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12840,7 +12846,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12858,7 +12864,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12885,7 +12891,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -12896,7 +12902,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -12914,7 +12920,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -12932,7 +12938,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -12950,7 +12956,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -12968,7 +12974,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -12985,7 +12991,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -13002,7 +13008,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -13019,7 +13025,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -13041,7 +13047,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h/dJ8yjG6KBkaa8o9DAXoTdS6plrqcS1rBV1nCKdeINSDakCkGHVNwJMhgPIeBpaCJJ/VsCOCEcnOKp62+TIGg==" saltValue="/M/m8CuObdU9p+u6dbZ4mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RQ3F41VGST0/CjbzsDiNnNIoGtIQ0a0dQMXT1o9MLJWVMNH+V7yOnh0DVOP+2BPYJAD4ElnvtFVYxXFzzvffdw==" saltValue="flMOuxAYTPE3V7Qdu+Bi1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13071,33 +13077,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>113</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -13111,7 +13117,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>25</v>
@@ -13142,7 +13148,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13170,7 +13176,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13198,7 +13204,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13226,7 +13232,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>25</v>
@@ -13257,7 +13263,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13285,7 +13291,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13313,7 +13319,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13341,7 +13347,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>25</v>
@@ -13372,7 +13378,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13400,7 +13406,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13428,7 +13434,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13456,7 +13462,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>25</v>
@@ -13487,7 +13493,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13515,7 +13521,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13543,7 +13549,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13571,7 +13577,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>25</v>
@@ -13602,7 +13608,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13630,7 +13636,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13658,7 +13664,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13686,7 +13692,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>25</v>
@@ -13717,7 +13723,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13745,7 +13751,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13773,7 +13779,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13801,33 +13807,33 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>112</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>113</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -13841,7 +13847,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>25</v>
@@ -13872,7 +13878,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -13900,7 +13906,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -13928,7 +13934,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -13956,7 +13962,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>25</v>
@@ -13987,7 +13993,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14015,7 +14021,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -14043,7 +14049,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -14071,7 +14077,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>25</v>
@@ -14102,7 +14108,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14130,7 +14136,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -14158,7 +14164,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -14186,7 +14192,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>25</v>
@@ -14217,7 +14223,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14245,7 +14251,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -14273,7 +14279,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -14301,7 +14307,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>25</v>
@@ -14332,7 +14338,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14360,7 +14366,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -14388,7 +14394,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -14416,7 +14422,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>25</v>
@@ -14447,7 +14453,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14475,7 +14481,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -14503,7 +14509,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -14535,30 +14541,30 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="123" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="103" t="s">
+      <c r="E56" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="F56" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="G56" s="103" t="s">
         <v>138</v>
-      </c>
-      <c r="G56" s="103" t="s">
-        <v>139</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -14569,10 +14575,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14594,7 +14600,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14616,10 +14622,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14641,7 +14647,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14663,10 +14669,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14688,7 +14694,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14714,33 +14720,33 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>112</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>113</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -14754,10 +14760,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -14785,7 +14791,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -14813,7 +14819,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -14841,7 +14847,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -14869,10 +14875,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -14900,7 +14906,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -14928,7 +14934,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -14956,7 +14962,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -14984,10 +14990,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -15015,7 +15021,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -15043,7 +15049,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -15071,7 +15077,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -15099,10 +15105,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -15130,7 +15136,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -15158,7 +15164,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -15186,7 +15192,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -15214,10 +15220,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -15245,7 +15251,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -15273,7 +15279,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -15301,7 +15307,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -15329,10 +15335,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -15360,7 +15366,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -15388,7 +15394,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -15416,7 +15422,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -15444,10 +15450,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -15503,7 +15509,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -15531,7 +15537,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -15559,10 +15565,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -15590,7 +15596,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -15618,7 +15624,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -15646,7 +15652,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -15674,10 +15680,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -15705,7 +15711,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -15733,7 +15739,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -15761,7 +15767,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -15789,33 +15795,33 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>112</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>113</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -15830,7 +15836,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -15858,7 +15864,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -15886,7 +15892,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -15914,7 +15920,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -15944,7 +15950,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="axiY+Q54MM60BV9hU+MgVEv7J+1kgV3fDbdLKf0XGfRjwgWpW8A+HwS+Or1p+R/NG88EQFSZF3NPpVv6hOxmzA==" saltValue="VQfVvxzZFvfhLXvLbk38WA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ORHlFf0GAq/kwdboT3m9sYMntM+Dhbk+k7zyjzJdG0KejZSpULdYVBFasZw/6jD4Vm14c8Za4MiQ7VIt/LwS2g==" saltValue="5QfGdBDZMmvecHB+5oe2FQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15975,7 +15981,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15984,19 +15990,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16004,7 +16010,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16047,7 +16053,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16067,7 +16073,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16087,7 +16093,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16121,7 +16127,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="136">
         <v>1.5</v>
@@ -16150,7 +16156,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B14" s="117" t="s">
         <v>253</v>
@@ -16194,7 +16200,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="113" t="s">
         <v>254</v>
@@ -16223,21 +16229,21 @@
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1.52</v>
@@ -16253,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d5oMC4ufD32rNPxaZ1jXgd3BpFQm0idSDlwYWOpkRqZSHIvaec/jTCxo6D8o9oFWMkerD0e8jvo6oKe+yNGrbA==" saltValue="e0FMRDLSe9weEfb65V3EQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qk28o7TJ4935KPoIjA6LXG9m6Xmmynz1Ad6fhXLjbuT/AHwL89sv/XUh9ggQ863saRV699tMjEqX2Z09CKqCAA==" saltValue="EqKzWMq5rS49gXKQhZignw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16282,28 +16288,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16321,7 +16327,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16338,10 +16344,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C4" s="136">
         <v>0.15</v>
@@ -16359,7 +16365,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16376,10 +16382,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C6" s="136">
         <v>0.15</v>
@@ -16397,7 +16403,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16417,7 +16423,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16435,7 +16441,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16452,10 +16458,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16473,7 +16479,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16490,10 +16496,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C12" s="136">
         <v>0.23</v>
@@ -16511,7 +16517,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16533,7 +16539,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vvH3lPZsIu7QKGrI9iSPnrks9wveW1qBiFGNk/HKua4x+csCR/VNrMQju2CzWgY73ogjZPVWqdq706+JrA27cA==" saltValue="AULY6P6PRCv6BHIA1WbHeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zz4y16mJ2qSQ9c3MkBC0LLu0sMUdhv6Lr4ue7vaYCd3soFw7PpUkUsR0BAGHUjbR3lEeRKwldrZ2TFg2hF/rXQ==" saltValue="KqWK0kitN2aaUh3PyfDooA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16562,53 +16568,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>113</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>87</v>
-      </c>
       <c r="L1" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -16652,7 +16658,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -16696,7 +16702,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16740,7 +16746,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -16784,7 +16790,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16828,7 +16834,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -16872,7 +16878,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16960,7 +16966,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -17004,7 +17010,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="136">
         <v>0.83</v>
@@ -17048,7 +17054,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -17092,7 +17098,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="136">
         <v>1</v>
@@ -17136,13 +17142,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="136">
         <v>1</v>
@@ -17186,7 +17192,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -17230,7 +17236,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -17274,7 +17280,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -17329,7 +17335,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GbjeYKl588szM4zgjmW92rh5uMdOBZfHTRrQ0VeDlRbxs8c/eGipcWPQJImlQ2ZILoFdgGQ7bhZ54aeju4T6cQ==" saltValue="OqJe4ld68kv6RwMbkPMe+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HppSgmHmKqIelaRCr2Hfr8M5VOFqjX/l88CAd8rsqfcSnDJsYrxq9RHzD6uvCtqwDHHIPJBMieqJZ4JOTtcJig==" saltValue="6Nosm2fySN/m7cB5xEA0dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17358,29 +17364,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -17400,7 +17406,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17411,7 +17417,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -17430,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="reQfdWbBxe/RgIVWr3wod03JIoWegccBooRR89ZmF5gE2m3cxzCUNJDXA/kTdB777JzBAs5mDDT20jnAAT5jbQ==" saltValue="MpfArBk4cXLfVBpj8xbDKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WvV+a86Xp8PSoexaQ8B3kvmyrvCohcg/TEu+DCDJP0ZM0Es9T88aD6aprwleH1FhS92xpVpkobWfrbia1L+3gA==" saltValue="bAtZnv85JrEKkndNr0zqIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17462,39 +17468,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17514,7 +17520,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17534,7 +17540,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17554,13 +17560,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17580,7 +17586,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17600,10 +17606,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17623,7 +17629,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17643,13 +17649,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17669,7 +17675,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17689,10 +17695,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17712,7 +17718,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17732,13 +17738,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17758,7 +17764,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17779,10 +17785,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17803,7 +17809,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17824,13 +17830,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17851,7 +17857,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="136">
         <v>0.46</v>
@@ -17872,13 +17878,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17898,7 +17904,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="136">
         <v>0.46</v>
@@ -17918,13 +17924,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -17944,7 +17950,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="136">
         <v>0.46</v>
@@ -17964,13 +17970,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -17990,7 +17996,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18010,7 +18016,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18030,13 +18036,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18056,7 +18062,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18076,7 +18082,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18096,13 +18102,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18122,7 +18128,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18142,7 +18148,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18162,13 +18168,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18188,7 +18194,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18208,7 +18214,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18228,13 +18234,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18254,7 +18260,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18274,7 +18280,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18294,13 +18300,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18320,7 +18326,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18340,7 +18346,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18360,10 +18366,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18383,7 +18389,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="136">
         <v>0.49</v>
@@ -18403,7 +18409,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" s="136">
         <v>0.52</v>
@@ -18423,13 +18429,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18449,7 +18455,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="136">
         <v>0.93</v>
@@ -18469,13 +18475,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18495,7 +18501,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D47" s="136">
         <v>0.86</v>
@@ -18515,13 +18521,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18541,7 +18547,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="136">
         <v>0.51</v>
@@ -18560,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JBAbZ+hZ9J/YjZjq4NhnBqgcOx8nqEowIeWCoHtOX35rbtVEaItBsrM4wsoGGSVuJDcmQAyUmgunKkt3HvY9bg==" saltValue="qEHiEpgPSSvX/Owu8ckfeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wrdtVNcjELUzlbGVmDkrIVH8N2flCaoc5yYMF8Y/qL1Z24z8i47g0+cTKyUiIiYLfU6kSZoWgj94po4SfV7MWQ==" saltValue="xCEOEz76+adVoKqQ89RM4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18588,35 +18594,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>139</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18634,7 +18640,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18652,13 +18658,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18677,7 +18683,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18695,13 +18701,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18720,7 +18726,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D7" s="136">
         <v>0.6</v>
@@ -18737,7 +18743,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XvZX/Kl1AR+GlyGWgzpmxQybQBkmAxeA9T1lCKP/dSqLN4zLwDiAVjAF5VphMDEmcitVVRpAkq+B9t8qYxRxkA==" saltValue="qGDMRTLenhAuskk1nRUH8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="72bDpNZbYew4I++NB6wv1QFtJgOhnUKZZ2TaWsMNyq3j4R1xs+TCQqCgVokJRD41D/9byn1atZPVQIkm+P19fQ==" saltValue="zDKhXWkuaYuB15RfsqRe3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18773,13 +18779,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18788,7 +18794,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18796,7 +18802,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18804,7 +18810,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18812,7 +18818,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18820,7 +18826,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18828,7 +18834,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18836,7 +18842,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18844,7 +18850,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18852,7 +18858,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18872,28 +18878,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18910,7 +18916,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18927,7 +18933,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18944,7 +18950,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18961,7 +18967,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18978,7 +18984,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -18995,7 +19001,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19012,7 +19018,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19029,7 +19035,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19046,7 +19052,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19078,13 +19084,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19094,7 +19100,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19102,7 +19108,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19110,7 +19116,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19118,7 +19124,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19134,7 +19140,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19142,7 +19148,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19150,7 +19156,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19158,7 +19164,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19166,7 +19172,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19174,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PiMeC3fjaypVVnLlVZ46+5yFri2QgXfa/Vj9R8KwEPKBPrQR/OiWjt/8ujWYV/GKTTmC6/bzmS2uzjnxBBdoUg==" saltValue="rVO5zayAFjqfksUq+FUVcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VfYQzYWSwF7vmWYxkwi5t+UmEYMa/fTvo0en3XnZ84BUqo/U6fJxxD/qoj4PiscW10Ql5PQnCSh7ERYLysBfiw==" saltValue="Buubv0w9/EEuUHsb+kpuQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19204,30 +19210,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19253,7 +19259,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19279,7 +19285,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -19300,7 +19306,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -19336,10 +19342,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19364,7 +19370,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19389,7 +19395,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19409,7 +19415,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19443,51 +19449,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19531,7 +19537,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19601,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hu+7Ei/e07HhDQAE720Ui4LvRVPK4XgDYxAhoaMWwZWm9iwwCl3cvdMFXjwRyh4BT8V7U/WYz4mx+GKGyEO1zw==" saltValue="y710BF3saYpb7ivEKdJ4IA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qGpKx2zu1StFjsZMEJGLa2j8pcNZIHi6dzOo7HxGI72/ZQdEfNlo9pyxs0HkpRrVgeASWZP7mML4inN/2Fe26A==" saltValue="4UUcuBZmMwbOojR/tkPY+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19631,30 +19637,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19674,7 +19680,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19694,7 +19700,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19714,7 +19720,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19738,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8QaLb/KN2loUzZf05BGlNXYhTk04end0lOmF2OZi81mK5ThimhRLq2cV1GZ1a74WWfbFS//pr/Izxxg4WGyKDw==" saltValue="Hp2rBrxgnLDU+QLEQB8YcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FEqTIoaMRAOSFvN4DcULd/JZDBV50WY3+4aeCdIzAgs4PLkLLOaNQ4oa1YXaYtiNmPm3by9mpjVaxzBT84xvkg==" saltValue="u0T2om5G02UHsaNiIEA21Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19763,7 +19769,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19798,10 +19804,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -19818,10 +19824,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -19838,10 +19844,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -19855,7 +19861,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -19869,7 +19875,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -19883,10 +19889,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -19900,7 +19906,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -19914,10 +19920,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -19931,7 +19937,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -19944,7 +19950,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NGkedIrK9YsUW0oiFQnd3+NwWuKlJ2Mz2Wb1S6O+Iw0SdtG1efy35UgE4ikwanXdKtoWVFu9/U+Ad1TsmEYWxw==" saltValue="Fgm/v/mD2XI8sp784j3HOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+NXhMb+KkiK02zGcHo6fNCrruOtUWWFTaccmTgtaSolVH4iDFHuVMlrqHjeURkw+FxuuxfJihoPzkG1sdSQpPA==" saltValue="1t0qcC8jMexfGlo7q7IMAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19971,19 +19977,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -19991,7 +19997,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20003,7 +20009,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20017,7 +20023,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20031,7 +20037,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20045,7 +20051,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20059,7 +20065,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20070,7 +20076,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20084,7 +20090,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20096,7 +20102,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20108,7 +20114,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20120,7 +20126,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20132,7 +20138,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
@@ -20145,7 +20151,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -20159,7 +20165,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -20173,7 +20179,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -20187,7 +20193,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -20201,7 +20207,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -20215,14 +20221,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gJqbguNqMsaHX/Ed6GeZrB/kt/aIQ4oopDLWB7iOpZPwNT+sMTfxJNkU9GjE6NlbBLUCIa3MoD7vBMCKiyFM/A==" saltValue="YEaDEyVJJH2fxixbbVIVpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NTP31gUOS7mHo2uIwk7/n/j7OHnY4RE6Iuo2AYTgFeD8Pzntc7bWkhT3lnE1U8OHUzP+0qC8579v5PhK7jgBQg==" saltValue="7nCdpFT1NL4viB2cr7f6Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20252,41 +20258,41 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>161</v>
-      </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rx3kCJ3/xJtDKFiU0JGkYALGcQDYYU4NMxuaYgUdY3QrxBZiveYwnSbX8XFvRw8CW7Y/ShweEvv84DiEp8YeBw==" saltValue="Zn5DYtzty0mZurb/QUYDIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+nIgojTNe7+WXWjNCEVmhQBXRoAljy2JYY5OcCiOFif51SFndVck93MqPw0BBXR00q5/WTIxCHljKqDt1Lkpaw==" saltValue="Qp7rKKyJWBohTJRy60UdZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20314,25 +20320,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="62" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
+        <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
+        <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20344,12 +20350,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20361,12 +20367,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20378,12 +20384,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20395,12 +20401,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20412,12 +20418,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20429,12 +20435,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20446,12 +20452,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20463,12 +20469,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20480,12 +20486,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20497,12 +20503,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20514,12 +20520,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20531,12 +20537,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20548,12 +20554,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20565,7 +20571,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20582,12 +20588,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20599,7 +20605,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20616,7 +20622,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20633,7 +20639,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20650,12 +20656,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20667,12 +20673,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20684,12 +20690,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20701,12 +20707,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20718,12 +20724,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20735,12 +20741,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20752,12 +20758,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20769,12 +20775,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20786,12 +20792,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20803,12 +20809,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20820,12 +20826,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20837,12 +20843,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20854,12 +20860,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20871,12 +20877,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20888,12 +20894,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -20905,12 +20911,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -20922,13 +20928,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -20940,12 +20946,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -20957,14 +20963,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h4Gyrx3CuG/S9Kpwkfy0vfTRDkmQJRooR8+0FlF98DyLyPDVXkFbnL2cha5ZzaYQ3qeE6joFnwSGoKt3gdiakg==" saltValue="VKoigdSYrKLLou9R3L+IQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2Exw5x4liCFLS3sgg7nZwXHL1ElTZfGUpaNICPjRN0eeChuXt5GyLYZtMXtWokgvfxRdzwN5gdjOv4WtQTN+ow==" saltValue="c1ZOO/U+dxWhuXaX5InYDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1136464-FCE6-449C-8FCA-878D48507C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BC83FA-7B9F-436A-B19B-5C74BE09564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Incidence des conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
@@ -36,7 +36,7 @@
     <sheet name="Risques relatifs" sheetId="67" state="hidden" r:id="rId21"/>
     <sheet name="Rapports des cotes" sheetId="68" state="hidden" r:id="rId22"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" state="hidden" r:id="rId23"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId24"/>
+    <sheet name="Programmes-anémie" sheetId="70" state="hidden" r:id="rId24"/>
     <sheet name="Programmes-amaigrissement" sheetId="71" state="hidden" r:id="rId25"/>
     <sheet name="Programmes pour les enfants" sheetId="72" state="hidden" r:id="rId26"/>
     <sheet name="Programmes pour les FE" sheetId="73" state="hidden" r:id="rId27"/>
@@ -465,9 +465,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -624,19 +621,19 @@
     <t>Incidence de la diarrhée</t>
   </si>
   <si>
-    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 1-5 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+    <t>Nombre moyen d'épisodes par an: &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 24-59 mois</t>
   </si>
   <si>
     <t>Autres risques</t>
@@ -654,19 +651,22 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
+    <t>Données</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>Total FAP</t>
@@ -816,16 +816,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Prévalence de l'anémie</t>
@@ -999,19 +999,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -4753,18 +4753,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4772,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4781,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4794,12 +4794,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4858,14 +4858,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4909,12 +4909,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4950,14 +4950,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4999,19 +4999,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5066,13 +5066,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5114,13 +5114,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5161,12 +5161,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5200,7 +5200,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YQOAOiAJ2SnMhXdvLOzfozOYP4xKVX65vV7+MBEz5M1+L8lGW3hTZpzGGRv77FYrryFhxGVb7NHFM9ZLHRYVJg==" saltValue="/yZoBVbA3QIMtu12nWimTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P3/Mie4TyLouiYfJenxlhjK6daC7VtVYgPK6IRrK+GwaBqPQEKPrb/dy42C3x6kbAqUTafnjYOklu8AJenPaAw==" saltValue="/N9wqRAEdlTyCxlfOW2S8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5348,7 +5348,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bzKFqxgZ2Qi97iNkqj4xocOXKddhsIYtcMOdVUUlXbNaiki3DVyxB8s0p5OxPAVKd5iGo//7RW66HrPLTSEkzw==" saltValue="fG91bYRuTfuCTVQlB7bnAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="az/zZQM3E8b4tiJ+wNEY/dd6Y0eO64qtVhB/5M8iBhe752OTdPscRcBNvRbiEjQI/j0eWI8/E1Rivc2f9j9vvQ==" saltValue="2885V9EaC1RROHZrmoY6pQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5448,7 +5448,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3sPxwgs5HnOb4ayfUa0oQzVS6IfzFhzPGjmgIUXpCdkDebP3cx1Q6+nAVIZtWEKXnMZzP8IKFhuX4G7JtjeK5Q==" saltValue="20Z2OlddOp5AIibY68w2TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EE+6t30ga1ANuBxSsxDMc2ss6sCO5R5g4xZiD3aT5dzOV6dQ5eMZ0MpuyGhgNi9XstZW60tfJHGR1Y+phOsWrw==" saltValue="VLWKMM/Y7P/0z+pnvYTcRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0wpr+XTpTw5Et/uIuhkVwwNx3xEUPKkVHSu/gjqB+gbtrTAZimInnwrIblnAx3yaiDiHgojjszfkilkjVAbeNw==" saltValue="MJ3l/t+AlatRo6e01FF6Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oLnhvWrn01FCa1YSZt6mNvS+JeQzHAdl+S9pqqrGcn2MNaXWTtskhQECYmBpOoE+1e93chSWrABPxwRhmglR4A==" saltValue="sUefBE1AjcAJwiJ1akeaFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7279,7 +7279,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WazMepHYpxJNW2pHFILhNrMhMl207pERY6BWLdfA96hnEOqv2oSji7Ku6Xgh0/TBqiuDMuynqXZgtnqfITgFvg==" saltValue="YQXpQ+NXXtzYTIkFhyiH0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mbiFSe7YKl8G307dcVMxQ7O1dNcE8uZEBwndplBv22CGiLDO+DmAldmb5NSuF8G2qyJs3rt6YkuDixgiDFKTbw==" saltValue="SMLXyPGMHVo+NAvS81q3lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g7U2EOg+iLJJlRvWha28jxD95fZmMczyNRt9djL3cPRuL4XQ+UXyo35pyrXxJQhRDe5IlmyH9b0Hlc2hLuc6Ig==" saltValue="mLr/D/YYz52m2jmrtxfxOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4+Fvn+kHtYJlnsdUHDbRDpl6e0//VB3Xwa33b6FX4Rg1YPBiKwLbQxnFF2+K6fXmUAZ32zoyCNz1FEWbIocchQ==" saltValue="L1SSm2OHwfer404vjG3Tgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7525,7 +7525,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qpmqHUxKnlfS4UkU65BqQ0jjTRzMF52+8CbGmyXCH3uIECZEBjwRG2CXmXb8impb10K+vfvSyiJACflH2NpFRg==" saltValue="526o4LZYonnz2cm/xXrluA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i7IngLoczwUZE3S8vvE2KfvWYHfvHl2tecD+nDYIdbbLeIZOtyibqyUIPTcje8AGvhDMxWWfEEZrpDKDZwCmLA==" saltValue="dYBQTaysPyMr3mS9ICb1Yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Chh8UyhtY1aktg6U1PkTwzm/uBoWnxtQ56ZW4Mzwb4knhpzUUOlg+QIm4w2RU9IwKctgF6W2FQ2Dik82SSjQAQ==" saltValue="5b2+O1cRRbPMyqAksl3u9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2lGNv1Y0R/mnVQuHUzhiNsgFHw/8HjXha3Z4+Rvp4oIcmxbuNmZYlYCHTYNI72BpsZoFUeRVgS9btcGagFbeQw==" saltValue="Dv5y1vq/uLSwM5DFKFnNZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9350,13 +9350,13 @@
         <v>100</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>81</v>
@@ -9374,7 +9374,7 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
@@ -9390,7 +9390,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -9403,7 +9403,7 @@
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -9443,10 +9443,10 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9455,14 +9455,14 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -9474,14 +9474,14 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -9493,14 +9493,14 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -9588,7 +9588,7 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9607,7 +9607,7 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
@@ -9618,17 +9618,17 @@
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -9652,16 +9652,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -9671,16 +9671,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -9690,16 +9690,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -9718,10 +9718,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -9731,13 +9731,13 @@
         <v>187</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -9761,7 +9761,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -9777,7 +9777,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -9794,7 +9794,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -9831,7 +9831,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -9847,7 +9847,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -9858,11 +9858,11 @@
         <v>194</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -9880,7 +9880,7 @@
       <c r="C30" s="133"/>
       <c r="D30" s="133"/>
       <c r="E30" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -9899,10 +9899,10 @@
       <c r="E31" s="133"/>
       <c r="F31" s="133"/>
       <c r="G31" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="133"/>
       <c r="J31" s="133"/>
@@ -9918,10 +9918,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -9937,10 +9937,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -9956,10 +9956,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -9975,10 +9975,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -9994,10 +9994,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -10014,7 +10014,7 @@
       <c r="F37" s="133"/>
       <c r="G37" s="133"/>
       <c r="H37" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -10025,24 +10025,24 @@
         <v>202</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="133"/>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
       <c r="F38" s="133"/>
       <c r="G38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RPjS05K5Ealwmsy5U0VX42UcZWttWToJdIs6/brWlICBej439I5+J2rl9ak2oFubWVBXfGdEHBMr7NbxBZrQnA==" saltValue="AIjzP7bDJiMLfRHKrzm1kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DmzXTpyHwslgLlvpgjQhTTT03zryh9ovYZFHl9IfXhsqcte9kX9OsA+S/aOa6wgzW7nJ5lveXrPDb2e0mqECoA==" saltValue="+gRM9iSRItSudC7MYaBHcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10096,13 +10096,13 @@
         <v>100</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>81</v>
@@ -10113,25 +10113,25 @@
         <v>122</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -10142,25 +10142,25 @@
         <v>109</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10171,25 +10171,25 @@
         <v>110</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -10200,25 +10200,25 @@
         <v>111</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -10229,25 +10229,25 @@
         <v>112</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -10259,17 +10259,17 @@
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
@@ -10280,17 +10280,17 @@
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
@@ -10301,17 +10301,17 @@
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
@@ -10322,17 +10322,17 @@
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -10352,10 +10352,10 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -10374,7 +10374,7 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -10393,7 +10393,7 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -10412,11 +10412,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XKuiU9gqlO5pwTRRJzT0cfctvAA8Xe5H7UgCGNJ82FYtUDtR1h7As7QTU0aW0uxhI3PFsfjQFUEHNNTQ1TDcpQ==" saltValue="9UGbNGOu5MVnbx3XVTYcng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JvSoaW3ethMCo2IlQaHwiRhR3t58XqHrAXPY4nSF5C1MwsxrMQnTlAiCuueX6dp1E0+fh9A4ov9Neg6Xm+RESw==" saltValue="jycN7+imnyBaZ9NDgwfD7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tV16240URYI8wvM5rNuvlf3CNifMJs2sRFr8ju0uN2ElzxXmLGxlepPhgX02yc7YIIP/gcH40DK2Eg5E07yv8A==" saltValue="77pVDixoaUiaK6oBMZmjCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YAb/CmUrq/CSB3DT8UCtvAcmltq5rQLic/wSMI9fVqYYVROk2fWPSB3kWLjEYwM5DpRuTaAdJ5UjISqoAgvKgw==" saltValue="PY90NM6Sa/u4oDmeeNuBKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bmp9ADosiK8bDUfm+g225RpQ/7jjlh7zr0CVY5KsF58rtN1ncIERQPhIoeBWc87Lj/geWkwk90ugWHGYgFkdRw==" saltValue="ZnPWAn+RHjpdlb2vk4cSWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dhHgZ9zwZdn1Vt8nnaqrdDO1u6SOO9PNWoIcxqxdFYPVFqVbfcge8lEK+nm6EU1syXvvIP4n+QGP52QUwlzSrA==" saltValue="7kwei0oWJYvIZFmSAwpDnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12685,16 +12685,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12709,7 +12709,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -13047,7 +13047,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RQ3F41VGST0/CjbzsDiNnNIoGtIQ0a0dQMXT1o9MLJWVMNH+V7yOnh0DVOP+2BPYJAD4ElnvtFVYxXFzzvffdw==" saltValue="flMOuxAYTPE3V7Qdu+Bi1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7x00F2g/WvmX74UQeCiyew5pcMssKKDkw9Zdt0lDKcuXskn64BK6dwfUq0iWgFNZ3IEGKrLqsd6B/jEdKa5PtA==" saltValue="cB0syhgdeK+h4+qKBK3X5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13120,7 +13120,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13235,7 +13235,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13350,7 +13350,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13465,7 +13465,7 @@
         <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13580,7 +13580,7 @@
         <v>102</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13695,7 +13695,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13850,7 +13850,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13965,7 +13965,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14080,7 +14080,7 @@
         <v>103</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14195,7 +14195,7 @@
         <v>104</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14310,7 +14310,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14425,7 +14425,7 @@
         <v>108</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -15950,7 +15950,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ORHlFf0GAq/kwdboT3m9sYMntM+Dhbk+k7zyjzJdG0KejZSpULdYVBFasZw/6jD4Vm14c8Za4MiQ7VIt/LwS2g==" saltValue="5QfGdBDZMmvecHB+5oe2FQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3/lZEAus/1VgjbqRAhOZ0BUAMDBHT/4WEcysvxvrYFu75z3Gqd9dhudhnnsSqAUZiQuK1Vs+8ik5NoKizO+F2g==" saltValue="dt8c+LvfsAgd6uzoz0AEIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16010,7 +16010,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16259,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qk28o7TJ4935KPoIjA6LXG9m6Xmmynz1Ad6fhXLjbuT/AHwL89sv/XUh9ggQ863saRV699tMjEqX2Z09CKqCAA==" saltValue="EqKzWMq5rS49gXKQhZignw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aMRFbZ96vCTMDXXORGstC2sEoUsLlGC8bg7OJvStCYaU6W5tCm5mQGb6/Fn8k3aEJx4EI0NLexX0a/v4x52DEQ==" saltValue="K8dGjyoldxb9lGZu6aEUOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16292,16 +16292,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16539,7 +16539,7 @@
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Zz4y16mJ2qSQ9c3MkBC0LLu0sMUdhv6Lr4ue7vaYCd3soFw7PpUkUsR0BAGHUjbR3lEeRKwldrZ2TFg2hF/rXQ==" saltValue="KqWK0kitN2aaUh3PyfDooA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JyZkgf8Sf5q4mNLGdXAe+qV1z014hc90vESxdcsRKD+uDrY7HGa0n8BGF9KOrOqg1d9DBtIyOUt9x6Lht+GH/g==" saltValue="+P88Svbc55apnREAWgZV6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17335,7 +17335,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HppSgmHmKqIelaRCr2Hfr8M5VOFqjX/l88CAd8rsqfcSnDJsYrxq9RHzD6uvCtqwDHHIPJBMieqJZ4JOTtcJig==" saltValue="6Nosm2fySN/m7cB5xEA0dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dzIjJsaA6n0QW14m56AwuMonLQ94tjWNO7ndLsDVx4cumWnr1rx7UVVmJ1TvdKhJfn4kCFSMxATkI1DTg9FooA==" saltValue="Vm3vhoKS8xhtlxT45gZmHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17436,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WvV+a86Xp8PSoexaQ8B3kvmyrvCohcg/TEu+DCDJP0ZM0Es9T88aD6aprwleH1FhS92xpVpkobWfrbia1L+3gA==" saltValue="bAtZnv85JrEKkndNr0zqIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="milU7u6GAhTprQDxJFOwtAY842eUsb0PZFQWgVpf9MqPPWEaC6NbRNeO2hFKhWOIuuL3ttjzkHiWztPN5lFWCQ==" saltValue="pvT3bJIOVm4HCE0fuS6juA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17474,7 +17474,7 @@
         <v>264</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>122</v>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wrdtVNcjELUzlbGVmDkrIVH8N2flCaoc5yYMF8Y/qL1Z24z8i47g0+cTKyUiIiYLfU6kSZoWgj94po4SfV7MWQ==" saltValue="xCEOEz76+adVoKqQ89RM4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5tRPA3smYFaAcUhRJ8N4c81Rn6bPQ67WKMrNXoMoGcAp43IXwQp4L4Te8VVAEzqp2wpZcd4rFV1cjdCY6+AHZw==" saltValue="NxltZ2ArZvWVxV2XKazjPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18743,7 +18743,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="72bDpNZbYew4I++NB6wv1QFtJgOhnUKZZ2TaWsMNyq3j4R1xs+TCQqCgVokJRD41D/9byn1atZPVQIkm+P19fQ==" saltValue="zDKhXWkuaYuB15RfsqRe3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XODy0ZzNU4ulwVIAN1UrNRVlNrQVpaW11SfuIwQO0ZDEeTCCK8auTQ+3WAIm9Yd+ux5j+jiAE1gGd+mF7pcnpA==" saltValue="GW1mB4O7+Vv0vDSTlXJzQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18782,7 +18782,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>122</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18881,7 +18881,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>109</v>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19087,7 +19087,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>113</v>
@@ -19172,7 +19172,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VfYQzYWSwF7vmWYxkwi5t+UmEYMa/fTvo0en3XnZ84BUqo/U6fJxxD/qoj4PiscW10Ql5PQnCSh7ERYLysBfiw==" saltValue="Buubv0w9/EEuUHsb+kpuQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="713cwE7Es8yxshQL/gU6gvCBGfdBMXck3t5sWJofl2iBcYQQsbSQv7ewLCgBF8jL59rofk5XEsjCFE1FEhqKmA==" saltValue="oN2JPDmurh54VCpznp9sAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19607,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qGpKx2zu1StFjsZMEJGLa2j8pcNZIHi6dzOo7HxGI72/ZQdEfNlo9pyxs0HkpRrVgeASWZP7mML4inN/2Fe26A==" saltValue="4UUcuBZmMwbOojR/tkPY+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NU3CGm+7cMTUvy0H6Ui14DRoX07UT4Kmmdlg2jXSkeuBGO42H8J9lrI1bEMNCfloeCmMzUbnUf27tCgdSr9Ypg==" saltValue="lChmEYZ+2VYxn0YEsrf2zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19744,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FEqTIoaMRAOSFvN4DcULd/JZDBV50WY3+4aeCdIzAgs4PLkLLOaNQ4oa1YXaYtiNmPm3by9mpjVaxzBT84xvkg==" saltValue="u0T2om5G02UHsaNiIEA21Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UTymUfKcxFWgCyQXrBpnxhBkX+Mwvattz5ADWB7IdhucUIObDjDTUyeyBHJkkUpo5rjBRguCrbuCiHwTNXOXYg==" saltValue="AZxudY9bW7dpYhI0cLLE+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>154</v>
@@ -19950,7 +19950,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+NXhMb+KkiK02zGcHo6fNCrruOtUWWFTaccmTgtaSolVH4iDFHuVMlrqHjeURkw+FxuuxfJihoPzkG1sdSQpPA==" saltValue="1t0qcC8jMexfGlo7q7IMAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F+fc5u51piBfnGLphhULKP5+tugx5kue9Kivem3zdzl1MmNr0CPoSQCRqsNjTUagmziKS/8leYIFNJmanyV5+w==" saltValue="Raqqrofpbtbqa1NmT8CPUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19994,7 +19994,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>113</v>
@@ -20073,7 +20073,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>113</v>
@@ -20143,19 +20143,19 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20183,7 +20183,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20197,7 +20197,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20211,7 +20211,7 @@
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20228,7 +20228,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NTP31gUOS7mHo2uIwk7/n/j7OHnY4RE6Iuo2AYTgFeD8Pzntc7bWkhT3lnE1U8OHUzP+0qC8579v5PhK7jgBQg==" saltValue="7nCdpFT1NL4viB2cr7f6Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kXtV9YNgrpPkBCx3plEZAzyl2XX7hojKsFwAocVt4PbZEqjdTKAT0ZuRks23uANAb8sITkr/tzRIHcWgiU4wrw==" saltValue="+aunRfltvev8WDivgiHdJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20261,7 +20261,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>166</v>
@@ -20292,7 +20292,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+nIgojTNe7+WXWjNCEVmhQBXRoAljy2JYY5OcCiOFif51SFndVck93MqPw0BBXR00q5/WTIxCHljKqDt1Lkpaw==" saltValue="Qp7rKKyJWBohTJRy60UdZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X06K/8jdMx0aTPCrED/zzPDz+yMPBkHose+ZI6h+d+Y7Ojwsx0FGX+FtYV38ZpWiK1e58fhd+PPTxGc3YuL09g==" saltValue="JZ0B2G0XRrs76jEubXxWtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20610,7 +20610,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20627,7 +20627,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20644,7 +20644,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20970,7 +20970,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Exw5x4liCFLS3sgg7nZwXHL1ElTZfGUpaNICPjRN0eeChuXt5GyLYZtMXtWokgvfxRdzwN5gdjOv4WtQTN+ow==" saltValue="c1ZOO/U+dxWhuXaX5InYDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="02MPRk8XvJ6ttWNsMroxI6Jq00tdyyRLjMSuyGHtRmxCuuS9g5Z78d0Gk3io4T3NfjesSEL13NsZO3UTEeg7fA==" saltValue="iWNv+4qvVroKPrdT1XBvKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD4068A-FB5E-4D79-935A-B9BDEE9A3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1545221-2342-42CA-8AA1-0BC37CB71C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4744,14 +4744,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4762,14 +4762,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -4778,7 +4778,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -4787,17 +4787,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -4853,17 +4853,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -4904,15 +4904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
@@ -4944,18 +4944,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>41</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>44</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
@@ -4996,20 +4996,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>53</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
@@ -5109,16 +5109,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
@@ -5159,12 +5159,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
@@ -5196,11 +5196,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0IR4gxQctTMGvs70jTvSMampf5KCbcgvxBJD8Cji2vGjcxun1uQuk4SI0fu0hqWAy/COI2gkr/vHaaMKm8WzGg==" saltValue="6ofLb62puqssJfily3Qr8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZhD0xAoxIIYsU+owh6qCjLe05KK/yExwO3y8YOJirppSs3Q6JNA3NdJVawH3c8JNMgyJ6tgX+iFGHtNzrv5nBA==" saltValue="13YVUgJHx9n8glX5otEzaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5217,15 +5217,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>173</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>174</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>184</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>181</v>
       </c>
@@ -5272,83 +5272,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i5AfPYy6Z4hR1DI5uEcWsBdSPzlG9JslHS3xbn3o94I4aK72n2/g/NRgRk8W0FvA492dBVbJnbMvDxJQYOVthQ==" saltValue="s4VSJeNAJjpvmbAJzONM7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/EoBAq8JgIv/9tWmuPdmLhdLbOVXIOMk+gfZyGG991FU+ujTuLaUQg7DqkOLrYbmE0Cd+Ejg8A7h6iMW6ODUHQ==" saltValue="yXup+j4qFJW6ytLiP3P9dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5366,89 +5366,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HpPjwIxPDNaS8KfnQ/yMHTJRiG9ZMXqb8EhKiaGTLNGJUYwXQWpclru7EDYlnlHvZFjvJL0McKGMh2wdLMkeBw==" saltValue="eOCVm9m6hLyJC4PAeeiDhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y/xmoB8RGmF/Ejx7YEplNOLBFRQP2CclZDJEve9yvrlyXYzS0vIp3NTPsXz64JVD0jclV0N8KLJBupYQHv0+mA==" saltValue="jZ+xGMr66bPb1uKqCSn0bQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5465,9 +5465,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>198</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>197</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NUGCRnyKbU03I0FXOLQJBr+dnEBSydnBxdud9Xx+Jdp2Fwdp6wWRgseHph/XYVPoeAyIC5uy42mAwrXCOwONvA==" saltValue="J3pB2euB7ExOxxobdbM1/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="va+J6Q80JIU1QQcxVKo2La7ZRU/sE/KVLW/woY628VkM98IkRA2fz1LnFdy5NPt8faSrAVemv6CoqqHSy+Tfvw==" saltValue="gGdfXX4yz1kJ9vVhRy5QuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5580,19 +5580,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>177</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>154</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>191</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>173</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>174</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>179</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>180</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>182</v>
       </c>
@@ -6532,10 +6532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>78</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>169</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>170</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>171</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>172</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6785,7 +6785,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>167</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>186</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>187</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>188</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>189</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>190</v>
       </c>
@@ -7275,11 +7275,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3b+NtTHGIWK16+b4NceOLh6zs0HWAhf1anGCRL7WwYzPjReFSEGA6ezttDCeBizHjR3GUM0lI+t8VaFgmDvP6w==" saltValue="AfsnDEX3XPohknFBt6zpFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yUrRbIwfWoRekiez83Y09yaaw/kI7NaOGIzNKgb8gMr215A1saYQqtCuzqC1y6R1vpPT3h8y0kRLTVc+PcLP0Q==" saltValue="NfqKE3WCeEyAGE2tl4zULw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7294,30 +7294,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q9BrEXTLxjfF0o5R8aKcjoo9OtAm0evBPMm4JriO3ier7jXTYGXlZAxxexzAIym3RttBKKkq4JgA+AiuT3QpCw==" saltValue="6STKcw1/dtDKqd8Fpd/8LA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x0wpUcOXP9QbURCgSCAHt3gAqJ8Tg9WoN3BhUzvdp3IFVMsspOuVdjC9mO68B/VFh5zYFuMY8cqmqcmdqJDimA==" saltValue="A1zIK6TrzBUh8PeITS/9Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7333,16 +7333,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>205</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>206</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>207</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>208</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>210</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -7521,11 +7521,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gGvBnJduXhRWIcJ2QrmUIF0Y/pBrL0ZtGlGWS+aPWEOHKVtSp4bHZWk0vQ8iDjEX/G7HCqkUV68+Rt5ROlwrnw==" saltValue="nJ8A3KxXaIvAt8U7GLIT5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2R4oFrjp+ALIM4eKjS8xwMQToXj6bsD1DDHnnUGIx6VeaRxOQm2yatiwmp51Fs91YJ0yWLl1xXxHKiG+X3ETEg==" saltValue="mm+VYKXeeU8VBhNTXmYztw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7543,20 +7543,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>200</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>164</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>176</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>177</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>181</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>183</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>184</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>154</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>185</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>191</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>192</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8238,7 +8238,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>103</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>162</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>173</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>174</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="91" t="s">
         <v>2</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>179</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>180</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8610,7 +8610,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>169</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>170</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>171</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>172</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8851,7 +8851,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>199</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>168</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>175</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>178</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>186</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>187</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>189</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8P5j3GGbn99G4YrQogytYQVIAoo18bZGO4rmxQeTeO4HhJqm4TW3g3CRgTaS6sR3CreHDiyt2ggcWVO4mBC52w==" saltValue="QFlCdkAz1jh67CEVlPTQRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6c2FdYC7R6gDNETu+1u+Frakrh8Suh6KN6HCNlRkyr2sg8v2AktrEuxrnWD38k17ggIyZU6A1ndvU2raxcwvNg==" saltValue="3lvAFaLVgcM8s/uIjcioKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9312,22 +9312,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -9379,7 +9379,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -9430,7 +9430,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>173</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>174</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -9650,7 +9650,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -9747,7 +9747,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -9817,7 +9817,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -9889,7 +9889,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yKieEGytYJ02olYr79a3w2RqJF2ibIkpF/APlhPrKBCEX59SO/1Xr+io+j3qY0meT00/flLCLoDK0i8MmR7LEA==" saltValue="Ftuj/+Q+zmdIhUN8fzSENg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n3s18HWOT+ZiTf1V74dbbDTUz/cFLmzMhl8ZWL9In3znLNoL9sjedUwffNfcbHXBVKRe+xPQob6z25eMdbZMhA==" saltValue="sxzvJf6bXqhiBxAFaf+isA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10058,22 +10058,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>112</v>
       </c>
@@ -10137,7 +10137,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -10274,7 +10274,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>127</v>
       </c>
@@ -10316,7 +10316,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>128</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>74</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DYoM/3wodvnxZfkr6BJTKlTmzWb8DGIgalL1lYZBQJcbo+Hgor3cauFYP25yXoydSbd+l+x1hf5Oh4GE7XSVEA==" saltValue="fecN05Tw428N/0DsPDq8zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TZbvKLpTnRrcf6YqFVLIfRxnBQE7nPdoqCmcvSmWQQiSICSQLGPq94gItpNnJBqxsfNGj2C270X0eG3sJMiM/w==" saltValue="RZxu2FEA2cdgrBlvrcZf7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10432,15 +10432,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>221</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>150</v>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>151</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>112</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>150</v>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>151</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>99</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>150</v>
@@ -10646,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>151</v>
@@ -10667,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>100</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>150</v>
@@ -10711,7 +10711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>151</v>
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>101</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>150</v>
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>151</v>
@@ -10797,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>152</v>
       </c>
@@ -10820,14 +10820,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>222</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>150</v>
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>151</v>
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>112</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>150</v>
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>151</v>
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>99</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>150</v>
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>151</v>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>100</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>150</v>
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>151</v>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>101</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>150</v>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>151</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
         <v>152</v>
       </c>
@@ -11178,14 +11178,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="s">
         <v>223</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>150</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>151</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>112</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>150</v>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>151</v>
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>99</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>150</v>
@@ -11362,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>151</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>100</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>150</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>151</v>
@@ -11448,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>101</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>150</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>151</v>
@@ -11513,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
         <v>152</v>
       </c>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4lPuIPrAKUYvlm7kpGsCXHSUfTBCwLsNhzYGxlCi3peiBOlucRrv8GSfVXpEDdhwBSqUwio6+9jHRGsXfFm3kw==" saltValue="lgaLu2XutmvBvDh14pgLdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GgwjAUM/acHvQRzWulfgYyyrRkxCo+Esy3lCctI2g+YVJutxnR2ZA6Sb2vejcYjdB7QCTVs2T67L9+R2eP5Naw==" saltValue="DqTf/MLIQPKI650NguRRUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11571,14 +11571,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>79</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11640,7 +11640,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11673,7 +11673,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11706,7 +11706,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11739,7 +11739,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11772,7 +11772,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11805,7 +11805,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11838,7 +11838,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11871,7 +11871,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11904,7 +11904,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11937,7 +11937,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11970,7 +11970,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12003,7 +12003,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12036,7 +12036,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12069,7 +12069,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Cizy9Z9N86YGODM7x+r/Irw+/XtehmEAOhzxwBJ5I5xjc4pSn3cH7VBLOUzaxbFJxJrcAceAyh670qxB5Jdsng==" saltValue="G49Agy1fPG9+lBV5GbVpoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+7c3KndcfF1LL8cpFq2lcQ+DZCDn+FBhkGsRNsf0EglWsTG6+KHIiV31WyS/+T2+UPYfxlF67vFnjGq4ytiuIA==" saltValue="8S8RxZWiGIbWwXZKZlL9mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12667,22 +12667,22 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>58</v>
@@ -12697,7 +12697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -12707,7 +12707,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
         <v>41</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>42</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>43</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>44</v>
       </c>
@@ -12775,13 +12775,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>232</v>
       </c>
@@ -12799,14 +12799,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
         <v>226</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="113" t="s">
         <v>228</v>
       </c>
@@ -12844,7 +12844,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
         <v>229</v>
       </c>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
         <v>230</v>
       </c>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12889,7 +12889,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
         <v>81</v>
       </c>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
         <v>82</v>
       </c>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
         <v>83</v>
       </c>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
         <v>84</v>
       </c>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
         <v>85</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
         <v>86</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
         <v>87</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
         <v>88</v>
       </c>
@@ -13040,14 +13040,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5KIkECrSv+Ylt1gZ2iHQbKhkNJEe/+kSl74C0Yeufjdt7YCIqD9cjy8ay2uXWptVjE4LPBreOwa87pTQRglv+Q==" saltValue="XnAjTqB7d8zE1P8L2F/l1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9Cghwrx24Ss6Y36phyLyWihFKi8mYKCxqFDF82kqkQ3UvWhjogEsXmUPzFfE4GjDM3d9wwI0dfNJL0EqJ2WfJA==" saltValue="JT4fRtweSGe4h3eEcbp6EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13064,23 +13064,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>215</v>
       </c>
@@ -13114,7 +13114,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>90</v>
@@ -13146,7 +13146,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>236</v>
       </c>
@@ -13174,7 +13174,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>237</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>238</v>
       </c>
@@ -13230,7 +13230,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
@@ -13261,7 +13261,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>236</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>237</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>238</v>
       </c>
@@ -13345,7 +13345,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>93</v>
       </c>
@@ -13376,7 +13376,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>236</v>
       </c>
@@ -13404,7 +13404,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>237</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>94</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>236</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>237</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>92</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>236</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>237</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>238</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>98</v>
       </c>
@@ -13721,7 +13721,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>236</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>237</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>238</v>
       </c>
@@ -13805,12 +13805,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="121" t="s">
         <v>248</v>
       </c>
@@ -13844,7 +13844,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>90</v>
@@ -13876,7 +13876,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>236</v>
       </c>
@@ -13904,7 +13904,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>198</v>
       </c>
@@ -13932,7 +13932,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>197</v>
       </c>
@@ -13960,7 +13960,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>91</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>236</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>198</v>
       </c>
@@ -14047,7 +14047,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>197</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
@@ -14106,7 +14106,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>236</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>198</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>197</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>94</v>
       </c>
@@ -14221,7 +14221,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>236</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>198</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>197</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>92</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>236</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>198</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>197</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
@@ -14451,7 +14451,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>236</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>198</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>197</v>
       </c>
@@ -14535,16 +14535,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
         <v>124</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>104</v>
@@ -14598,7 +14598,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14714,16 +14714,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
         <v>131</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>81</v>
@@ -14789,7 +14789,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>133</v>
       </c>
@@ -14817,7 +14817,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>134</v>
       </c>
@@ -14845,7 +14845,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>135</v>
       </c>
@@ -14873,7 +14873,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>82</v>
       </c>
@@ -14904,7 +14904,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>133</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>134</v>
       </c>
@@ -14960,7 +14960,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>135</v>
       </c>
@@ -14988,7 +14988,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>83</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>133</v>
       </c>
@@ -15047,7 +15047,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>134</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>135</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>85</v>
       </c>
@@ -15134,7 +15134,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>133</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>134</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>135</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>90</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>133</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>134</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>135</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -15364,7 +15364,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>133</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>134</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>135</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>93</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>133</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>134</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>135</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>92</v>
       </c>
@@ -15594,7 +15594,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>133</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>134</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>135</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>95</v>
       </c>
@@ -15709,7 +15709,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>135</v>
       </c>
@@ -15793,12 +15793,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
         <v>90</v>
       </c>
@@ -15832,7 +15832,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15862,7 +15862,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>133</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>134</v>
       </c>
@@ -15918,7 +15918,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>135</v>
       </c>
@@ -15946,11 +15946,11 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gmzCBupwr8/bghDOvVuThoIQrUebWag3w8ynVb0Vlj9mq5T8l8CQ2RAbChnUhJhw4GK38joE98InfRP0Rauz3A==" saltValue="YgVsYLLFKqr6ateMP2iNJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uHM6p9W9Vr1Vr2Jh2tb9qS8n7i/MclA1snJgASQ0ubOx6ufj+NXpoiBHpz/cDWaMesZvhMxXU9lUn2AfXulNEw==" saltValue="8DkTf4aDcuoobJxmgU6UUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15967,24 +15967,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="113" t="s">
         <v>249</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16046,12 +16046,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="117" t="s">
         <v>184</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>177</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="117" t="s">
         <v>192</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16119,12 +16119,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>176</v>
@@ -16145,16 +16145,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>248</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>256</v>
@@ -16198,7 +16198,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125" t="s">
         <v>124</v>
       </c>
@@ -16221,13 +16221,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="113" t="s">
         <v>165</v>
       </c>
@@ -16259,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OxRGtlplC9UqY8+N8JfFfPWGjPQVJ4w9YQMri9XDYCSYfePKiXX7Tey9vMklTnJfYFj278TsHvh7nUN+ehSCsQ==" saltValue="CBwZp4SiVjll7Hr6bn1jhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bYZNQSwOLUstGcmPQuR7bss00F4V4+r28/EGRE+ZuOo2e1E7bOfi9BNXg3M11PML2zD2lnflDgHFhJmeXU1MPQ==" saltValue="sB/6TgsQZy8CeWK5Ce+7bw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16277,16 +16277,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>153</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>161</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16342,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
         <v>173</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16380,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>174</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16418,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>2</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16456,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>178</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>182</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16532,14 +16532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pD5JkYNTwQwH6k0hdE35Viw6/301vQ7pr4WtiM8Qtz9vyWUKTpG9mMkkEe1/f6Wb4P26Lou35fKq+suIqJXy+g==" saltValue="nRby4GRVzWPnzMRo87nePw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tvlcltu99rm1tXzmiPaz2XuWMdp8SZXSuyLu2m2L3rcIElNd/h/P0V8O2vkntZkRWOYfEEEBqqdJnG029ocyBw==" saltValue="qMCPVn+y2XdtfFjX/AYRxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16556,15 +16556,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16607,12 +16607,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>164</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>169</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>170</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>171</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>172</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
         <v>173</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
         <v>174</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="90" t="s">
         <v>177</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>178</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>181</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
@@ -17140,13 +17140,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="90" t="s">
         <v>166</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
         <v>167</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
         <v>168</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>175</v>
       </c>
@@ -17322,20 +17322,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IZ993n2f6NDWkZgotoV9ljucMI7j+Ym5BHiYDDi1LoV/cgQaILBeIcDiGFwgRraYLJZK0zow1NN9iMTXC8sjFg==" saltValue="uVgyRFg4b1+CT0IuZC5opg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C1Ta8NzkULo2Yu0K13wmeNNKWqa9jHep+xdT4lw/qPPyKYTaVgRHG6mRJwiijt+M6gUNHgJbDCyDkh8n+7TKIg==" saltValue="5bFu5oDkEPjDTaBzpu3aAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17352,15 +17352,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17379,12 +17379,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>154</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17415,7 +17415,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
         <v>158</v>
       </c>
@@ -17436,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zBlr5SGXNIauyfCcn0hTbQXySm3tZ30gvUZt12/FTQ5a0MWkuCTwJ6oaIVLQPIABcEUq2GzIH5zx5kZravsLPA==" saltValue="OhlvtvFqS5rSUyqa54WODg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G/FMbUJp4+yA41U1LD4PE9fy343ytObCZ2K2lnRyzQepG8dhUXcldgaBi2urTA8cCRXO4bkt6zCGh5EHdF1hmg==" saltValue="blIFl1HAMvp7jB03a1h9SA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17453,20 +17453,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>266</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>267</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>184</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>267</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>198</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>267</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>177</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>267</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>198</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>267</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>163</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>267</v>
       </c>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>198</v>
       </c>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>267</v>
       </c>
@@ -17828,7 +17828,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>168</v>
       </c>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>266</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>266</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>167</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>266</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>266</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>267</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>190</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>266</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>267</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>188</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>266</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>267</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>187</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>266</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>267</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>186</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>266</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>267</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>266</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>267</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>91</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>266</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>183</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>266</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>191</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>266</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>176</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>266</v>
       </c>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aQUfJQk+d+il8u/oFrBZTYyr7D3Yq44RQcrr0fVKba5Y9lAvOIJ2zV2B9CQoEYv65ymJxzpilQFwZFh0TsKF8g==" saltValue="oUtM7S7YLV94+p29VxO+Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D4GIgMrRr//AuJLb01p5iT3E/TubnIJLy60VrdeWGNkEL6wzkHGFz+Ga57oRmbHanI0T5wkv4yIrEP5t9GVqLQ==" saltValue="YpkaX7VHWuw6oHKS34FdLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18583,16 +18583,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
         <v>153</v>
       </c>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>162</v>
       </c>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>266</v>
       </c>
@@ -18656,7 +18656,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>180</v>
       </c>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>266</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>179</v>
       </c>
@@ -18723,7 +18723,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>266</v>
@@ -18743,7 +18743,7 @@
       <c r="H7" s="128"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="21egeUqXeUtkWacuvbx7RzhPSguLOsvGdq6ASdQCb+OJfQ4tAKEtPaEeaMtVsUwn3WpFD+UMNnS/9PuNTIafpw==" saltValue="7QD3uCho9mTwBlaHtmSX8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+e4jEoqAsS3+PHGsuh8hE1GzSQ3nvzJ0qLaTRp7/gsgMdfuFmCtIgvWmSOIbqLFtVW02tkXnDlR/IPaBP0SyXg==" saltValue="tCMkzk6XxPQu95NWsvHSng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18759,14 +18759,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18777,7 +18777,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>84</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>85</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>87</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18876,7 +18876,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>93</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>94</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>95</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>96</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>97</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>98</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -19073,7 +19073,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19082,7 +19082,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -19098,7 +19098,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>105</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>109</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LJphaNQQnSf/OfhuNg8GpKyrmoUkjVY7rXaDkIf5bkXRgp/O4UxHbS5XhRivTpncBlM3laW9p3Eni+4Wp1sYrg==" saltValue="p2U9av6AW0uVJnym58jnrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8bzxRMy5s5P/3SYZl/2HbZ4sjgN7GFiOj6lK4BCjpxp+VmElkcQHdOC9G6k3gC/7ROB4kNmmRxRaHyfG5C14yg==" saltValue="Iudz1Ovg6IbTVuMf0233Pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19198,13 +19198,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19228,7 +19228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>0.23269074767298425</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>116</v>
@@ -19282,7 +19282,7 @@
         <v>0.37372365733745416</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -19303,7 +19303,7 @@
         <v>0.25929610299234518</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>118</v>
@@ -19324,7 +19324,7 @@
         <v>0.13428949199721643</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19332,7 +19332,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19340,7 +19340,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19447,7 +19447,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>129</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>130</v>
       </c>
@@ -19592,14 +19592,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19607,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xPFWeh/nnyB4fWpCMqxAx+wQhhrLOY4QMOe6RpLr4c4xjoGcsfZP7TLM7Pf3Gck/DNTP9zZKnr2bAWRxVzD/sw==" saltValue="MBBD/jrjVIBqL+qqxDEbYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aGU4wrTQUT2w/T5zd9d9Z0H2vZuJYqyPeW+aIYpRFDaLP3oh+wsxT+u+txhTeTN08wGl4bWSY4CIENep0Nq4eg==" saltValue="gvf3bubj1wgpTZYr5qFpTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19625,13 +19625,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19655,7 +19655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>135</v>
       </c>
@@ -19744,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nr4AHdtCis75kRTm7iUvjQ2mJ0H5CeDdut0nkWp/9StjRcbE/g/V8+Dtab9a00hkNR8FNrX5u6CuYSgtDFdeOw==" saltValue="gbdFPgdDLgWdIvizABvupA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SB29DEZVVmo6Rp8/bGanh85zEEo6LNOKmDkx4q5EmMjzi51Ig7MIlqOCIxVS1RljUXqsKNzXvsOateRWsNr18w==" saltValue="tC5S4QQpy/C6Sdp55oE7TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19761,13 +19761,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -19819,10 +19819,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -19839,10 +19839,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -19859,7 +19859,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -19873,7 +19873,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -19904,7 +19904,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
@@ -19918,7 +19918,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
@@ -19935,7 +19935,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>145</v>
       </c>
@@ -19950,7 +19950,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hlsfsKNQ7u1/nvABlillP/U/gsL64Y1gTOZn7Yp0Nx+O/Bql31HH/EbgliEV4QaZFMaa4QcG+PUjjOirAs3W/w==" saltValue="GBi8nlI+Kr3r72OylmOsHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1m/PZAztHTJuTz0iQQDsQRdeopjkssYUcKJC80HO/gCfEP3xej1cWN2cDynZNThnvcpX9vBDxdNi1buW/8Bp0w==" saltValue="1eNV+TnT87XetbWHP1l7Qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19967,15 +19967,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>112</v>
@@ -20020,7 +20020,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>99</v>
@@ -20034,7 +20034,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>100</v>
@@ -20048,7 +20048,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>101</v>
@@ -20062,7 +20062,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>152</v>
@@ -20071,7 +20071,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>112</v>
@@ -20099,7 +20099,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>99</v>
@@ -20111,7 +20111,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>100</v>
@@ -20123,7 +20123,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>101</v>
@@ -20135,7 +20135,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>152</v>
@@ -20146,7 +20146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>112</v>
@@ -20176,7 +20176,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>99</v>
@@ -20190,7 +20190,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>100</v>
@@ -20204,7 +20204,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>101</v>
@@ -20218,7 +20218,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>152</v>
@@ -20228,7 +20228,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g3nA+AbxwF2wPICRNPMxiFbUkVD33wi4bVoLiZep0KepZuGUoWjelxIImVkZarTt5enLckbKdK61A5/HrvWceA==" saltValue="O0oeAPYInRgYO735KnMl2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="coUYpFkYyRHvmD193UwpBwg4lFxx759OtqbVnokhViGum168gqLmBAfKEvkkmbSvNCCqRcZW6t8ZOpO0ASaO2w==" saltValue="RxZnfKtYTs15gP4fkizG9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20245,15 +20245,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>153</v>
       </c>
@@ -20279,7 +20279,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>157</v>
       </c>
@@ -20292,7 +20292,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pe79iN7eI+UtewZ2njGUDRrlHl0ppJhh7+L3DopoWjU3etwtJPAPYVDAZxn5U9k1AvFQAIBx6SpuUoyCSEAggg==" saltValue="4YiDdGWqejNMwTK6OVowKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y4OQVQB4HeVbCMwEICg/w++a7Ub6QjhUmf3f7m2Owr3YJIj4Zgz5bcWiTOqt9muN+OjVLfsPyv0+ApBH9mk7xA==" saltValue="Sc9N8BI9xMpIIUWYwqMmdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20308,17 +20308,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>153</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -20523,7 +20523,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>174</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -20727,7 +20727,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -20863,7 +20863,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -20932,7 +20932,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -20966,11 +20966,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MPRxNYcWdQKrbjBYR2qtKmmh7zprQFU7YaaqlXgcwpRlDcHx7HJJJX4MwYoFgIzsTzOBO6+MJBeGfMOuTmR2+w==" saltValue="TS3L1Y2O/nkixBK62a+2ow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hRziXV0utgpljdn6dPf8eUllCz76X47Wdrv1FRkPg+HbYkyCbMPRqbmmZwLF51keuydwKxQbLKStV+Um0qM3jw==" saltValue="S9dDLy+hnrCCSWvEQq4C8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD819AC-9B0A-4816-9E50-A3458B77D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8470A7-1D6F-4DCA-8644-DBC41B967FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>High (HAZ-score &lt; -3)</t>
-  </si>
-  <si>
     <t>Données de l'année de référence</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
     <t>Amaigrissement (poids-pour-taille)</t>
@@ -5123,18 +5123,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5142,7 +5142,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5151,7 +5151,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5164,12 +5164,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5279,12 +5279,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5320,14 +5320,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5369,19 +5369,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5484,13 +5484,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5531,12 +5531,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5570,7 +5570,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w3z5FT0K7Mzko+VUL8zTNp8B/38jDb4WvB7OMdPguWtBrs3mAJx4wwhBG2EkrxkW5FnQYrfX9Z83+ahSAPf5UA==" saltValue="ksj1sXswrtlUrV4Jnm0DKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y3NayRLTvbN6DmqysrmR7rfrIxPyDcFJbzA4esCvJNTcAogm8hhRtk5asw/rkP1i8e2rhggfxlnWTVoEjCiTqQ==" saltValue="IUSJiq2Xt6es2BMTJE/X0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6478,7 +6478,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HjtagqBfCLRW/2Sww/HpXrG7+ESH4wm6lsshUhXEhCd4O3y2Gz4SPELeiN8hnFL417RSTjqSgtj1uTt6ktI6Bw==" saltValue="5HIwvD9L+mDA9NRb6yeSEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mGgcglML1zuLwVYpUwT28Lz8bhIJS0+9ShNogcytXGfvE9J8dm+YuCY5YaouU1aPZ7MzAcnz551A88P1FPpjrw==" saltValue="jxtbkAIa91Vm0USvB57tBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -6642,7 +6642,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s+wgi75O2KxxymQt0PRBqvHHa+rJbesfvI9IcBQnXBwHAirdZKBfA272FkHP9a3O/tWXFbcU+qr6AgsesmwHTA==" saltValue="Z188aUTFZKeDRiDgbtb4Ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WkVXy1iSuNCiCJSReqH32wm6BzAtsRvHb+Avp6MtQdNcF6xAQta1nSdPFp5dbGVavl4pDufaU3BqFdOo6GBDKg==" saltValue="Qb/7blXhc5yFCEfDg3qPug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6742,7 +6742,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d6mNAsXW9cg6FlUVNrOVYSk3QrhLHsMiYC/JsJWIAEUWF7SmR5MEcjvU4M04CzL/YMHRLrg0zQp9jVjwsigJ0w==" saltValue="6CZCxhjA1npA6z0ZJCXCyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Drn1/uVUtWO28xfpRNyaoPXA9ASQK4CCEsbImqBrQFyPNTQDJQIi2aKTbdRonhxgDVrlefvaUnksxWhsHYiJA==" saltValue="g0EkUk5ud5HcVVqXT5d4Ew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6766,24 +6766,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6857,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mmKvmhAlLb6P3x6I+AXFecEo94ZnHR5HnpXrOaJRggH63lFC8O06QyBcdAcaeYGRJnXvUmket8Mo+eansf6zYQ==" saltValue="IbVeWm7m4j68jBQ1dQ9E8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fEvQLGhs+x688DwkrkNGwrzfpiwv0zxN67Bu2Y9DvBXjHgwVyWf9ymCRd60/AcP1lHJ8t0rBuEBTeabJPPQEew==" saltValue="w9vjcAks132GXFXzPOkAyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6894,19 +6894,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>125</v>
@@ -6921,21 +6921,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>170</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>168</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>172</v>
@@ -8573,7 +8573,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JhB7R3v/o7Kp/8DKbtMKgSE5JPjkkLRKm0cXPi/M9F15S/tZ6nymKMFVkc1laixxWgW6XGP0i9NnGVt/x+EE9Q==" saltValue="1r2+5Rn3qFCzCHg0xubG7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FUr/Oanl0Q1Cwoyg2FbRYk0R4KHYjhD5/zwlfB6jIxdRbaQjd0pnjiMIHhKcnOrH5ZK2wS9zmZ0gnZRUlLB/iQ==" saltValue="gA9tbFJZMOUfWB+Hq8C+Pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uq9Zzfn04fM4SXcyKOGdxqWO1OSZviLZrCKJgvhCTr6DkyOFSioi8pJ0PMVJSrYUwdowG5DebFZrbKnPY8ztQA==" saltValue="kGWucxbQdLkMBW5/NClA0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f0YCX1Bjd0cNVL1kWgL0ztKrnEXg3+GcnkLCOKgZ8vC4s2+H+XilZQpAr6HVi0xnq7OocEMN5EL0bWLWukTzJQ==" saltValue="GakgTj3lDhLvPeflVsn8gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8819,7 +8819,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k+YFhlwIw4v3DzM+nNcdjvdZ7cF1N5pjVDqmteC6s0UlSsnlfcRXQgQw6c1cUDQ24IOFlivC06jxJPP+kUta0w==" saltValue="qxU/KtYbkzqFEG/NQSXDMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="31qNzXkcVjMHSPF4/puc81reOqvMgmVxaWrzyAwmf3r7h2QiSJWk9TlMVORFOA3l+g7bpbgM6QzK4Spgya5H7g==" saltValue="Ct9ccwJqS3NsQHqogP2ezA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8858,19 +8858,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>125</v>
@@ -8885,21 +8885,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>170</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>168</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>172</v>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EDStxnPyXHrvptq2auUrqdsi655Sj6vwfO6gEsW+MexTwpiaChvObapsAL3phbrFdLulx+HEJA+aFpnoTNGr/Q==" saltValue="mhOJQYyMbh9BUSuSQUqkVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WsqKXt0YPmfdNxOKkrrnKlf0sgfTOc+wcZnmCfXJv9ABKBQzgWoem/uVfUPICJHC5Y+zsvgziCJ/hdNKvH4BHg==" saltValue="qKM89DU0rXO0/nFBnJp7Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10641,19 +10641,19 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RwOeloNAM1PNyapsHWbqMUEC7O8QOEImINreHTGO9l4KvC+h5BSkPeMUt0LM5CH+si77G2DRe9+CP4s4yk40vQ==" saltValue="T3GpWU5mJa+4+MC1hUKgcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PU8vxKJfNdFl5fGjKxaCGXaT6rmY75nZ7RaQL+1yWSJGL8AMF02DWB/a4VLd8UCBp+Yi33Gm6wdUbr+6zHAfjg==" saltValue="mdt3WogfKBe0fxAWkKTiyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11387,24 +11387,24 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>9</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -11673,7 +11673,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -11692,7 +11692,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -11710,7 +11710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nfir+XdTWVqYKiZF61dTUhjs1bB6/y95H6xMHN9dva8JfEQK8qofY8QzorYOEczoMTeJvN5Z285wiG46cLAWDw==" saltValue="bG6q8RSG1wpXwwxyAbhNcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vEf/Ct1xnG9PfMzyjvmrdWFbES5WhWJRFTpH8moMJ7OJVkm+45y2ZoA92E/jqCsIJZDnIFK4+mYjMtMQuE+G3A==" saltValue="TQUAK/JRRs/rTCt0gxaM/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11735,31 +11735,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9HlrWuFUqo03xSOdGVzc9aY8M0iu4dGQjQYIFQ08BhHUf1VEAVDoI6OD6iJDwINmjcV9QZQlWJNYhT3BsWynxA==" saltValue="er0LBW1viL3eNQrVRr93jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RqeV12/He5zQfESmEx1Mgle+moDhmKz8l1eILVAAE/Y+NNn042fo/FRCNvh+ooVGTUBAeSHnEtS3SQI/X2C+2A==" saltValue="PalwK+q67F0hd/L/7Rs4+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12840,19 +12840,19 @@
         <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>156</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>156</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>156</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>156</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>156</v>
@@ -13221,7 +13221,7 @@
         <v>231</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>156</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>156</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>156</v>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>156</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>156</v>
@@ -13579,7 +13579,7 @@
         <v>232</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>156</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>156</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>156</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>156</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>156</v>
@@ -13948,19 +13948,19 @@
         <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="H54" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -13968,7 +13968,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>156</v>
@@ -14048,7 +14048,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>156</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>156</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>156</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>156</v>
@@ -14406,7 +14406,7 @@
         <v>235</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>156</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>156</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>156</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>156</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>156</v>
@@ -14844,7 +14844,7 @@
         <v>236</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>156</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>156</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>156</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>156</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>156</v>
@@ -15293,19 +15293,19 @@
         <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="G107" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="H107" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H107" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15313,7 +15313,7 @@
         <v>238</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>156</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>156</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>156</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>156</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>156</v>
@@ -15751,7 +15751,7 @@
         <v>239</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>156</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>156</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>156</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>156</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>156</v>
@@ -16189,7 +16189,7 @@
         <v>240</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>156</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>156</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>156</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>156</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>156</v>
@@ -16616,7 +16616,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7fGAihybZilsEUPISnG5+qpzNcvrVP0PnQS7NPZfZRIsJgooPbM3oEFuXN3s8tZ5fBcmWdXNrJJ77m14jG6J3g==" saltValue="OFA/YLNZpo3GqJi3Bx+iIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cZttXC4B3spA0T7r+tuJSNQXjNoxEKXd1xPWtV5hESqRIXsxk0RmpYQw0hJncPiYnH0hrSi4WFoYhz5Q2EI20w==" saltValue="sIlK62Tq538qu9C5P2nY/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16701,16 +16701,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17077,16 +17077,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17438,7 +17438,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17496,16 +17496,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -17898,7 +17898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SqHApUzaCMCdbJmCUoBrREOmUIqSX+0Ogz0ai5/06fbCUugjvHQ0ijIPhDyjd9jwX01PGOm3juVyOBVqHVGBkw==" saltValue="xMVR/ziA6o5PwsYU76Ge/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bHB/IuNWyIdoFJ/63Kp5/oP5W+QJDRrAy0g7BFg+Yj0fMt/GGsafSlM7YmcBrz+XVLtcU8lzNLQHhTzS72jmOw==" saltValue="3TYSwCwLY94j4QE4vKcvPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -17945,19 +17945,19 @@
         <v>264</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -17971,7 +17971,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>13</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>13</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>13</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>13</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>13</v>
@@ -18546,7 +18546,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>13</v>
@@ -18675,19 +18675,19 @@
         <v>268</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18701,7 +18701,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>13</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>13</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>13</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>13</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>13</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>13</v>
@@ -19429,7 +19429,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>271</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>271</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>271</v>
@@ -19588,19 +19588,19 @@
         <v>274</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19614,7 +19614,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>132</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>132</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>132</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>132</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>132</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>132</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>132</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>132</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>132</v>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="126" t="s">
         <v>135</v>
@@ -20663,19 +20663,19 @@
         <v>274</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20829,25 +20829,25 @@
         <v>264</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F112" s="103" t="s">
+      <c r="G112" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="H112" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H112" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>13</v>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>13</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>13</v>
@@ -21156,7 +21156,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>13</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>13</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>13</v>
@@ -21486,25 +21486,25 @@
         <v>268</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F139" s="103" t="s">
+      <c r="G139" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="103" t="s">
+      <c r="H139" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H139" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>13</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>13</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>13</v>
@@ -21813,7 +21813,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>13</v>
@@ -21916,7 +21916,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>13</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>13</v>
@@ -22163,7 +22163,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>271</v>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>271</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>271</v>
@@ -22329,25 +22329,25 @@
         <v>274</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E175" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F175" s="103" t="s">
+      <c r="G175" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G175" s="103" t="s">
+      <c r="H175" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H175" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>132</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C180" s="43" t="s">
         <v>132</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="43" t="s">
         <v>132</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C188" s="43" t="s">
         <v>132</v>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C192" s="43" t="s">
         <v>132</v>
@@ -22842,7 +22842,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C196" s="43" t="s">
         <v>132</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="43" t="s">
         <v>132</v>
@@ -23040,7 +23040,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="43" t="s">
         <v>132</v>
@@ -23139,7 +23139,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C208" s="43" t="s">
         <v>132</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B214" s="126" t="s">
         <v>135</v>
@@ -23259,19 +23259,19 @@
         <v>274</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E214" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F214" s="103" t="s">
+      <c r="G214" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G214" s="103" t="s">
+      <c r="H214" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H214" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -23402,26 +23402,26 @@
         <v>264</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E222" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F222" s="103" t="s">
+      <c r="G222" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G222" s="103" t="s">
+      <c r="H222" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H222" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C223" s="43" t="s">
         <v>13</v>
@@ -23528,7 +23528,7 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C227" s="43" t="s">
         <v>13</v>
@@ -23635,7 +23635,7 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C231" s="43" t="s">
         <v>13</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C235" s="43" t="s">
         <v>13</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="43" t="s">
         <v>13</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C243" s="43" t="s">
         <v>13</v>
@@ -24085,26 +24085,26 @@
         <v>268</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E249" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F249" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F249" s="103" t="s">
+      <c r="G249" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G249" s="103" t="s">
+      <c r="H249" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H249" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" s="43" t="s">
         <v>13</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C254" s="43" t="s">
         <v>13</v>
@@ -24318,7 +24318,7 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C258" s="43" t="s">
         <v>13</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C262" s="43" t="s">
         <v>13</v>
@@ -24532,7 +24532,7 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C266" s="43" t="s">
         <v>13</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C270" s="43" t="s">
         <v>13</v>
@@ -24789,7 +24789,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>271</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>271</v>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>271</v>
@@ -24956,26 +24956,26 @@
         <v>274</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E285" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F285" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F285" s="103" t="s">
+      <c r="G285" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G285" s="103" t="s">
+      <c r="H285" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H285" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C286" s="43" t="s">
         <v>132</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C290" s="43" t="s">
         <v>132</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="43" t="s">
         <v>132</v>
@@ -25284,7 +25284,7 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C298" s="43" t="s">
         <v>132</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C302" s="43" t="s">
         <v>132</v>
@@ -25490,7 +25490,7 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C306" s="43" t="s">
         <v>132</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C310" s="43" t="s">
         <v>132</v>
@@ -25696,7 +25696,7 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C314" s="43" t="s">
         <v>132</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C318" s="43" t="s">
         <v>132</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B324" s="126" t="s">
         <v>135</v>
@@ -25924,19 +25924,19 @@
         <v>274</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E324" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F324" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F324" s="103" t="s">
+      <c r="G324" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G324" s="103" t="s">
+      <c r="H324" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H324" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26043,7 +26043,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0yCE+Ru6CG3P9sASsPK1p7EHVgKvr+iGkpqnLog+rlSRlnWxp4a5yksjhCiF49YcQ3ezXmYw/UAa6rb8ki6h6w==" saltValue="YrAggaG9Kp97oKdSxA++mA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8B3WLfGTme4mBm38UbBWGmDOAocL3iWJ4iTSyJH8/LHoQfYXXhKoz4PEUz5z+E6Esb65T4KTPNH695EwNiDOVw==" saltValue="jKyLOKJqgonLx1i/lpctxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26086,19 +26086,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26325,16 +26325,16 @@
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -26376,19 +26376,19 @@
       </c>
       <c r="B24" s="119"/>
       <c r="C24" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="F24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -26675,16 +26675,16 @@
       <c r="A41" s="104"/>
       <c r="B41" s="104"/>
       <c r="C41" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="E41" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="F41" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G41" s="104"/>
     </row>
@@ -26731,19 +26731,19 @@
       </c>
       <c r="B46" s="119"/>
       <c r="C46" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="F46" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -27030,16 +27030,16 @@
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="E63" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G63" s="104"/>
     </row>
@@ -27065,7 +27065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S9O/jSZsAeTZvFEzHBhLTBGyoQi1cwwIsb68B+Ho0ukizPTEgeaZ03rT3njSmmjLEflpy5zdrFNRKw+COSTOUg==" saltValue="RWiWRFAmqeFjtdh68dz0UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Iy4kNXx9itUbiXXXVQQFvL4qz8rbpXYdd+OjqWU7F7RdsFaAsMUV58+/Q+s9eH5DUgyRrs5CHvW5Ya5th3UNg==" saltValue="VRAOea9W6W7/QVPWnW7d0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27101,16 +27101,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27352,16 +27352,16 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="F16" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27651,16 +27651,16 @@
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="F31" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27940,7 +27940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XvJMUC4xgqW0T2xhx2wG8XNsYGlnWDgXOsYqzEKZEk0PP0/qhRyhqSKsMphosqNUkm7W/uSArLX+Feyr1gF2RQ==" saltValue="OKnLW/TJSZt08SxYPlnExg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="En24OfTpKFfSXt8rKaI9PNuKxQfdWhzg+Yt+A63mvVNpeMC1N0worHfaGpscM9MfqMiZE771mA38sbSafCsIMQ==" saltValue="KN0AZgmFFEkrlAE768AWNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27972,31 +27972,31 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L1" s="103" t="s">
         <v>125</v>
@@ -28735,31 +28735,31 @@
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="F23" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="G23" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="J23" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="K23" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L23" s="103" t="s">
         <v>125</v>
@@ -29706,31 +29706,31 @@
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="F45" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="G45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H45" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="J45" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="K45" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K45" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L45" s="103" t="s">
         <v>125</v>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="968EZtrRdl8sovt3nLm1pEJFPP1YoB49/0pfr42QDCQJ099Fw+lzjzEL2kAfVKYFZwxQTfWPd6X2yP4Jsx732g==" saltValue="9FnKt0heRRtBsKvuFkCJrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zestRuHzmoagl2c6LHjw72pOkzKHSJU3Y1wGjqg2R0woq8cfCdhwtdatVk4bzLWIQmVobzBrFVaaakMOPluUaw==" saltValue="iv7x37x172d1P6xyfVYqww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30701,19 +30701,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -30781,19 +30781,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -30871,19 +30871,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -30953,7 +30953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MwXM9lay7jOv2L5Fdfz9p27nAR/+viQ7tIbRhNg3UdxuhdNko6ablYIPARqtFV957mcoKGsTyxVnWu4z3RWyjw==" saltValue="9NxF4p6QO1Pcf/SKO1JaJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6ESfwOPQCXE+2jf1MlIeUJAAiyluFCXHDnvdKupEYFHeLIQtUzEXLM2lwZE0R+tEco5thCTZJZJ91+vqIpstpA==" saltValue="OPy56jqj0chMik89OvVgjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -30997,19 +30997,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31017,7 +31017,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>330</v>
@@ -31353,7 +31353,7 @@
         <v>175</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>330</v>
@@ -31401,7 +31401,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>330</v>
@@ -31447,7 +31447,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>330</v>
@@ -31493,7 +31493,7 @@
         <v>196</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>330</v>
@@ -31559,7 +31559,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>330</v>
@@ -31625,7 +31625,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>330</v>
@@ -31691,7 +31691,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>330</v>
@@ -31757,7 +31757,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>330</v>
@@ -31823,7 +31823,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>330</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>330</v>
@@ -31952,7 +31952,7 @@
         <v>190</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>330</v>
@@ -31998,7 +31998,7 @@
         <v>198</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>330</v>
@@ -32044,7 +32044,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>330</v>
@@ -32103,19 +32103,19 @@
         <v>15</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="H52" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -32123,7 +32123,7 @@
         <v>192</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>330</v>
@@ -32531,7 +32531,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>330</v>
@@ -32587,7 +32587,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>330</v>
@@ -32643,7 +32643,7 @@
         <v>174</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>330</v>
@@ -32699,7 +32699,7 @@
         <v>196</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>330</v>
@@ -32780,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>330</v>
@@ -32861,7 +32861,7 @@
         <v>195</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>330</v>
@@ -32942,7 +32942,7 @@
         <v>194</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>330</v>
@@ -33023,7 +33023,7 @@
         <v>193</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>330</v>
@@ -33104,7 +33104,7 @@
         <v>199</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>330</v>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>330</v>
@@ -33263,7 +33263,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>330</v>
@@ -33319,7 +33319,7 @@
         <v>198</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>330</v>
@@ -33375,7 +33375,7 @@
         <v>183</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="52" t="s">
         <v>330</v>
@@ -33444,19 +33444,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="G103" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="H103" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -33464,7 +33464,7 @@
         <v>192</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>330</v>
@@ -33872,7 +33872,7 @@
         <v>175</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>330</v>
@@ -33928,7 +33928,7 @@
         <v>173</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>330</v>
@@ -33984,7 +33984,7 @@
         <v>174</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>330</v>
@@ -34040,7 +34040,7 @@
         <v>196</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>330</v>
@@ -34121,7 +34121,7 @@
         <v>197</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="52" t="s">
         <v>330</v>
@@ -34202,7 +34202,7 @@
         <v>195</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>330</v>
@@ -34283,7 +34283,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="52" t="s">
         <v>330</v>
@@ -34364,7 +34364,7 @@
         <v>193</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>330</v>
@@ -34445,7 +34445,7 @@
         <v>199</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>330</v>
@@ -34523,7 +34523,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>330</v>
@@ -34604,7 +34604,7 @@
         <v>190</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>330</v>
@@ -34660,7 +34660,7 @@
         <v>198</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148" s="52" t="s">
         <v>330</v>
@@ -34716,7 +34716,7 @@
         <v>183</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150" s="52" t="s">
         <v>330</v>
@@ -34768,7 +34768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZlQwpK0fL/sWNtQye3+RZSl76iPz780dyF2ZkSm1Dee2qws26UeuIBwajJ7ohbegdmsuPFd23gTNxBFBydtLGg==" saltValue="DB53FraBHGNZ7NQrqf9h3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5+ElS2amSFjWlks2f+db2RZExx4hmTXCUMjGfKZ3mN2akMYi3tDh7Bp0OxaNYX2fY64LOgqE9GFIq1nFU/djrw==" saltValue="G3WqaMQxdXrDvZyZLbYRng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -34824,7 +34824,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>330</v>
@@ -34866,7 +34866,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>330</v>
@@ -34909,7 +34909,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>330</v>
@@ -34978,7 +34978,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>330</v>
@@ -35026,7 +35026,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>330</v>
@@ -35075,7 +35075,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>330</v>
@@ -35150,7 +35150,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>330</v>
@@ -35198,7 +35198,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>330</v>
@@ -35247,7 +35247,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>330</v>
@@ -35292,7 +35292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CRJZ2hCM815NkPXL+74PrmKlCJeABTArCLFFoCUCmfR7jrQwT5HzDW47vbq8CsLgtpqf8F8BVMtzVTMxuveaHw==" saltValue="3LvrrNYD6eyp6C64cEk9FQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AbKRLfg8Rq/kpgc9HvaHR7KRwbv2bUt5lJAL2zlAeiijPPtvTdOCKTXdlQ1qI1yhvqBKxshBVAk8l6kD7HOnwg==" saltValue="1gVXN62zjRWjF6WOjYn1+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35331,13 +35331,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -35346,7 +35346,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -35370,7 +35370,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -35378,7 +35378,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -35402,7 +35402,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35430,28 +35430,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -35468,7 +35468,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -35485,7 +35485,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -35502,7 +35502,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -35519,7 +35519,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -35587,7 +35587,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -35604,7 +35604,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35636,13 +35636,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -35660,7 +35660,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -35676,7 +35676,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -35692,7 +35692,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -35716,7 +35716,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -35724,7 +35724,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35732,7 +35732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OUGUJWQ/UWku31pZz/6fNfRbYXnWtLDJgYI3+hseMuIKcGIQ3Gy1CP/tHO2tltAqGD5E+Gj8qqaS+wGyelGGZg==" saltValue="7LlLG6A7OdGnaFifaeLXqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yTzvo71KVhKHuWAaLZDXZ5JafS1zZZyAYzq1ttBUtRfdC7wPUBb5zf7clqqJN8Z00/i14fQUgYnfDXMNh+L9nw==" saltValue="Y8KdhDmDDzWQb4vJ3oVo6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35762,30 +35762,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35811,7 +35811,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -35837,7 +35837,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -35858,7 +35858,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36004,19 +36004,19 @@
         <v>124</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>125</v>
@@ -36031,16 +36031,16 @@
         <v>128</v>
       </c>
       <c r="L13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ScF8rVALfyyEJ1sf4RAv/kznQJZgTsuvEyCcRYlGS/dQkV8z5xrzONB8c5sCMPBvUfDxfupzdgprMzy4kqM2Dw==" saltValue="jH1qNrsYA/H/xmLPZvapCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/TnRBAhwHlvFVwTGBcSB7LzAR4lamFy5uXInrA5M3w3jzCsyEi+G+gBYJK8mOIjj34gyJ32XGt4Ivss01h6ZZA==" saltValue="wmIhX30YqnY45JDJNyoM3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36189,22 +36189,22 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -36296,7 +36296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+e9NddrnwrYce8ps1xBIQIY10rMbCw/XP86bZiCvRFbqxfbXaAMpXF04ODB+/FCQ22ACRQI3TCwo3wO8zBjLKQ==" saltValue="mkOLo4hgSkMpWm89ltYfYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZsWrPkONwNzDGU4uCnDx9pKR02d4P10adGgmA303YDdijmy9kGU0k9mcOz1733O4BpfHcPiRpUC5m4bXACCkDw==" saltValue="Uhxb83ESkDecCUleyXmFTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>144</v>
@@ -36502,7 +36502,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uedtTtHjkDSeu/nSPHmICWEkpqE90Ds0ueZ+pho8OVDlxi3WF3N1wQCixtpJqM4d2vhVAdPZeZhBQgBOlWLWoA==" saltValue="Amj23pHe1fh2aXwllGBv3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o7Y+NfOlkTZ050gi9X51/IE9E7nTRLMBhI6LjeWWu1zg07p24Z7ZKopG370JZT3kxrlDs/w6nu/MTb+G1+/f+w==" saltValue="5DSbbPUHn/db24OixFt9yg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36580,7 +36580,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6A01t3XLOALKGook75QI+p5OhB6Aq8cfenGHYK0tYYhbJMQLdk1T3ok3mk4LK5ZdTypOZWQkrAhYH4wta9Dn4A==" saltValue="X0VpsRD4I1f64f/UpqOagQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VIOJsY1pTCYHXrNIecmAq1MzV8Xro4C93RrgKhMP9U7HYktp5DTrNpvPolmP+E+FfkV0SP+NaWQSPg4KCZNV6Q==" saltValue="jJy1qiP6C0hzfdNPfJyXFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36626,7 +36626,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -36638,7 +36638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -36652,7 +36652,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -36666,7 +36666,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -36680,7 +36680,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -36705,7 +36705,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -36719,7 +36719,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -36731,7 +36731,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -36743,7 +36743,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -36755,7 +36755,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -36780,7 +36780,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -36794,7 +36794,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -36808,7 +36808,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -36822,7 +36822,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -36836,7 +36836,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -36857,7 +36857,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TmBFuE4Dm+xrsB5rZ6rGmShbKXqxgOX6x4EdE8gEAsVLJv4qzDln4v+UCqQFhs4i4Q3SKwikUPyexU6mBBKnQA==" saltValue="fUMtQ81bGJivAnIA+tL9cw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bZCXJAolLtv8PV6vHqhs2ljKmnKVNTMw2p3JTiJGMGvQxVgzaZDyfcpmQvxZOX4vVpHmw8c6w+8U2DFhPntWbw==" saltValue="s/ILeB/kytVqCpZWcV7zEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -36921,7 +36921,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cQUlo56rlD2gzE48/XygEPHPEfcOBy768AkYqlknUzSyivlczIYc0x5bhsLy4hi6wQE4unuq62EPZvEzbOxH2Q==" saltValue="MVB8PdYS1lDHUil1zzy/Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OP+WfEegCxFeZuck2SUzI87WvOTtd0vAtbT7jngONfpsnCu8lEQg0Xv4xE9JgHZBWP5cl9NeGPJjEN7D+yEaPg==" saltValue="iLjxakepDGU2Q59ak/2KSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B111CAE-1233-4E3D-B1DD-F266E7216F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{195FCC38-D1CE-4D85-94E9-48C57A32DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9lKe8tUdJcDIA+s1B//5K6YoMjYsXTUHCVL40HlnagToVFWBET6hs2MkjfCtwmuhlAN3crA1wEUCvDrmOx6Tjg==" saltValue="pFW3bA7JfRoMfF45pxwQlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f+9ZeQyH6ab17NvJezIrWTS+beslh+jW/s3+TYNe8wrnnKJbQ2qSKSidMBCiHbuKTVs6a6LVAHX9/rdo0YZR1g==" saltValue="Yd8PxJMt6+sayC9nF5v+zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pRl+v+1Z1aOb21E1Tms0hW+bwf7X0UscgfyA9jtMQhjIZYfXpBYX2hY5Fv0uFy8yAeMGN2zgVh/J1z07AA8mdA==" saltValue="bQR8JSnlYFe2QKlj8DjnpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PIfmJhna/hbcBQsVOK7jfA/K0T6Avt25IY+hvIuCIb7eolLIj7x1iuf2T4r69+LyTGAvcPp/6HuGd0PkWVIyOA==" saltValue="/gg3umd0UumHYRjckMuDxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VXclALBDBT7T+nqNJmGWI3kzIvTUzN1K2Gf4n+S/OQb0NgdEcVdiSUX0reRLXBUKOAQDzZpiTwD7V+h4WyMAVQ==" saltValue="XRj8xMg4+YOgpbnukNYDWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dX6zA3rA0qiL7s0gY5pKe9SsXBC3DxtWpq1PRRikWgh84PRYP4reKaqRMFqDESL9AfFP+almxF2S/uOq78NzxQ==" saltValue="qECiAlop0OI6eKtrz4VZlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GmxhCIuSEvIPj54rQw8PfyyTC6dnLim2OeEBPOS5a11heuwy75kQCLWkNERLaTsoSJOr9L5xevnZ1mUThFAoDw==" saltValue="fd6VQaFgH6MgjGx33sIcuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="46S91TDRAEWShbnzu4h/K44lEicy2dr8B6CQF2NTizQmTl4wG154k86uxp9u3bLJbbSQuGD1NVO/gbDvWZkeyA==" saltValue="ULhq/MPFS0dDPaL35RCgMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ynp0q1/YIqhTUQiJgp5tEMRLHTVn6F8erRO/uPdDxUkWqA3WI24tO18Ewomvi1D+m69vSZg0KJijz0xiyVOdYg==" saltValue="oGKUnYKdZAOOXNyyJ/ljkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pj3Sox37g9WFT1tuF0uc5v1vxPs7pT7K0LxG8YEZTN8eR+scHQ+K+82e293eLpqg2RJu+3jMPYfQjc3y24ZfbA==" saltValue="JUE2RdWh+Mfxf72pmdK72Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tHV6MmsfZ6bg01LD6X2x9z9hNHmtEvH3HCJxgiauKKwFPr0Z/nv8AfSxZ6/Hf1eIWjJxYguA5k4jM7C868T3lQ==" saltValue="bKUArkZNdNNX36Ufk3hNxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vRHLGZicPKL/B8PzgBjs+jfz+gmcz/OAXmNmRzYK23RObXWkVF5FRXrDSAqZIU9ApP4Rqt0CErn2WiqlgF9Flg==" saltValue="6NmSWiF/SCA9cc8nD7r+BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C0wCbH3+x2lFV4IQmOvh11v0ORGGukC9D6q6wh8NZEs524nWWgKh6I1PQzIMQJsaF2FHzCQ2YNOSw4lAKbse7A==" saltValue="M+QokqEK9a8G2DVOmTcNEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z+iik7ZAJHbk9ASiW5P5zovvVwuciFDYFRQShywidMxNjd02h1lmklea8bgwuQab5tLYL4CnlEyV20gvSkDKgA==" saltValue="jFcLmu50UOusyfc/orRwnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K04z0rH5ZIVjef8gn7+9/lm9nbu2AKwdp2nbr7Td2FJCORmjybJqtlN8hZmsocJ61MAT809ih/oRKjwOpvUetw==" saltValue="OjLCtLgvq5c8WhTpWeyI5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8rxENy76Pav579h9gyqB8nZ+U4yJRVCpHVUECrYtoIiy0+tFBRoWbAY7zrvotXHVdnxuApliWtES4YdeAUiD2A==" saltValue="pjxcETBONSJAI93V+fgwqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I64kj8xmJltL96nMMwjIhkbvVeJNz3WHIawiF2GPk6WG1sCGWRSBpd6LEWaluCsHIpiedlRvxIisq4SFHK827g==" saltValue="rSHvZd3wijemm9Eqhp8llw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HvuBxYakO7P0t2pDEQ/DLpIlyrU88f0+3Vf2WFqSjGIHqQLw9Y7dFqmUUShZt/AwzfDPDd+AuTVQG/XIXiFjug==" saltValue="bRY+AP7hL2H1KTp4p1vD1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="62qSvx8c3EZZLPVakRkdkXIAGoIr3ya9tCrye9nKAKSz1slJNt5Sy8K99bxN4+5ALA5zFl7zjF3LPiJan3Rl9Q==" saltValue="Q5PzzI1DXuu1YJ+HULMNvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="prnatPmKpysPr9IEqZnLqgoWyUB/b6Tv/KGjcGlN1gmq+a+iwdZ1+nmIn2yEx9BHi0YZgvay0GlBMykyWDKQXw==" saltValue="rcqdeiWQoaZqY63Cbx78Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jfUonX369cu7E6gROtq5cXUe/hIi9MUxnUhhnkrRf61w4/dVd1HKtdZvTupgH/Vm8SKpUnfNEf1/u8vJQgmtMg==" saltValue="dbALDsBkTODlBpXHxvhhLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fHZOtsZoVBCEME0Dhmia71RUi/2DGVpkf6k4DlUHYVldt7hF5Cj43bXYXurCjOatmNZZ3iMZ1l+wJlfpgJlJbA==" saltValue="DAZ+VzJS+cJO5wJEVWOV+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iPcpq2LtI8O1i9LX1V4YrXoIi3G5Ll9AW6wNDlQKE7VBSTdQkoSRSLVBo/0BM3ERNikbBhq8Zu+PVwGErpN6uw==" saltValue="QA0x7kbFbRLpkuXDzfaQlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n9U/lZ3ISmIAoq4WvdSJKYYoATaTrCqC+I/hY+bmLso8Z0qcmie/RGVVjQmjVHp4J/PnNZvmzwuHPaGpZIl+eA==" saltValue="eSmyiqGnoW3NHZQh75Q9tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="saFLCPStQRvr+GJ7sQPu7dYUCs/V1Rfxztwu0iMmzdgfjeVTiNTNMxjj1VDCM26Ks+zxZ0x2DkadLmUgHHBVXQ==" saltValue="9mbqRAIkazSbcYnbpVp+9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SqRK+Ni1zFMLkWJhI3B9svXFnH/juqRsyVgm43EpcZPFndCzVHsbAa1A9KSlthyeydt9uLZIyfZJk35+XL1HCw==" saltValue="zRVrSZGP2F6QilXPicN1YQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9txXsUuwVFoyd5zjxK41F2ODQRwnQRTFTrhCePZu7SiBqC0PpH1YS1Um4CHWZ+qaQHKPA8v73Ov775oQnNYu+A==" saltValue="+94MfnTQpjLDPeFbdgVWTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lzt0oI+mXO2jjK5/Y6mAfyJ8fsHizu5cX+UwBvOR2CyL1WBwbc7VXLvFmAH4u7DoUdKOLQS4S4Sygv3vRMWQNA==" saltValue="rMWERQue9br2lJ28l6dFyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25136,7 +25136,7 @@
     </row>
     <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26104,28 +26104,28 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f6F4+uvyjkyB7QaBOdZLwH0pviPVlAMir9yln6NoaOQGn94SPegKkQBVoHSbXzafhxG23asSkapAPpxmVXHGoQ==" saltValue="mdpGN+BfUnTzKvD3ABernw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YvOJetQONX+TzFbyrYGlZHzo4l8nSOIyF5WicLslMX/KqcFmjVmoNkcZsCxenZkG/DTrpazI1G5wkaaNGotLoA==" saltValue="iC078XK7vClFkgwIgCLEHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vXDA09J0AYoKcbD/TDPkH7OxT6x8ikduMrjc+1G6fQfTSQckBUpPEe4zYQMkALqPTJIMaUFm4rmvriWfspiDoQ==" saltValue="NMvRrlGhJbTUSi43BUuRyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="As5fdP76keTisitD5a5ezMyW4FY/sJszlaaHcUvjhOZX2sSJj2HWrOsBTRgcn/i4TMmbE1PYcDhGWN0yCBB0TA==" saltValue="z1HJstgyQZeoUYS+lW1nNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tsJWEXW20b1JMLBpExZZtFvJvM1d6/QKZAb1+iUg0Zrcc6TQTjMKP+nYboDxRvGZiE3rMVDcObJxjHdeA5O/Cw==" saltValue="8ZcBz54U4CYAFX25BrpdpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xEe2/nNvK1tiv/2SoB1egkaDSFMK07Xb2UA4e60E/WbZZeawxxhDFQIl930UgvSMrrRUPJyjSIXzn9yNQqD+mw==" saltValue="g1WRKelZKylGNu/BQQ4tUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UUBWzgt3kyFn2mz6wpxNB/WBsFAzAaGTdyiECz9iyhtk2JC1kRSlNwxIMwN83td4+qGd4D41X6PSOP2Ak8yJ1w==" saltValue="7g34gLOgE0K0hl+stJBHmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aysdigwEgkFcBNleKQ7Lg9GtB7ZjmOUlayUuyjSctr4+IB4FMmYK+QkC1t4ako4duXgazNqvT3ZpsEqvBM1d2Q==" saltValue="QbWQlnxwF0Eg8UFPzJIvBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tC6Stki7VMu8UpUcfpKQE8n3JAzR00lphmhmFBfHmu6JWVCe69Hy7hShgubDYquJ6Q97hjGJFn7tBj5WNugj9Q==" saltValue="mJ7JLwgqu1qfrjTMfSttCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jqi7zqE15rjP1WyxIZN3pJftkFHI4z0craBCX1eh3uhXrECJxwufL9SINdOlbCRyF2Oo2dTNLW3v0+rmOp8afQ==" saltValue="4L7x+QjsYu4+tjqXQJNILw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gSW6ac6QUZehfcZ1Tz5Sp6J4rphR7J1fKXu7wz+sE84SiAMo2efMDK5oL6pET1FvY2OKqayvhVr4EyuH5DFZzw==" saltValue="cgsm4OC8939HdOHWYJdafw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KG/JNh7r80yKqLndpuBEUHMGmtW3FUw7ByXeALP4zQgR9EGKYhl90xLXbtuq/b8Wsob/1CJvnFuvU2QiE5VblQ==" saltValue="uLUmDEB6Fr4pBdyTlOpO3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XNBVlpOcuXwevrYP+wZky/W8EhBsGofyqNWIZ1HrebgOFU5m0ls5do9yFJI7tAYGEfn8+uapDlLuj0zRmODsKw==" saltValue="K1ZzvtEk1aoHYp9zQdzmpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cX1yWJMgcw+XTfISYYeCrAigsMDvZ3VhmEU7Hxw/+ZCS0+FGiD+jKjt4kjIkNMHzEFBU88Uj8RCYN6pGddu5+g==" saltValue="E3nizFo/saGG/bxEi7nhuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jJbyMPAQGEgPaNUDsrisWLgR6THCRg4/VEStuGHsbHxU07h80jvLb34N3fp3miO1ofiJ290vL7kkyXtO7tAgFg==" saltValue="0zTN3maFRwCvbhz/59Z4cg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZgZrBmmk3u+S6VAMMev1aRkb7CN5AzUjAZZd5tytcm70BVqRUxfeNadR/4f3aniZepzW9DegqWK6Qc4wjJ+lqw==" saltValue="blKSLQuzOoIEEyHqx27lKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N7Q3Q5dXjCEn4XwzTZL9kMajxDqdct/cIJC1ChDLvBXn4nIPeHUId7EH3JG33P6nmUNmPozu/KibLYyyz9Zy/w==" saltValue="NqtpnLCgmL0e5KFgw4KIww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FGQhNYrPL4WyVjzm0vzjhIY2IlXxLaLG52M/d+yOonbbuf2d8eh4/xRjRPwBOakFK99M2VuH9/xrjSKd3ovsfw==" saltValue="FA4dylBAH+ktfNGIudq5Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aZBAiiWCgoRUnW8OgaTsa9hJp0EjVCgeb1sFJBYdwfhlKg7EK33onL/JtxsijdMpl7sHdZEuR2ths1L4/ZlbiA==" saltValue="LnjpiupI5Q8XyaPL2jvtHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7dLvmKFi8mtJ67wmt+1VIp1pLskYY3tgttECo0oNoHKQWY49iqD5JorBXCL+GzZRzUuuEyG4611Yt7WZADU9Uw==" saltValue="KhOet2WEaLStB8OizOl5dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Arn4yS+P/s9qrN7/stlZdJYa9tAucePa6GIfX1JpjFVpzyXvn753pGGRlPHe2X2c+587olHpOPNv5sOhhCSDPw==" saltValue="KCOvGJgxPWcrJgpQrWO3kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mjvyalqIwNMSBnIMZka5j2nS+vioqXlSL3OjtSxEBzEdOPagXxUaH3Ki+8EXI3zRMtA7FEXxKUSap1TiRjT5+g==" saltValue="FYdjjIxMFjT9tId8iaye3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D84nDMBqlrox9AL5uOHaL2ydmopMkPfHVdRlpl6wqwwHYJotcl9XPL9dgdWI5ykP9eq5ALW0x7LHYks/b/ywfA==" saltValue="VHSlKAGw2nzijecdpVlzKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g4enSEZ+C0/BePmKoiry1sQRIh675TerbiowjNY3C0rFj3GpgekmQC2Yh0MWLczmDJaDfHg4wpvbtcAGXzFmnw==" saltValue="FTo+7Pl3OdcxEGyj/zSKrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LssrA9kyAJNBTy+sjpNqbxOP5YgeI6HNZnQw8qumG11D62vEZaLmZcxSsvH2S0jcUtleZCE9VvazsY/+n+YiRA==" saltValue="+43OR6NucRPW/zEcCXMZew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kaMkp4OUZj+Eifxd8GijnFI1ptG6JtfXVa3+4bUEjOqO6yCNon+JvQz+Rwt3XK5lZa4YWSVcQxqdarSe6DzIqw==" saltValue="0mYT1PTVZjGPyDJebD9M9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lGMUwwCk8mowK1aya2dq/J2wypemUzuPuoPWoriTw7hV2fIVFjXujr9nVZRroa+yxgsdNPruMwBpglmXmANXiA==" saltValue="lcKHzO9C3vQZ6AKbt8bMrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2SzFpQlaKIRiebwyGorrEJdDYfvsWov/LfA+uBsZJhUrXepeBbWlwQuroRmDyFnbIwQRnl/yDEkvha1PEGYdLw==" saltValue="4XNn0o2E9fheLEtBxZtf3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{195FCC38-D1CE-4D85-94E9-48C57A32DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{634672C5-878D-4150-9BF8-286AC0F82075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f+9ZeQyH6ab17NvJezIrWTS+beslh+jW/s3+TYNe8wrnnKJbQ2qSKSidMBCiHbuKTVs6a6LVAHX9/rdo0YZR1g==" saltValue="Yd8PxJMt6+sayC9nF5v+zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/4IxvritMCw2rKZVvjAAwF0x3zrdA8SfD6DQS1tDJFO10moCNiRHq5j0JHvjz83L0d9wTkKS88wLkBQvI/Apfw==" saltValue="EXR9LNTNpqiy+7fxkFyQBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PIfmJhna/hbcBQsVOK7jfA/K0T6Avt25IY+hvIuCIb7eolLIj7x1iuf2T4r69+LyTGAvcPp/6HuGd0PkWVIyOA==" saltValue="/gg3umd0UumHYRjckMuDxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fqfNN4pB1D1jcQ69rpdhPpxEf8ndTJaprlK1ZxOJudPwigPxv4raJZnc+CmpOnWY2mcbIjL5hLq23BBVKdKD8A==" saltValue="A100SmBHDYmaYXjF4g3Mug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dX6zA3rA0qiL7s0gY5pKe9SsXBC3DxtWpq1PRRikWgh84PRYP4reKaqRMFqDESL9AfFP+almxF2S/uOq78NzxQ==" saltValue="qECiAlop0OI6eKtrz4VZlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qXRlvKj1FAlPuYYgFpaiUP95ITFmROQWDGKwgY2Rlk8TdwovMnm2bhgv5hFvxF6BmLuSdcVucYHf6gaohopiIg==" saltValue="TrIr961D/xEbsQT8wEjDmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="46S91TDRAEWShbnzu4h/K44lEicy2dr8B6CQF2NTizQmTl4wG154k86uxp9u3bLJbbSQuGD1NVO/gbDvWZkeyA==" saltValue="ULhq/MPFS0dDPaL35RCgMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WKcIQ2RnKhy4Ve70KFfZIUuDRLJDAWWvQlhNCKxOKI0exdCSPg3rkNIPFnxg1weugxKJxOCXn8dltlk71DUidg==" saltValue="4if47CLV97VSAyODBzD8Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pj3Sox37g9WFT1tuF0uc5v1vxPs7pT7K0LxG8YEZTN8eR+scHQ+K+82e293eLpqg2RJu+3jMPYfQjc3y24ZfbA==" saltValue="JUE2RdWh+Mfxf72pmdK72Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZesKnL/UbPOqyI2mLWni/b4qlcdny6QDUCQKjYNISy77f4+cNzDxfvw7siFBNMWWSf5Yfp66mPe87up6OJ2FBA==" saltValue="LWScHzIc1qdOm3dvli1fyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vRHLGZicPKL/B8PzgBjs+jfz+gmcz/OAXmNmRzYK23RObXWkVF5FRXrDSAqZIU9ApP4Rqt0CErn2WiqlgF9Flg==" saltValue="6NmSWiF/SCA9cc8nD7r+BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QJlp8vQu5D9UNFlk9Oz9PxNJ0jM7oa8ViZ4+wEBWsRhIrQEsqtX1nfv2FVtdDAOcdsJGEyAcy3AXC+YVNF5Dlw==" saltValue="S9Auat1D9ipf2B3FYsjV2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z+iik7ZAJHbk9ASiW5P5zovvVwuciFDYFRQShywidMxNjd02h1lmklea8bgwuQab5tLYL4CnlEyV20gvSkDKgA==" saltValue="jFcLmu50UOusyfc/orRwnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BVQ0pF1Wiks6r8nRu5SmHKnkUYqtlNYQNF+n1oBDZAveHug14l9V0rm+8T0Y5K9CdMdvPRQioCVPm5KC3WP67g==" saltValue="uAmCoi5dydg7Klfg7Fdxzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8rxENy76Pav579h9gyqB8nZ+U4yJRVCpHVUECrYtoIiy0+tFBRoWbAY7zrvotXHVdnxuApliWtES4YdeAUiD2A==" saltValue="pjxcETBONSJAI93V+fgwqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TTE9CBu0TnYLiBDDXx8ZnBjZ4GLLgggI/XXWEvRfwAwFterWYQRrMv1BkS8JDtq6so5AhJR1Pl4qMhYdAwrDPA==" saltValue="Yw8/7c5OzsDR0wBYsiuAYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HvuBxYakO7P0t2pDEQ/DLpIlyrU88f0+3Vf2WFqSjGIHqQLw9Y7dFqmUUShZt/AwzfDPDd+AuTVQG/XIXiFjug==" saltValue="bRY+AP7hL2H1KTp4p1vD1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WbYSBMFGN4lvg2GyoD2FX5U4ZY2jrTmM+K8pAIwK/5aclbBo150c+7IcOsiuiChaqgQ2ToMRGqtXloray7/R0A==" saltValue="dNU19KXG6Sg2pm+SeuwFRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="prnatPmKpysPr9IEqZnLqgoWyUB/b6Tv/KGjcGlN1gmq+a+iwdZ1+nmIn2yEx9BHi0YZgvay0GlBMykyWDKQXw==" saltValue="rcqdeiWQoaZqY63Cbx78Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FAGGuEJP8X+tIZOBxugQi/tVFJnkdkq+NBLlCfdiq7GTWhtlIhKAYYuSXnXKVKpBCS9zL9wvMj1u5PB6S0VUpA==" saltValue="Ua5GcKooOOxnzYHTAozJyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fHZOtsZoVBCEME0Dhmia71RUi/2DGVpkf6k4DlUHYVldt7hF5Cj43bXYXurCjOatmNZZ3iMZ1l+wJlfpgJlJbA==" saltValue="DAZ+VzJS+cJO5wJEVWOV+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8pHcVkIn5R3jyzeeAUTlKvIxY6X7IbHuj1Vzp1qNf8XwyjkwqW1HCCN9gm/uLN4dgpSNAmb9C/WAfLGNyCVpzA==" saltValue="qwHAocPTMHqcGBoinyYgnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n9U/lZ3ISmIAoq4WvdSJKYYoATaTrCqC+I/hY+bmLso8Z0qcmie/RGVVjQmjVHp4J/PnNZvmzwuHPaGpZIl+eA==" saltValue="eSmyiqGnoW3NHZQh75Q9tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u3h4QzoeUwgLTIdE6ChZji6ew6oCSpgiQbDHwNM19uHODgmYmogUD6kD2lFsnjbmCppDdKaSp0RvW2cLrSt6pw==" saltValue="U7icSASrDcA8QRXr0NwPHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SqRK+Ni1zFMLkWJhI3B9svXFnH/juqRsyVgm43EpcZPFndCzVHsbAa1A9KSlthyeydt9uLZIyfZJk35+XL1HCw==" saltValue="zRVrSZGP2F6QilXPicN1YQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t4nvvdjYBSi9zBmxQFZk4rKNRoDzhLkNtGSmaZq1jG7lz+mSYeU9/yW54T8qlUyJ3CBTjNlErm9TDqQQO1LeLA==" saltValue="SqoJnMuE3LUs8c9+VZ2Q0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lzt0oI+mXO2jjK5/Y6mAfyJ8fsHizu5cX+UwBvOR2CyL1WBwbc7VXLvFmAH4u7DoUdKOLQS4S4Sygv3vRMWQNA==" saltValue="rMWERQue9br2lJ28l6dFyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G+T7Zw5Sac1pmNikL6d4lPJyWgcbTz+87KP7fYyGWmPQej6jsFgkgs6pgzbTMxJKft+uESpXNOe12Sn7PdIX2Q==" saltValue="3xHX3/eZDlkxAGxpuvPEoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YvOJetQONX+TzFbyrYGlZHzo4l8nSOIyF5WicLslMX/KqcFmjVmoNkcZsCxenZkG/DTrpazI1G5wkaaNGotLoA==" saltValue="iC078XK7vClFkgwIgCLEHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vvrEpmiuma/BznckzpyBReql+oMOQ3G8W9FnyKJlKZtLRl1wFXykmhuDIdsvOCPL6ctiPs5mccopJCpG3B2ydw==" saltValue="W9VprxenGW4lg5QFiQioTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="As5fdP76keTisitD5a5ezMyW4FY/sJszlaaHcUvjhOZX2sSJj2HWrOsBTRgcn/i4TMmbE1PYcDhGWN0yCBB0TA==" saltValue="z1HJstgyQZeoUYS+lW1nNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zs2p1QVmQU0J/QxDKeHQ961tr+UQ10z9mlbd1GdOaBZ7gdwrXB8dhg4AOz8Dnd8aKX991bUchSC1rBERsM6ycw==" saltValue="VRIpAC3Wv3DoXtqTbr2zjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xEe2/nNvK1tiv/2SoB1egkaDSFMK07Xb2UA4e60E/WbZZeawxxhDFQIl930UgvSMrrRUPJyjSIXzn9yNQqD+mw==" saltValue="g1WRKelZKylGNu/BQQ4tUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fL/4Zk4S9OmWTpn8pzaMe2k6KK1lHH82wsbL9aGIArZRmPsQDmkz9IRizDNOEP1S1hC2+iW/eRQU4BFerSWfoQ==" saltValue="F/JjzI4uebdteiZmkBbC3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aysdigwEgkFcBNleKQ7Lg9GtB7ZjmOUlayUuyjSctr4+IB4FMmYK+QkC1t4ako4duXgazNqvT3ZpsEqvBM1d2Q==" saltValue="QbWQlnxwF0Eg8UFPzJIvBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N41+nEccGxNvv7NDy9kCxs6NrE7ZcVMHD54h4TuJ+ubzpJLiIZtVj02WsOeJ2ng0rGKSAOVUwbopLLOhVga5+g==" saltValue="HMZq+RQkKjvezH9ZGSMU9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jqi7zqE15rjP1WyxIZN3pJftkFHI4z0craBCX1eh3uhXrECJxwufL9SINdOlbCRyF2Oo2dTNLW3v0+rmOp8afQ==" saltValue="4L7x+QjsYu4+tjqXQJNILw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="awes12QuAAE36Rlki7jhsTC2GkDvtm2NcbcT3txViC9IvunUEB6PPElBN/7xtAt+F7eOjaIac980x0YYwAIkqg==" saltValue="c54Pf+PAvEPWOp+VMvJmCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KG/JNh7r80yKqLndpuBEUHMGmtW3FUw7ByXeALP4zQgR9EGKYhl90xLXbtuq/b8Wsob/1CJvnFuvU2QiE5VblQ==" saltValue="uLUmDEB6Fr4pBdyTlOpO3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ASqScom/K/fLniGcp7NDb18pDSdASTgAP8stjxcya1tGjQxILxMwddoH0pVIymdMsDx5cQuFE5BX9sLt9XyFTw==" saltValue="UHul6c0QosQVg2fhWboDiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cX1yWJMgcw+XTfISYYeCrAigsMDvZ3VhmEU7Hxw/+ZCS0+FGiD+jKjt4kjIkNMHzEFBU88Uj8RCYN6pGddu5+g==" saltValue="E3nizFo/saGG/bxEi7nhuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KzlyE84B42pjNr+EcJ3i7tuck4c+I1uzhRoL1tgZnvpi3jj8llxvo7CbTXiW3LfeHcF8ws9Ptp7pwe9WtkZHeA==" saltValue="Fm8hMMOb+sg4j2WKZI6aPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZgZrBmmk3u+S6VAMMev1aRkb7CN5AzUjAZZd5tytcm70BVqRUxfeNadR/4f3aniZepzW9DegqWK6Qc4wjJ+lqw==" saltValue="blKSLQuzOoIEEyHqx27lKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="D0TpQutQ9/+/atBkC3qYUBy/cbPvRahswzCJxJyoa/uYM45WDoXS7/Qfcl6orLamdlZSGNDKBDwkXyChe3cMLQ==" saltValue="J1DWstL4uEHF31wg2Tm4IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FGQhNYrPL4WyVjzm0vzjhIY2IlXxLaLG52M/d+yOonbbuf2d8eh4/xRjRPwBOakFK99M2VuH9/xrjSKd3ovsfw==" saltValue="FA4dylBAH+ktfNGIudq5Hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jyoCY/Z8k+L445SCjWm86/Il6kQKn7VQcXE/dMD8l2VOBTdhZ5u9V0DnUc3k3b05Wo+SJ0JhN+W65gqOqw8TBA==" saltValue="ipLwqxOkHc82+2T+mMo8qQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7dLvmKFi8mtJ67wmt+1VIp1pLskYY3tgttECo0oNoHKQWY49iqD5JorBXCL+GzZRzUuuEyG4611Yt7WZADU9Uw==" saltValue="KhOet2WEaLStB8OizOl5dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kkcu59LZ6SvbLTulbCDcknfS4Lx89FNBDphjOkK9wG0m6hNEIW3LCLYoF42YwQH4QrnqW8RDuAwLahRTwLoBJg==" saltValue="oke3Rwl7ibpBpCXscJODMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mjvyalqIwNMSBnIMZka5j2nS+vioqXlSL3OjtSxEBzEdOPagXxUaH3Ki+8EXI3zRMtA7FEXxKUSap1TiRjT5+g==" saltValue="FYdjjIxMFjT9tId8iaye3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hdbybmj4ZC8SCY5sgKq7YmighCtspzjmt0Qx9SrxIxpI+D492h6fEN9Ukovm7QQLKDmwUXicaw/bseC9ntZ3Kw==" saltValue="tZa4YU2P4aIJBIz1WlPvoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g4enSEZ+C0/BePmKoiry1sQRIh675TerbiowjNY3C0rFj3GpgekmQC2Yh0MWLczmDJaDfHg4wpvbtcAGXzFmnw==" saltValue="FTo+7Pl3OdcxEGyj/zSKrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TD84dGcTsDzrMUABTOphxitKP8ezuSiTa1uSSAB5wLKrBihvYm2JfMRGv0SVSaVwNnv8m+H5bEPi5B7yNY+LUQ==" saltValue="dZterUFA7A3b1fwXAB45/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kaMkp4OUZj+Eifxd8GijnFI1ptG6JtfXVa3+4bUEjOqO6yCNon+JvQz+Rwt3XK5lZa4YWSVcQxqdarSe6DzIqw==" saltValue="0mYT1PTVZjGPyDJebD9M9w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qUukqzFxr7Gd7kDw5tvRMF69g/RBYPgK5gktY6bL09t//58oR/GE8RMLbpDZNvm+ftA2WN4bt8a05wH9rFVUdA==" saltValue="n+tXZaAziRglsVi2P+sLnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2SzFpQlaKIRiebwyGorrEJdDYfvsWov/LfA+uBsZJhUrXepeBbWlwQuroRmDyFnbIwQRnl/yDEkvha1PEGYdLw==" saltValue="4XNn0o2E9fheLEtBxZtf3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cbZo+Lsqoyh4eB0LxcqWLV9Mg18zYsRR8D0LDZxnfgCjhG0UPemir7sMjsqSXe2PNgy1p2QfqOJ6o87qvi/puw==" saltValue="ohMoqlZuPdI7V1qkrV36UA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76F6C5-A627-4214-A1A5-6D550BEF1D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD9FFF9-93B1-4A9E-AA1D-BD6D86BB2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JNkCXgyuyaEY6Dqo86KRuAQ6xcdxqmLfEBpXRC4LOaDw5gxvGH8+8u0/YIBmBNHx8KiAFcy1Pq36HhRhOJVeHA==" saltValue="RYW0fHyMphwS4mrTOABWjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="67V5BouAGSShg91IEyaCSt3o/WXZVMV5QRyIek2rGy6kY50mexOymbMwH5IgRFMUgq/4pDjQUy9Pd9ajvq/x8A==" saltValue="l4LXnO/Kj0ld/+wwq72drA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,7 +5638,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KJwL7N7M7BAbQXWwANDeDl+iivXl0BRcBzHqFyV139rmgytmIA3F10pe5o+yOBs4/wH97y0bbi2aMAUpkWAlwQ==" saltValue="XoaxMeHC5lh9NcN/Vyo9Og==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4NiRNUvClC1nyQ7snYyJWq1tlB1VQkIhOj+tzITgua8WeoGNQKAZskc9O4Fze3g/9aUpgbR22ImN2So4UJ6Baw==" saltValue="VB2ooFB93WiLUChg2+srdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="95FiNgnDfIy3vOQTGqn+OGDyQTqfD2CfyJlw+ord1iywNftciKjmBjC3J5AbA7helkqjgjLeJMX9MIYL8nQ/rQ==" saltValue="EMPwRfJ3qL+QESOIeI/tWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qvk85xf9+Z6hexTX1Fl1B3CUTeBJmT/eD50mp8P96gLh7oDmoydd8Kn60ewDUroBwwKeQgZej0H5Ic3P7I+IWg==" saltValue="eGCoHEoFJjJYlSpPsbSI4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mAMTg/Og0Cbehg7P8qcQthVyA5q/Z8RmeNuzBavSORTDCwWGVo+B90PIWirwhbrZVxa4S1RDixbbg30F+3b4nw==" saltValue="P19QBNYjb8T/q/3AOu0gZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SyGHKq0r4PtiinwevNUEXYKzuxgC8EvOilzm7Gq755cVLihspm08vMozmqA0oWsSav9LLPbTfs6tV0soxbr0TQ==" saltValue="Bv+0n//NCLdSro4zMk/MWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="keZ8D1sIQgl76Dgtt6OgdBsKgr67H/nyE+sYjcGCfDr++KhfJdTyydLex+Swh0zJevpBDyGaDmXU0mPokfFvyg==" saltValue="Plz3y1tAJoGiRyZKunvoZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="28pK5Qks3NpxhgFH0iHnjQ762ON9KRx88QFcyRfghyVxxRbHCWz3w94I8GjvJGCoyM7PxAQNK0la+0pcIctYxA==" saltValue="CZOdW9XjzrY/m0Bh1fTOOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bt0si0FFfUO25jEwxJ3Jz47gDlBA3TyMe6U/egY0LnPlmyFrEBb7P0Xil73vDzelhAujrW2iygxbvCJJqYZUjg==" saltValue="0trBaIE+5RFEifF/3mqsDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9fopkEnpRAPGB1ZAncTPk4+pVAJi4WLaXj+0f8vLwxk0Zqbx0lSxMWUvUTn13N1CG3ktCk27T0goQ6d/XaU0Xg==" saltValue="pw30PjNqsP0a2GSQtEMy6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oBwgmVT/M4WohdG/kDvsf/p2LEGW3UQ5t1DWDKazclWxJt6KTZiJQh7Z5qUne8rS0aynDvstWWzYcYkU4gmO1Q==" saltValue="7oOjJyyJwTAwOfBEDATSiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rMjzF0uj1DjddvFJciRfWa/QkcWgu39ADooHf6Ij/CtzNs8bdiJM+07djrkfN8GierSFqD7Kvrtxfsz6vrf7Yg==" saltValue="Px9RMCXGWz2WfHQdoHf67g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VJNXie97oxNqbla9vs07nTyS9yPNuKRBWBE+DJHs0U25jZGfJhIHLzRxV0FFouhgiiqJnPN7/n2/21ZdMMl06Q==" saltValue="jYRW88SXfdhl0OHQApkzbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FvjUPR0R4K2Wj2RHfkC8Zt/W7DSGbnOAkSx47aaOg3lRL3r6EmOuqAXuYlv/Rd6fD3OrNUSupYnYYGfUK6+9vg==" saltValue="oFa2kRb1jlDFnBDUHIOtDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2IKLmo7HsZajI0vi83UDf3fe64iMY9M7SVQyiLTEgKuODiRzLALP/PHdT34rma1/z7942tnav+0EVgZR4WrxtA==" saltValue="+yp6fI+k4Q8abTaO9Kz8Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z8/1jM7xLTaI5MRbrh2BsgSfS+eV1CSedq/OF45Y+MzdxnU9KgoPAayfXjI1vHWSUVXZWN/PZkWGkpCBrq0IBA==" saltValue="KGelRib1FMgAJJhZh328Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m0+6Q5Tx80ds+uBjZ3b6xn/81lM/hq/4+nG27DCbVAjb7MdMcSXPrbxGps0fGY4PAnC4S3jOI/5DwXjKGQaeZw==" saltValue="UcpyhZvwnTEPJjXZro/Hww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5HGzh0dZXjs6q9eX5XQ9W6qCm/F8y60b6CDZ69p2Hkpfpt4WB35zzTpDDu9ngrradGYp2XjBqlDMLtCsaftTng==" saltValue="poOjVnJ3+67zfvszAgSptQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7/tPA43e9lboYAQWrfBJ+zGm23QtMIxFusNFYO/P4Au3lNzlOaGOPIjDX6mbOQhcbUSztgJ7y3XKp39ZEh242A==" saltValue="e0PconRLCE9w+egUZM6sBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LEfP3Fln32QjXXfvpp0MZ8DpMQn3xkviK+G6SnlaMSOyRKhKvEQGuidfO+74qGBDCKmRqRYccSTi7S/zgmuGOg==" saltValue="ZLj1g4kaQ2k9z/fxnDn7yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HqsjZStCyBEG3h0LuwMipZ8S715A7QkxGGviEwPNcYEczR7HH125KAyBYAsjqPSSR7C31z63XuZeeT5XFl1PYQ==" saltValue="kg0Ckctao4efnlEUkqcSUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="klDFLAafuB2ytvWvcleMQcpU7SNZ1kcowwJmqsINYDFJBLOHpsZmK5dCoz4+0USUYNjQidozTYVVjixoqyNHhw==" saltValue="KLY4mWGW1U+0/lzukLO0hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KOfO6DOOQ+wvOdwYC8ddI9pskZm8/ymBBqaCU80bQW8pAHOIj2+tYn+vD6O3GKRHW39fJRndJpB3FWLJLThs0g==" saltValue="htRNM9w5gQ4jNQrQHyKnYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wsqin3lGaBDH1r0y7wrpu2pgUALaG4mfCAyDFHVXuaUImJnQYIcs1w23JmS53lrMNyVG5AN6Dgbig0Zbs+xgJw==" saltValue="hIcVFFrGawwHzymdd8/1HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/rKZSuv3OL0kT2OeaRhsNsHO2CjajY4bP4I8ZCsiczybg1mTDMAazII8L2KvVGpkDOzZiK0ElZxnxuVUgRqlmg==" saltValue="/Rpwsa0e36Jcrx0b2gzCBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z8KtqoIie/rF/09n0j+0q0VmnpxAUPvRXudQkrCNueIJocKFPB/rRRfUT2nuyLKc9eEylfSgmW1WRHhn7f6Fcg==" saltValue="is0yo7UxdIZZT4jEMxNOig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LeFdpsRQI97J8KKMWToJwrkuTAEgHezR9Cmz7hu2txIJCuGRbaN7IPnTNqOxrrGFq09qxcY6P4QD8SyzaCPolA==" saltValue="CeZdtDtkwOjN5dc0CLt5fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OdwP+zSwHmWlrTo91z0x05fkO3dyy9i1JaA0YUpjBgBexhU2S8KI1fnF3zapKLrs9zfTJwQLkqxvf3sZkavz3g==" saltValue="thOu7B0W4wrmVxF+5ocVwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ehOPG27GZEU9ZqafJP7CqFu9TDOHoVL2+578YyWH3XjeNCBdt9RS5Exdy0kAfhSf7K9QfzMQXebmscUX6l3Gtg==" saltValue="WuVW0nFW8FFaLCSav8dfpg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Loh2XVSSk8tBk51RuDf44pi/cmDXNQk1u2a1cYiHKvK6s4la7QRnuB3B2pOLQmnN0eUsM1qfdPdQ4L3HaC03wQ==" saltValue="3AnGuB5L7GwWAseES17Ijg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eZtYrB8XQIwQEOMXXMiExfA3HzzndvhMfPLTR3aPNtyCq2/5Ci7v3XRpyZtoOx43kkoB/A1u4dC+PvnyQRTUMw==" saltValue="dxKMJ6mqs/K3tqWsxaMKtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ODYhUuKTXgjX0UpskNtw7FyHywQKAMS+rBfoGdze1Z5t4yyi5PC0zm5FGPeSX4T/8EkDPzKDcGp9DWe8gkniHA==" saltValue="wFkJ0kEjKnzNpUXoRvHxCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/yx0ft2FyXBWyyFRlmfhCcjtA7NWTp4/KrffTe/MN8bnMKVl/yuCy8N87m2r3yBWMf/HPsxFJIHB7kKeUMF4CQ==" saltValue="yXlRlXJbrbC2pEYloJFpyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jjbSKBHvrI+I34IF4WR2hL1ZDv8KYBH40Ru5pPLNy985qfoXDHnU5Pgn5jsPgo7XHTDMg4zrSbi0amp2qbJSZQ==" saltValue="2w7Z8vTUD2XkM7/STa0b7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RX3VrA9P9VSqqrnuCw4mlADl0Ltcq4Mh6QvBFPQRykRPldRgCNCF0S8s+ov52wtCijJDLAOxebYsCpl6QHFOfw==" saltValue="AhzUDJmnIE6OSSxU3zKojA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8My5FScwaTG/aawTjuSi57EJilDhYWokS92/XxKLijxIFmy5HypplPApj9xNtcpTMO3wLNXQZf6cg5IXNnM9gQ==" saltValue="i5FoVxjPtRLdqffqF43LoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UwBeU5BePa+VgYcYw4t3eGl1TCTRWn7jUS7JY6aqEVe1OpBxSVqjZdL9Vyg+bOIQ6uAeZr+1Rsytq6uT1mubzw==" saltValue="RQIkRir5lPPanYiCtSAY8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LSoMkXA/N6KTFqnV6xxQyo1AphQE0D3MFDFIOBvz38JPvdT/I754CEVEiGAq2pwqFp9Qa6fRj7FsBbPEEreIyA==" saltValue="TML0h1qMNAtlMnV4Km7rlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wCUA8hHr7hrBEVnCr48bbmjVHfY3U261yGIQYjA9lGAZyu8QiOfgc7D2zLb6j31CyqobkSxDnbRoFmLOfZe+Gg==" saltValue="6Af/+ex04JD7EGDgJ9l+5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DUPwJ8zD1SxvvQxVxfFpU3sGWPhPXG9L2vrgSP37y1kP/XhbKfb4mEIrtZ5XYLos8bEBgfZYJ9kG8e8aODk5Yg==" saltValue="XdB1ReTIbdPODEy934l9AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SiS3i60fF/8g+bOhl2MENEoLVqXRhn/0bgNMXCUOA2eHY2qsGYVeAvdSJPzoV5VlOf6+O5VcUlqrBDsw1KBv0Q==" saltValue="nN6vYDXOpHcsC2JLkRXu3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fAWTgQ1jjAx39tb9/DWFH/+PRKx6Yej8F9yEmMP0ygUtWF39o7PGM/jUb9xT4Oj/1vhi/+GNy23TbVIGhgGxlA==" saltValue="IJkdJJSxGdw7S89NHTcyjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+4XhE8F8EWkvpVdHYeBREyucVqVYTG69W/2gCAMDW8q+pUKUqO1iyGKCYRelV4y3+05KXwuPonIFmlbaMnGJrg==" saltValue="+KuMNSxW6fcg0NL4XyTCTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3x7sRpF6SO9hPFOfQ3UVWlH5sh+c48znd/PPpTi9B19MijXugpaEnLRF8qKYo8uIR2bKqCPkeM/cgovVhQ6kqQ==" saltValue="OkPwBNbP6SyGfKylwtNe4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3J9LHE1LWPBIyUTGD/LJbO+CP7pEn2DQEPQlHxzs+MJ1Pq9d2FS/Vdx30iuwNmqta6nhknJQMB1a1KUgoyJmcQ==" saltValue="KHoQNIaov0DOfNomTu/37A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DQ3FMXqvM13k1NOlVzpcQu4WSEzjIpFUBh/x2rs1cDyiTr1LMpNrwFw7Fqq8cOKhw7OTxmZEyzc4DncfovCOJw==" saltValue="X81YcDCdd7bvlqBQ6Ik7Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F5HkOixsLqq8ZJt9fjdHr42B/t0aEcH2ikS184hWu9CgESAKsq5Qy7OxK1RIabZSZ9PRyOIBNzFnKNI4UJvZRQ==" saltValue="DGBchm+H9NbleFwrw/2QiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="03oWh6yJLyT9eXF1qMCQNTiWqVXgDWyirkDG5O2Rwz1pbqC6jW2kOLE9uysi5sagoAXX2Ndz2AoX2yQcou5C6w==" saltValue="VzqEol4sijxsrZaI2VZEgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="53ujo9E1DO4wGuhpEqUKy9Ga0zdjw63Bm9wMjYHoeydQI/ifNgkCkV5oIRuNTLRdDmA/Sawyf3tdvuaCYQct8g==" saltValue="PIup0dts//0KSvoHtd1HRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2HLqpTPPosAwzcAFxL19B61BnKLf9a8Gikp/Xn8mh+guVq4qQoG+VtB0Xxgph8tBFghI42JscQnu6FrRiJ300w==" saltValue="BSsPpb7Uq6QXLkQ7mb5cFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lab+lYL9UjAOlIMX5KMF5ACVl5eibas5wgLSAXj2YvHC5Z5gm8iw2Guonr308rt1nNAFk3OfFPSMQSu16DuK3A==" saltValue="96weE9oir4EN95t2ceivEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dRt0+UlQUQgn1Xe0pamXW8Qwy3SQ2QiH46B15+iMERWz9p9WLHIYD9gl5TusVKakUmkxXS21//E2S+XI1Md8nw==" saltValue="sXlZUbtjntXpW96nS6AeiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iK4SEta/BlHWggZUq7uoRPzvJFff2bIb3cG9mpMUDgregZniUmYLngpV7CTSe2GmmvARglPcCwPupwzH6ZbMeA==" saltValue="AXpJgmx3SkVxDFhoUDQYwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OH5PEVI9E+r0YVDhI2Ee2ilxH+sADAo7vgLl4YWIiJOYkJmw37Zh/fcnpGDoixY9DRDdw7pqBuSEndfR96YfWA==" saltValue="/0ubmMmUpD9ZrrzualGR1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD9FFF9-93B1-4A9E-AA1D-BD6D86BB2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7AE49E-FA2E-4EBE-A0A3-CD230EEA3023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67V5BouAGSShg91IEyaCSt3o/WXZVMV5QRyIek2rGy6kY50mexOymbMwH5IgRFMUgq/4pDjQUy9Pd9ajvq/x8A==" saltValue="l4LXnO/Kj0ld/+wwq72drA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Je7HzFcOJ+IxwqO/4KTEs1rOKBD4lASQjTgW8TmqJ9PWjrnhK+fYsIDKWDWCEiR9SZVDb7p5PpjRUyRr3REacA==" saltValue="y8S11SKTv3EZwP8acFwwdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4NiRNUvClC1nyQ7snYyJWq1tlB1VQkIhOj+tzITgua8WeoGNQKAZskc9O4Fze3g/9aUpgbR22ImN2So4UJ6Baw==" saltValue="VB2ooFB93WiLUChg2+srdg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ppCj3ymMQ5ba8ywNa8EQ7OWlUArVj4PU3cGo02f/463AE7vT1TnZwz+DDNkJ4z+bEDI5sA2iJtyQQEoLkJCFig==" saltValue="6vYxqmNoh3f6n30uiFoT9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qvk85xf9+Z6hexTX1Fl1B3CUTeBJmT/eD50mp8P96gLh7oDmoydd8Kn60ewDUroBwwKeQgZej0H5Ic3P7I+IWg==" saltValue="eGCoHEoFJjJYlSpPsbSI4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WtherF+IvzeJQGWvNGOcdokSm8TisugEebI6bWXV88Ay8txhLHJ340Gt4u1RfTQpgv5aGyxUbqVPfCvv4QKCEg==" saltValue="TdZdfcs+CM9emmW1JkCt9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SyGHKq0r4PtiinwevNUEXYKzuxgC8EvOilzm7Gq755cVLihspm08vMozmqA0oWsSav9LLPbTfs6tV0soxbr0TQ==" saltValue="Bv+0n//NCLdSro4zMk/MWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E/bCtMvPq3Jq89HBu8etG4g1PjN+nz8gJpcsXIUbMc1fOaKjp4bX1Nnb5sNm/7FldcgVY/k6F2N/ixMZGRt6nw==" saltValue="+ORo+Rqsz4jjS/3l9O6lMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="28pK5Qks3NpxhgFH0iHnjQ762ON9KRx88QFcyRfghyVxxRbHCWz3w94I8GjvJGCoyM7PxAQNK0la+0pcIctYxA==" saltValue="CZOdW9XjzrY/m0Bh1fTOOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wizPnY2ov8wSdsIUID9hVqCrZu4bMZd4fwP4flNTpoOEhjM2b9A3xoFnDMHgjnbh+m8RoABmMkBsMHxKtYVwhg==" saltValue="6enqyCZ5Ob4q4gIPqHB3NQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9fopkEnpRAPGB1ZAncTPk4+pVAJi4WLaXj+0f8vLwxk0Zqbx0lSxMWUvUTn13N1CG3ktCk27T0goQ6d/XaU0Xg==" saltValue="pw30PjNqsP0a2GSQtEMy6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pj4xqro3g1erxCP8/T/3RTNkqWIIBIFV+RCQCJWFLzmloWuVCToLKGWHqsxXIheEqvjsqz5foZvPOwRuAYnZBw==" saltValue="QYSGBziIAeSgA6FWERc4sA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rMjzF0uj1DjddvFJciRfWa/QkcWgu39ADooHf6Ij/CtzNs8bdiJM+07djrkfN8GierSFqD7Kvrtxfsz6vrf7Yg==" saltValue="Px9RMCXGWz2WfHQdoHf67g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="T9DpSt+6/yEHNYy6Xj4BbbKwV+6MNNsMv36bqTRj4hED3uUPmBJGcnEpMLoXD/akWYL6tdvNqs76iKFmdk2sfw==" saltValue="Wxv6AwWFqJ/6QHRGwcWnVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FvjUPR0R4K2Wj2RHfkC8Zt/W7DSGbnOAkSx47aaOg3lRL3r6EmOuqAXuYlv/Rd6fD3OrNUSupYnYYGfUK6+9vg==" saltValue="oFa2kRb1jlDFnBDUHIOtDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P7FJTAfRMBQgsXLHxYzrE4TAu96qmNuvA5cPQJyRCU6shfrGOUa32/P9dM949dkP+LmpG6jFl758v8jTJO6Vzg==" saltValue="W55+7bx4wSATIQWFZnTJHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z8/1jM7xLTaI5MRbrh2BsgSfS+eV1CSedq/OF45Y+MzdxnU9KgoPAayfXjI1vHWSUVXZWN/PZkWGkpCBrq0IBA==" saltValue="KGelRib1FMgAJJhZh328Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x9CMNO9X2dg+LtHoO3KdbdjULm2i8EvLXCpUM4tQkcwEJ/h+4nlOwo7OCuDl/GHfj95DnrnYmmTm6u+KyO9Geg==" saltValue="qUGHyvXphJNcEtNjkueXFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5HGzh0dZXjs6q9eX5XQ9W6qCm/F8y60b6CDZ69p2Hkpfpt4WB35zzTpDDu9ngrradGYp2XjBqlDMLtCsaftTng==" saltValue="poOjVnJ3+67zfvszAgSptQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V+8QISgZv+rOT+WpNhv4mKWHh+UhKlbrDlcng09sCk0gE7mQUM7hJE3GiL5oXqbHpQrG09F5v8+RbuHT7MkHTg==" saltValue="+n0AT7eHymthafnOE7Fahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LEfP3Fln32QjXXfvpp0MZ8DpMQn3xkviK+G6SnlaMSOyRKhKvEQGuidfO+74qGBDCKmRqRYccSTi7S/zgmuGOg==" saltValue="ZLj1g4kaQ2k9z/fxnDn7yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WnXn3yVylW4A0L7SADfl7WBBSOHHCmVHRtiz29idmh3k7I9KTZseKoUFw2dm6zbxM04FQOEerXOepAdi1fqbPg==" saltValue="fF6XIDk4zRxO6PIdbQeAQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="klDFLAafuB2ytvWvcleMQcpU7SNZ1kcowwJmqsINYDFJBLOHpsZmK5dCoz4+0USUYNjQidozTYVVjixoqyNHhw==" saltValue="KLY4mWGW1U+0/lzukLO0hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6ak9lvPcpREAdabaDZ6K07xJwVNx4vhLxC7LxfCZ3JGA4+F0m9fXwz1R7DTCei03cAsHJuMlrk0m+x6QneI1GQ==" saltValue="ertiM42a4IxQ9vXiu0l8zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wsqin3lGaBDH1r0y7wrpu2pgUALaG4mfCAyDFHVXuaUImJnQYIcs1w23JmS53lrMNyVG5AN6Dgbig0Zbs+xgJw==" saltValue="hIcVFFrGawwHzymdd8/1HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cr69fYCfkAFnnMqkTr/9gGo6F95JGFN88mzbuo8SzQdVw+u9W6k8yIm1v4/7KCR4EfnNEW3oIBXCNrSr1pAn1w==" saltValue="Q/AplbJgZvXDv8g5Ii3HJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z8KtqoIie/rF/09n0j+0q0VmnpxAUPvRXudQkrCNueIJocKFPB/rRRfUT2nuyLKc9eEylfSgmW1WRHhn7f6Fcg==" saltValue="is0yo7UxdIZZT4jEMxNOig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yHvD/Ndmc3UdPeozhXLiYzyvZmumOsNsG1b0wpc9XRxuEIOR2g/jCZhaZft4faobBeot683dRtL99eMfPYkc2g==" saltValue="BMnpuNhP5SW/34RrrGAFEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OdwP+zSwHmWlrTo91z0x05fkO3dyy9i1JaA0YUpjBgBexhU2S8KI1fnF3zapKLrs9zfTJwQLkqxvf3sZkavz3g==" saltValue="thOu7B0W4wrmVxF+5ocVwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VhmYK98WtR2uCsfavknTF5UjkxlUj8K52YEL2xo14N27sTZFWEZBQi1ajU64U0s7tanxCoMAgpGC9HwpIV83dA==" saltValue="lR/Vhz/ZeFNaYa7rNyv+Lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Loh2XVSSk8tBk51RuDf44pi/cmDXNQk1u2a1cYiHKvK6s4la7QRnuB3B2pOLQmnN0eUsM1qfdPdQ4L3HaC03wQ==" saltValue="3AnGuB5L7GwWAseES17Ijg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7DyvC/NWXhbvsiEHw2ZPT6GKwM6mCzucIRM2S8/rK6DLjaq2tNvMeujhdrm5bbamVohi00AkGxqvUxRNgqO5CA==" saltValue="P+HN3W22/LIeCGirlXv4tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ODYhUuKTXgjX0UpskNtw7FyHywQKAMS+rBfoGdze1Z5t4yyi5PC0zm5FGPeSX4T/8EkDPzKDcGp9DWe8gkniHA==" saltValue="wFkJ0kEjKnzNpUXoRvHxCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZOLzgpIOISwJePfFaG/Jxcp+uwYC6D68P3YRuhwGcqVidOzpSL1etKfr4QQfjdepTFPQ+RptsfzI6n83NzyHLw==" saltValue="XXO5HPFBYAKXRCmltwimjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jjbSKBHvrI+I34IF4WR2hL1ZDv8KYBH40Ru5pPLNy985qfoXDHnU5Pgn5jsPgo7XHTDMg4zrSbi0amp2qbJSZQ==" saltValue="2w7Z8vTUD2XkM7/STa0b7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ShkDFNZA3nWUYlCu5W+1+j7A3an+oBATUmc0NMqf2L2sUMWqNYuNjCTD4BLk46LC6E740p4b55CgCA6aMA1tDg==" saltValue="rForxZYty2bd+3jyhYninA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8My5FScwaTG/aawTjuSi57EJilDhYWokS92/XxKLijxIFmy5HypplPApj9xNtcpTMO3wLNXQZf6cg5IXNnM9gQ==" saltValue="i5FoVxjPtRLdqffqF43LoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oA4rBK9ZlX0Lov+6Ib+yJDkyXlxrdO6ajt6fzJM6OXeLn3uEUaHGmZnpXnT/pew/toYvzxbSPsKsWD0X5bGoaQ==" saltValue="8IwoZv3La1+UGyjchq6+Uw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LSoMkXA/N6KTFqnV6xxQyo1AphQE0D3MFDFIOBvz38JPvdT/I754CEVEiGAq2pwqFp9Qa6fRj7FsBbPEEreIyA==" saltValue="TML0h1qMNAtlMnV4Km7rlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CLy+FMLf5OScwuX+2rsKlpZikrLznS0T9wlBi2vnILcqiLMXkmmpVzgV5XprmL3w49DasoWi4wPF+q5YsMpsxw==" saltValue="DfVx9t8h8KLbwRh6apZRJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DUPwJ8zD1SxvvQxVxfFpU3sGWPhPXG9L2vrgSP37y1kP/XhbKfb4mEIrtZ5XYLos8bEBgfZYJ9kG8e8aODk5Yg==" saltValue="XdB1ReTIbdPODEy934l9AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ChkJUwg7c3OXCnkU6R7CJ3lqsNvVSReb/Zz2bbMBq2dF8fHvPedeJ301NJFkgAsSliiGcnxFPMQV9mofy4qSzw==" saltValue="Wo2gscpggIlU6V7kyDQCsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fAWTgQ1jjAx39tb9/DWFH/+PRKx6Yej8F9yEmMP0ygUtWF39o7PGM/jUb9xT4Oj/1vhi/+GNy23TbVIGhgGxlA==" saltValue="IJkdJJSxGdw7S89NHTcyjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9RSj1gbW+gSO6PR2b8rETOpKao4/S7IlghsWPN4oP/BD5++MEBwPu48ZwWXeR5tufRMd1Vhym6GbKYVVKquxlQ==" saltValue="uKVSaK6duHxP7Nj6swj/Pw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3x7sRpF6SO9hPFOfQ3UVWlH5sh+c48znd/PPpTi9B19MijXugpaEnLRF8qKYo8uIR2bKqCPkeM/cgovVhQ6kqQ==" saltValue="OkPwBNbP6SyGfKylwtNe4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t2RKzYzbMlQvaZRXciBtVjMlxnr9I5B+8rF3nKifMdVyHrWcMz3/lhGaZq5/WRFj2aXZSztO9H4kXdUQNTmr9A==" saltValue="gNW+kr6d1C8x/sfosEFDiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DQ3FMXqvM13k1NOlVzpcQu4WSEzjIpFUBh/x2rs1cDyiTr1LMpNrwFw7Fqq8cOKhw7OTxmZEyzc4DncfovCOJw==" saltValue="X81YcDCdd7bvlqBQ6Ik7Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sgbMSWGXsf2K1cWWURkKa4i9siKlLCPcFSjPvxUz/VPnzVRt7FOSHXxim9KjeO0PsjS0b505xHHanN4wUhCbYw==" saltValue="NHvaODfdRpO8K7hx3Edgig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="03oWh6yJLyT9eXF1qMCQNTiWqVXgDWyirkDG5O2Rwz1pbqC6jW2kOLE9uysi5sagoAXX2Ndz2AoX2yQcou5C6w==" saltValue="VzqEol4sijxsrZaI2VZEgQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AhOtmKWKxpmb7+Nw9NSfm27GhsKHt8uh/ggPdNUkVkiMZ67K6oqGGVpkGC+ZWk20ATPp9+RyhRpgsy35Q2j/Iw==" saltValue="mgfXi394Ir4yLRbHumMMiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2HLqpTPPosAwzcAFxL19B61BnKLf9a8Gikp/Xn8mh+guVq4qQoG+VtB0Xxgph8tBFghI42JscQnu6FrRiJ300w==" saltValue="BSsPpb7Uq6QXLkQ7mb5cFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OaTIliROeRBnitIQniB37imBoTr7wMj0l1eIVTeJncMMPabX2rZrfmyblqHMweZWwCpBgOGaWL5OAgzMU+oSUQ==" saltValue="NFVsILeNczLOWxyuLm/stg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dRt0+UlQUQgn1Xe0pamXW8Qwy3SQ2QiH46B15+iMERWz9p9WLHIYD9gl5TusVKakUmkxXS21//E2S+XI1Md8nw==" saltValue="sXlZUbtjntXpW96nS6AeiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y+tiimU3psZPv/2NGSx2wtm0OYV8Q9zTg/PyRVuvMuoTaqsUqQGnbNpwWPUVRnBlqxSofh/d8HrqMtDgyhqrMQ==" saltValue="vVwON8QIxgh+4Xy1EjYBNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OH5PEVI9E+r0YVDhI2Ee2ilxH+sADAo7vgLl4YWIiJOYkJmw37Zh/fcnpGDoixY9DRDdw7pqBuSEndfR96YfWA==" saltValue="/0ubmMmUpD9ZrrzualGR1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OhNjNw5OdA2DiJLlS0YF18UWE3yczuFZDh092b11lAKthqgNT3cLed3eLf7KIPVmjzkAtAo0pgWyz+Ye4ijtCg==" saltValue="Tn0smrP/6NSBKpxEU6PiDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608A0C1-3BEB-4CF1-A087-74FDFED0B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AED1A-6202-4E69-B3A9-DDE9108246B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Condition</t>
   </si>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5093,18 +5093,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="115">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="115">
+      <c r="C33" s="114">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="115">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6522,15 +6522,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31301,20 +31299,20 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="114">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="115">
+      <c r="C23" s="114">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="114">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="114">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="114">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36798,13 +36796,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36934,13 +36932,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37138,13 +37136,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37214,18 +37212,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37260,8 +37258,8 @@
       <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37273,8 +37271,8 @@
       <c r="B4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37286,8 +37284,8 @@
       <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37299,8 +37297,8 @@
       <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37316,7 +37314,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37324,9 +37322,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37337,7 +37333,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37348,7 +37346,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37359,7 +37359,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37370,7 +37372,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37382,11 +37386,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37394,9 +37396,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37433,9 +37433,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37446,9 +37444,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37480,15 +37476,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37510,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AED1A-6202-4E69-B3A9-DDE9108246B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7103D-0D65-4556-861A-B42E485DF6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6518,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d5TbHPQi63nwx2Wq5JJSqukalmMv3C31IJEOC6Ln2RHu+2wV3FQIapEnZTD1R3DDEUxGNC0W0Oqhkaf0Boqebg==" saltValue="VXHqyG/n1ojfTzC/S0zfNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/demo_national_input.xlsx
+++ b/inputs/fr/demo_national_input.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1443D7AB-6F6E-4F79-B2B5-4D25E042235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C496293D-1EC0-4EF5-B409-D53CF5187EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="110" windowWidth="19150" windowHeight="10060" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14775" yWindow="-16860" windowWidth="21600" windowHeight="12525" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
+    <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
     <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
@@ -47,49 +47,49 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'Risques des rés. des naissances'!$A$1:$F$7</definedName>
-    <definedName name="abortion" localSheetId="7">'Donnees pop de l''annee de ref'!$C$38</definedName>
+    <definedName name="abortion" localSheetId="7">'Données pop de l''année de ref'!$C$38</definedName>
     <definedName name="abortion" localSheetId="6">'[1]Baseline year population inputs'!$C$41</definedName>
     <definedName name="abortion" localSheetId="5">'[1]Baseline year population inputs'!$C$41</definedName>
-    <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
+    <definedName name="abortion">'Données pop de l''année de ref'!$C$41</definedName>
     <definedName name="comm_deliv" localSheetId="6">'[1]Treatment of SAM'!$D$3</definedName>
     <definedName name="comm_deliv" localSheetId="5">'[1]Treatment of SAM'!$D$3</definedName>
     <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo" localSheetId="6">'[1]Baseline year population inputs'!$C$52</definedName>
     <definedName name="diarrhoea_1_5mo" localSheetId="5">'[1]Baseline year population inputs'!$C$52</definedName>
-    <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
+    <definedName name="diarrhoea_1_5mo">'Données pop de l''année de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo" localSheetId="6">'[1]Baseline year population inputs'!$C$54</definedName>
     <definedName name="diarrhoea_12_23mo" localSheetId="5">'[1]Baseline year population inputs'!$C$54</definedName>
-    <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
+    <definedName name="diarrhoea_12_23mo">'Données pop de l''année de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo" localSheetId="6">'[1]Baseline year population inputs'!$C$51</definedName>
     <definedName name="diarrhoea_1mo" localSheetId="5">'[1]Baseline year population inputs'!$C$51</definedName>
-    <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
+    <definedName name="diarrhoea_1mo">'Données pop de l''année de ref'!$C$51</definedName>
     <definedName name="diarrhoea_24_59mo" localSheetId="6">'[1]Baseline year population inputs'!$C$55</definedName>
     <definedName name="diarrhoea_24_59mo" localSheetId="5">'[1]Baseline year population inputs'!$C$55</definedName>
-    <definedName name="diarrhoea_24_59mo">'Donnees pop de l''annee de ref'!$C$55</definedName>
+    <definedName name="diarrhoea_24_59mo">'Données pop de l''année de ref'!$C$55</definedName>
     <definedName name="diarrhoea_6_11mo" localSheetId="6">'[1]Baseline year population inputs'!$C$53</definedName>
     <definedName name="diarrhoea_6_11mo" localSheetId="5">'[1]Baseline year population inputs'!$C$53</definedName>
-    <definedName name="diarrhoea_6_11mo">'Donnees pop de l''annee de ref'!$C$53</definedName>
+    <definedName name="diarrhoea_6_11mo">'Données pop de l''année de ref'!$C$53</definedName>
     <definedName name="end_year" localSheetId="6">'[1]Baseline year population inputs'!$C$4</definedName>
     <definedName name="end_year" localSheetId="5">'[1]Baseline year population inputs'!$C$4</definedName>
-    <definedName name="end_year">'Donnees pop de l''annee de ref'!$C$4</definedName>
+    <definedName name="end_year">'Données pop de l''année de ref'!$C$4</definedName>
     <definedName name="famplan_unmet_need" localSheetId="6">'[1]Baseline year population inputs'!$C$13</definedName>
     <definedName name="famplan_unmet_need" localSheetId="5">'[1]Baseline year population inputs'!$C$13</definedName>
-    <definedName name="famplan_unmet_need">'Donnees pop de l''annee de ref'!$C$13</definedName>
+    <definedName name="famplan_unmet_need">'Données pop de l''année de ref'!$C$13</definedName>
     <definedName name="food_insecure" localSheetId="6">'[1]Baseline year population inputs'!$C$8</definedName>
     <definedName name="food_insecure" localSheetId="5">'[1]Baseline year population inputs'!$C$8</definedName>
-    <definedName name="food_insecure">'Donnees pop de l''annee de ref'!$C$8</definedName>
+    <definedName name="food_insecure">'Données pop de l''année de ref'!$C$8</definedName>
     <definedName name="frac_children_health_facility" localSheetId="6">'[1]Baseline year population inputs'!$C$12</definedName>
     <definedName name="frac_children_health_facility" localSheetId="5">'[1]Baseline year population inputs'!$C$12</definedName>
-    <definedName name="frac_children_health_facility">'Donnees pop de l''annee de ref'!$C$12</definedName>
+    <definedName name="frac_children_health_facility">'Données pop de l''année de ref'!$C$12</definedName>
     <definedName name="frac_diarrhea_severe" localSheetId="6">'[1]Baseline year population inputs'!$C$58</definedName>
     <definedName name="frac_diarrhea_severe" localSheetId="5">'[1]Baseline year population inputs'!$C$58</definedName>
-    <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
+    <definedName name="frac_diarrhea_severe">'Données pop de l''année de ref'!$C$58</definedName>
     <definedName name="frac_maize" localSheetId="6">'[1]Baseline year population inputs'!$C$19</definedName>
     <definedName name="frac_maize" localSheetId="5">'[1]Baseline year population inputs'!$C$19</definedName>
-    <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
+    <definedName name="frac_maize">'Données pop de l''année de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk" localSheetId="6">'[1]Baseline year population inputs'!$C$9</definedName>
     <definedName name="frac_malaria_risk" localSheetId="5">'[1]Baseline year population inputs'!$C$9</definedName>
-    <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
+    <definedName name="frac_malaria_risk">'Données pop de l''année de ref'!$C$9</definedName>
     <definedName name="frac_mam_1_5months" localSheetId="6">'[1]Nutritional status distribution'!$D$10</definedName>
     <definedName name="frac_mam_1_5months" localSheetId="5">'[1]Nutritional status distribution'!$D$10</definedName>
     <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
@@ -107,14 +107,14 @@
     <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM" localSheetId="6">'[1]Baseline year population inputs'!#REF!</definedName>
     <definedName name="frac_MAMtoSAM" localSheetId="5">'[1]Baseline year population inputs'!#REF!</definedName>
-    <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
-    <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
+    <definedName name="frac_MAMtoSAM">'Données pop de l''année de ref'!#REF!</definedName>
+    <definedName name="frac_other_staples">'Données pop de l''année de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility" localSheetId="6">'[1]Baseline year population inputs'!$C$11</definedName>
     <definedName name="frac_PW_health_facility" localSheetId="5">'[1]Baseline year population inputs'!$C$11</definedName>
-    <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
+    <definedName name="frac_PW_health_facility">'Données pop de l''année de ref'!$C$11</definedName>
     <definedName name="frac_rice" localSheetId="6">'[1]Baseline year population inputs'!$C$17</definedName>
     <definedName name="frac_rice" localSheetId="5">'[1]Baseline year population inputs'!$C$17</definedName>
-    <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
+    <definedName name="frac_rice">'Données pop de l''année de ref'!$C$17</definedName>
     <definedName name="frac_sam_1_5months" localSheetId="6">'[1]Nutritional status distribution'!$D$11</definedName>
     <definedName name="frac_sam_1_5months" localSheetId="5">'[1]Nutritional status distribution'!$D$11</definedName>
     <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
@@ -132,40 +132,40 @@
     <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM" localSheetId="6">'[1]Baseline year population inputs'!#REF!</definedName>
     <definedName name="frac_SAMtoMAM" localSheetId="5">'[1]Baseline year population inputs'!#REF!</definedName>
-    <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
-    <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
+    <definedName name="frac_SAMtoMAM">'Données pop de l''année de ref'!#REF!</definedName>
+    <definedName name="frac_subsistence_farming">'Données pop de l''année de ref'!$C$16</definedName>
     <definedName name="frac_wheat" localSheetId="6">'[1]Baseline year population inputs'!$C$18</definedName>
     <definedName name="frac_wheat" localSheetId="5">'[1]Baseline year population inputs'!$C$18</definedName>
-    <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
-    <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
+    <definedName name="frac_wheat">'Données pop de l''année de ref'!$C$18</definedName>
+    <definedName name="infant_mortality">'Données pop de l''année de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia" localSheetId="6">'[1]Baseline year population inputs'!$C$59</definedName>
     <definedName name="iron_deficiency_anaemia" localSheetId="5">'[1]Baseline year population inputs'!$C$59</definedName>
-    <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
+    <definedName name="iron_deficiency_anaemia">'Données pop de l''année de ref'!$C$59</definedName>
     <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
-    <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
-    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
+    <definedName name="maternal_mortality">'Données pop de l''année de ref'!$C$40</definedName>
+    <definedName name="neonatal_mortality">'Données pop de l''année de ref'!$C$37</definedName>
+    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Données pop de l''année de ref'!$C$11</definedName>
     <definedName name="preterm_AGA" localSheetId="6">'[1]Baseline year population inputs'!$C$46</definedName>
     <definedName name="preterm_AGA" localSheetId="5">'[1]Baseline year population inputs'!$C$46</definedName>
-    <definedName name="preterm_AGA">'Donnees pop de l''annee de ref'!$C$46</definedName>
+    <definedName name="preterm_AGA">'Données pop de l''année de ref'!$C$46</definedName>
     <definedName name="preterm_SGA" localSheetId="6">'[1]Baseline year population inputs'!$C$45</definedName>
     <definedName name="preterm_SGA" localSheetId="5">'[1]Baseline year population inputs'!$C$45</definedName>
-    <definedName name="preterm_SGA">'Donnees pop de l''annee de ref'!$C$45</definedName>
+    <definedName name="preterm_SGA">'Données pop de l''année de ref'!$C$45</definedName>
     <definedName name="school_attendance" localSheetId="6">'[1]Baseline year population inputs'!$C$10</definedName>
     <definedName name="school_attendance" localSheetId="5">'[1]Baseline year population inputs'!$C$10</definedName>
-    <definedName name="school_attendance">'Donnees pop de l''annee de ref'!$C$10</definedName>
+    <definedName name="school_attendance">'Données pop de l''année de ref'!$C$10</definedName>
     <definedName name="start_year" localSheetId="6">'[1]Baseline year population inputs'!$C$3</definedName>
     <definedName name="start_year" localSheetId="5">'[1]Baseline year population inputs'!$C$3</definedName>
-    <definedName name="start_year">'Donnees pop de l''annee de ref'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="7">'Donnees pop de l''annee de ref'!$C$39</definedName>
+    <definedName name="start_year">'Données pop de l''année de ref'!$C$3</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Données pop de l''année de ref'!$C$39</definedName>
     <definedName name="stillbirth" localSheetId="6">'[1]Baseline year population inputs'!$C$42</definedName>
     <definedName name="stillbirth" localSheetId="5">'[1]Baseline year population inputs'!$C$42</definedName>
-    <definedName name="stillbirth">'Donnees pop de l''annee de ref'!$C$42</definedName>
-    <definedName name="term_AGA">'Donnees pop de l''annee de ref'!$C$48</definedName>
+    <definedName name="stillbirth">'Données pop de l''année de ref'!$C$42</definedName>
+    <definedName name="term_AGA">'Données pop de l''année de ref'!$C$48</definedName>
     <definedName name="term_SGA" localSheetId="6">'[1]Baseline year population inputs'!$C$47</definedName>
     <definedName name="term_SGA" localSheetId="5">'[1]Baseline year population inputs'!$C$47</definedName>
-    <definedName name="term_SGA">'Donnees pop de l''annee de ref'!$C$47</definedName>
-    <definedName name="U5_mortality">'Donnees pop de l''annee de ref'!$C$39</definedName>
+    <definedName name="term_SGA">'Données pop de l''année de ref'!$C$47</definedName>
+    <definedName name="U5_mortality">'Données pop de l''année de ref'!$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1683,7 +1683,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1853,6 +1853,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2715,7 +2721,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2986,6 +2992,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="725" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5849,7 +5858,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jhrP6BF3MMk4ZXgUc+MZDy8L65b15ixpTZl8kG4zDoIc/2VZigPSkr7yMlodn1L0FFPSNqsLrrWACSomFAuKrA==" saltValue="vdrN+YksH8KZGp2ryfVBwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fYrz5d3Gkdb7GYC7ZSP4/noYWoDkoIB4bhmjpsjWfpDda3xtU3nfzuksvZOD5ttwrvBX3PJRJJrLu2cM6Sz3rQ==" saltValue="eWrjJB1eetYmx89En17d3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6778,7 +6787,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dR36F/H/Opejyl2gmL/WEn5OlHJ0Lg+vq5zwgL6HGH1GjAJVKzpPdvdoaaK+aPs8LT1aDv7Ql6rFQbcPwztvUw==" saltValue="fFDBAU22JQK2cdmUrD/RwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zegh4Mi8oLSDzH+oG95u0/DUrF6pRlTqnEWIzt7X65KIrtGe2sDxu3HYNTUxpCHRLymFbD8xBfM7UM14VIhRfQ==" saltValue="103IaEfa7d9TJMqXfYFISg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6830,7 +6839,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>180</v>
       </c>
@@ -6839,7 +6848,7 @@
       </c>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>181</v>
       </c>
@@ -6848,7 +6857,7 @@
       </c>
       <c r="C3" s="62"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>192</v>
       </c>
@@ -6857,7 +6866,7 @@
       </c>
       <c r="C4" s="62"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>189</v>
       </c>
@@ -6866,83 +6875,83 @@
       </c>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7t3m+UmBgf3u+3dUHN5yg7dPDYjIndR5G857jQ9xFW13/koUJ7CSIGALLkYn4W8NCqS0Bkn2+iADK7pSmN4jow==" saltValue="swmPUzrP+/AgLjqXG1Jlxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tfK+EOT22nPwjgAz5L9hNg9vKbNTCP27Ulpp2krlEzY1D7fD/Xfc9wFhJvFxQEy/hVx4rDpnunsLZm+GTfqc4A==" saltValue="Y8DP4ZfB5vnb4pGxm5NZ9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6971,78 +6980,78 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kGHJ8FGrYwsXM5vW3/R2FPNLr7SMVvYa1eJ45wMX56lhkIvnIPlMYdTF+U/EGFr9f4fDARGBUFOly28YYF8DUQ==" saltValue="x9H3SUraHwaKg6Y5rFFGdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RPv73Ig7IT4byPwIrsn6ssRYy5YkM+08DshrVOhXsYwPkKyN7lrzx+2mC+3Hh/ISGpzcbjY9ZI+vj1KKi1ydZQ==" saltValue="1g39n4gKBHff8UJU+yTxag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7086,23 +7095,23 @@
         <v>87</v>
       </c>
       <c r="B2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C51</f>
+        <f>'Données pop de l''année de ref'!C51</f>
         <v>1.66</v>
       </c>
       <c r="C2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C52</f>
+        <f>'Données pop de l''année de ref'!C52</f>
         <v>1.66</v>
       </c>
       <c r="D2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C53</f>
+        <f>'Données pop de l''année de ref'!C53</f>
         <v>5.64</v>
       </c>
       <c r="E2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C54</f>
+        <f>'Données pop de l''année de ref'!C54</f>
         <v>5.43</v>
       </c>
       <c r="F2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C55</f>
+        <f>'Données pop de l''année de ref'!C55</f>
         <v>1.91</v>
       </c>
     </row>
@@ -7157,7 +7166,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C21PwkaVVGa5ZtMHh8UFTf4OngqUqraQX1pkgUqFdK7D2DGSZAnoR4KhenTqWWTffHLOiFLIGmLin7/CQRDg2w==" saltValue="So6sgf3hA+25NHS2hDs36A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VbyIhUmgoEZ0BNfQL9CPVfNKq7lSNCU7dwxX8A3OSGShigV66xkcbunhbgXCkDTqLI045rTeAPpCiDCSj3stdg==" saltValue="38p4M6YTTLSjCjzrRl85gA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8918,7 +8927,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SOeo3ChilxnUyry3Q5pzleNKnPW6RJzl0ht5UIApXYPm/cRfllQpOwI3CwNnJiwlymMuCOyvtrGHaeXCunZ0dg==" saltValue="tNBAXWKCeQeUtTGjWmRykQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q7HeRpjBWYh81lMBh/NbB98bxHJTgfkGUWqZg9B9Pzr4mV9LPXlBPU2BT7vTMPMsrDmdOv9zDjzB8Cnz/DTTmQ==" saltValue="Q3/sFMVO77IQcLAtvHJ5hw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8958,7 +8967,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LVJW39R7kDOnDytd6K1pMM3V2CUqU1rWSiOb7iMilhYo/8003ij25uUEqtXhvYvkagm8zTb8Wgg93zuLZgEKtQ==" saltValue="ni+Jjb1DttP/wrGU9ELhXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Sf8rPHjDBgfbk9rTXrut10xj3N3/rWx9+pKf3XLTETbiOmABiW79bQ0uVYqCXmKHgBy4UyAR3UFpPAT7wxnScQ==" saltValue="POl1kOX2dEVlgPt+PcVWDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9163,7 +9172,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bulb8mN5Vbgf3RGdZHvMkSRzaZEzoeqepz/Jrr9cPuIwYnZhQoDfon/CCjwHEicme/lrC6Q1v+m2MPPVgo6kPw==" saltValue="7vZe+R+c/xESXcwpIcgIfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q0dqHO9ELTJOJwFIWpbkTmea6W8zIJHZClq128ut7YxtxAr/ZJTB/uqTB8tHXhpTtUWLkFixqNxdnYeqre5GaQ==" saltValue="pWWR3WTk3+lc99DD+tKvJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10977,7 +10986,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yhxi1I+pB7B08OOLkdgtLJk63N78PRBEUFflyGDVUfRupo8CJwzaOTI8/aVo+RMneoN0yemaUDXY2WjqxUnGIg==" saltValue="8rqP71tEp9mev1+jMm6CYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="peEx6Hw49bcZnj8IohI4EFQAX49ZZ0uwUokVGXjP1b1NojeaTzuPHwV5Z/rR4GE4GT5ZuBwauWfRMftD/iGPhg==" saltValue="RGMHDHnnsqwbY9RwFcaGXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11043,7 +11052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>168</v>
       </c>
@@ -11060,7 +11069,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>169</v>
       </c>
@@ -11077,7 +11086,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>170</v>
       </c>
@@ -11094,7 +11103,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>171</v>
       </c>
@@ -11111,7 +11120,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>172</v>
       </c>
@@ -11130,7 +11139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>173</v>
       </c>
@@ -11149,7 +11158,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>174</v>
       </c>
@@ -11168,7 +11177,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>175</v>
       </c>
@@ -11187,7 +11196,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>176</v>
       </c>
@@ -11204,7 +11213,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>177</v>
       </c>
@@ -11221,7 +11230,7 @@
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>178</v>
       </c>
@@ -11238,7 +11247,7 @@
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>179</v>
       </c>
@@ -11255,7 +11264,7 @@
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>180</v>
       </c>
@@ -11274,7 +11283,7 @@
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>181</v>
       </c>
@@ -11293,7 +11302,7 @@
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>182</v>
       </c>
@@ -11314,7 +11323,7 @@
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>183</v>
       </c>
@@ -11331,7 +11340,7 @@
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>157</v>
       </c>
@@ -11350,7 +11359,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>158</v>
       </c>
@@ -11369,7 +11378,7 @@
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>159</v>
       </c>
@@ -11388,7 +11397,7 @@
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>184</v>
       </c>
@@ -11407,7 +11416,7 @@
       <c r="J21" s="101"/>
       <c r="K21" s="101"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>185</v>
       </c>
@@ -11428,7 +11437,7 @@
       <c r="J22" s="101"/>
       <c r="K22" s="101"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>186</v>
       </c>
@@ -11447,7 +11456,7 @@
       <c r="J23" s="101"/>
       <c r="K23" s="101"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>187</v>
       </c>
@@ -11464,7 +11473,7 @@
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>188</v>
       </c>
@@ -11481,7 +11490,7 @@
       <c r="J25" s="101"/>
       <c r="K25" s="101"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>189</v>
       </c>
@@ -11498,7 +11507,7 @@
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>190</v>
       </c>
@@ -11517,7 +11526,7 @@
       <c r="J27" s="101"/>
       <c r="K27" s="101"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>191</v>
       </c>
@@ -11534,7 +11543,7 @@
       <c r="J28" s="101"/>
       <c r="K28" s="101"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>192</v>
       </c>
@@ -11553,7 +11562,7 @@
       <c r="J29" s="101"/>
       <c r="K29" s="101"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>205</v>
       </c>
@@ -11574,7 +11583,7 @@
       <c r="J30" s="101"/>
       <c r="K30" s="101"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>161</v>
       </c>
@@ -11591,7 +11600,7 @@
       <c r="J31" s="101"/>
       <c r="K31" s="101"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>193</v>
       </c>
@@ -11610,7 +11619,7 @@
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>194</v>
       </c>
@@ -11629,7 +11638,7 @@
       <c r="J33" s="101"/>
       <c r="K33" s="101"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>195</v>
       </c>
@@ -11648,7 +11657,7 @@
       <c r="J34" s="101"/>
       <c r="K34" s="101"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>196</v>
       </c>
@@ -11667,7 +11676,7 @@
       <c r="J35" s="101"/>
       <c r="K35" s="101"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>197</v>
       </c>
@@ -11686,7 +11695,7 @@
       <c r="J36" s="101"/>
       <c r="K36" s="101"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>198</v>
       </c>
@@ -11705,7 +11714,7 @@
       <c r="J37" s="101"/>
       <c r="K37" s="101"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>199</v>
       </c>
@@ -11722,7 +11731,7 @@
       <c r="J38" s="101"/>
       <c r="K38" s="101"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>200</v>
       </c>
@@ -11744,7 +11753,7 @@
       <c r="K39" s="101"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f0zCRhzzKj2YmKD3ty35jceIXcctA48aB/Wu86V+g4n6u22s2atDZ/maPRJofNdbWYUirgJv1ZS7RckRf/Zg7w==" saltValue="HnIKBpEo3a09a8alUdzQUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9tUxd0TZ9at/ohTk8oYcwGI0UOjwinwd9z3iRaFVHwDqBKGoLvat2Y8A90HsbIucQbaYHi4Q/+g2NCN/LwzwBA==" saltValue="uJJoOEtocGPFi1xWOEDbsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11810,7 +11819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>109</v>
       </c>
@@ -11839,7 +11848,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>96</v>
       </c>
@@ -11868,7 +11877,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>97</v>
       </c>
@@ -11897,7 +11906,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
@@ -11926,7 +11935,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>99</v>
       </c>
@@ -11955,7 +11964,7 @@
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>122</v>
       </c>
@@ -11976,7 +11985,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>123</v>
       </c>
@@ -11997,7 +12006,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>124</v>
       </c>
@@ -12018,7 +12027,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>125</v>
       </c>
@@ -12039,7 +12048,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>70</v>
       </c>
@@ -12060,7 +12069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>71</v>
       </c>
@@ -12079,7 +12088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
@@ -12098,7 +12107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
@@ -12118,7 +12127,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WgkqxLhoUUFEAfmQPKc702zdT61weoTbufaFOi0BM0aUslOCglIhnrAZd0p5H8habUPCntibvO/2qMuTTYl+iA==" saltValue="+an6q7aiB+I3TDiXDmi5aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WAUsum9NLfCoQTwJp+Cbo2XUb2ZRSjMs21sIhG7VjxPMqj74HpDF8xRUb1AvQ6HIINevspEV9oUMf7XYxoQuTw==" saltValue="1BELJ7eDoj6hz57B3v5ang==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13207,7 +13216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lIsV9NdFeMft0m0KJDh73/Y7tW1CE88cEmsfmP1HVaebaYzT5OeMkLW4/mZ0uBZW3lVI6pngE1Lt0Dme3DKW2w==" saltValue="pYHv7W2vORD75W3kNhKvMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3ync6oEf5iZaGvfr7OfU8bgKmw4LkXS2PhSRgQVkO33CUgZJ79GDQy0/MJ/g73K4oZS8Av9wT8SidewrXQbYGg==" saltValue="X6Qpfm/I/s8OC68WsIvlsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13267,7 +13276,7 @@
       <c r="A2" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -13289,8 +13298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="117"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="118"/>
       <c r="C3" s="27" t="s">
         <v>154</v>
       </c>
@@ -13311,8 +13320,8 @@
       </c>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="118"/>
       <c r="C4" s="27" t="s">
         <v>155</v>
       </c>
@@ -13333,8 +13342,8 @@
       </c>
       <c r="J4" s="75"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="27" t="s">
@@ -13357,8 +13366,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="117"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="118"/>
       <c r="C6" s="27" t="s">
         <v>154</v>
       </c>
@@ -13378,8 +13387,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="118"/>
       <c r="C7" s="27" t="s">
         <v>155</v>
       </c>
@@ -13399,8 +13408,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="117" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -13422,8 +13431,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="118"/>
       <c r="C9" s="27" t="s">
         <v>154</v>
       </c>
@@ -13443,8 +13452,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="118"/>
       <c r="C10" s="27" t="s">
         <v>155</v>
       </c>
@@ -13464,8 +13473,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="117" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -13487,8 +13496,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="118"/>
       <c r="C12" s="27" t="s">
         <v>154</v>
       </c>
@@ -13508,8 +13517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="117"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="118"/>
       <c r="C13" s="27" t="s">
         <v>155</v>
       </c>
@@ -13529,8 +13538,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -13552,8 +13561,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="118"/>
       <c r="C15" s="27" t="s">
         <v>154</v>
       </c>
@@ -13573,8 +13582,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="118"/>
       <c r="C16" s="27" t="s">
         <v>155</v>
       </c>
@@ -13617,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
       <c r="F18" s="100"/>
@@ -13628,7 +13637,7 @@
       <c r="A19" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -13650,8 +13659,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="118"/>
       <c r="C20" s="27" t="s">
         <v>154</v>
       </c>
@@ -13671,8 +13680,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="117"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="118"/>
       <c r="C21" s="27" t="s">
         <v>155</v>
       </c>
@@ -13692,8 +13701,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="117" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -13715,8 +13724,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="117"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="118"/>
       <c r="C23" s="27" t="s">
         <v>154</v>
       </c>
@@ -13736,8 +13745,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="117"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="118"/>
       <c r="C24" s="27" t="s">
         <v>155</v>
       </c>
@@ -13757,8 +13766,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -13780,8 +13789,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="117"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="118"/>
       <c r="C26" s="27" t="s">
         <v>154</v>
       </c>
@@ -13801,8 +13810,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="117"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="118"/>
       <c r="C27" s="27" t="s">
         <v>155</v>
       </c>
@@ -13822,8 +13831,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="117" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -13845,8 +13854,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="117"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="118"/>
       <c r="C29" s="27" t="s">
         <v>154</v>
       </c>
@@ -13866,8 +13875,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="117"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="118"/>
       <c r="C30" s="27" t="s">
         <v>155</v>
       </c>
@@ -13887,8 +13896,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="117" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -13910,8 +13919,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="118"/>
       <c r="C32" s="27" t="s">
         <v>154</v>
       </c>
@@ -13931,8 +13940,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="118"/>
       <c r="C33" s="27" t="s">
         <v>155</v>
       </c>
@@ -13975,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="100"/>
       <c r="E35" s="100"/>
       <c r="F35" s="100"/>
@@ -13986,7 +13995,7 @@
       <c r="A36" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -14008,8 +14017,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="117"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="118"/>
       <c r="C37" s="27" t="s">
         <v>154</v>
       </c>
@@ -14029,8 +14038,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="117"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="118"/>
       <c r="C38" s="27" t="s">
         <v>155</v>
       </c>
@@ -14050,8 +14059,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="117" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -14073,8 +14082,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="117"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="118"/>
       <c r="C40" s="27" t="s">
         <v>154</v>
       </c>
@@ -14094,8 +14103,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="118"/>
       <c r="C41" s="27" t="s">
         <v>155</v>
       </c>
@@ -14115,8 +14124,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="117" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -14138,8 +14147,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="117"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="118"/>
       <c r="C43" s="27" t="s">
         <v>154</v>
       </c>
@@ -14159,8 +14168,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="118"/>
       <c r="C44" s="27" t="s">
         <v>155</v>
       </c>
@@ -14180,8 +14189,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="117" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="27" t="s">
@@ -14203,8 +14212,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="118"/>
       <c r="C46" s="27" t="s">
         <v>154</v>
       </c>
@@ -14224,8 +14233,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="117"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="118"/>
       <c r="C47" s="27" t="s">
         <v>155</v>
       </c>
@@ -14245,8 +14254,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="117" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -14268,8 +14277,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="117"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="118"/>
       <c r="C49" s="27" t="s">
         <v>154</v>
       </c>
@@ -14289,8 +14298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="117"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="118"/>
       <c r="C50" s="27" t="s">
         <v>155</v>
       </c>
@@ -14375,7 +14384,7 @@
       <c r="A55" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -14402,8 +14411,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="117"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="118"/>
       <c r="C56" s="27" t="s">
         <v>154</v>
       </c>
@@ -14428,8 +14437,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="117"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="118"/>
       <c r="C57" s="27" t="s">
         <v>155</v>
       </c>
@@ -14454,8 +14463,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="117" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -14482,8 +14491,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="117"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="118"/>
       <c r="C59" s="27" t="s">
         <v>154</v>
       </c>
@@ -14508,8 +14517,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B60" s="117"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="118"/>
       <c r="C60" s="27" t="s">
         <v>155</v>
       </c>
@@ -14534,8 +14543,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="117" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="27" t="s">
@@ -14562,8 +14571,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B62" s="117"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="118"/>
       <c r="C62" s="27" t="s">
         <v>154</v>
       </c>
@@ -14588,8 +14597,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="117"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="118"/>
       <c r="C63" s="27" t="s">
         <v>155</v>
       </c>
@@ -14614,8 +14623,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="117" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="27" t="s">
@@ -14642,8 +14651,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B65" s="117"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="118"/>
       <c r="C65" s="27" t="s">
         <v>154</v>
       </c>
@@ -14668,8 +14677,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="117"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="118"/>
       <c r="C66" s="27" t="s">
         <v>155</v>
       </c>
@@ -14694,8 +14703,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="117" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -14722,8 +14731,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="117"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="118"/>
       <c r="C68" s="27" t="s">
         <v>154</v>
       </c>
@@ -14748,8 +14757,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="117"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="118"/>
       <c r="C69" s="27" t="s">
         <v>155</v>
       </c>
@@ -14802,7 +14811,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="100"/>
       <c r="E71" s="100"/>
       <c r="F71" s="100"/>
@@ -14813,7 +14822,7 @@
       <c r="A72" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -14841,7 +14850,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="117"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="27" t="s">
         <v>154</v>
       </c>
@@ -14867,7 +14876,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="117"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="27" t="s">
         <v>155</v>
       </c>
@@ -14893,7 +14902,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -14921,7 +14930,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="117"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="27" t="s">
         <v>154</v>
       </c>
@@ -14947,7 +14956,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="117"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="27" t="s">
         <v>155</v>
       </c>
@@ -14973,7 +14982,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="27" t="s">
@@ -15001,7 +15010,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="117"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="27" t="s">
         <v>154</v>
       </c>
@@ -15027,7 +15036,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="117"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="27" t="s">
         <v>155</v>
       </c>
@@ -15053,7 +15062,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="117" t="s">
+      <c r="B81" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -15081,7 +15090,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="117"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="27" t="s">
         <v>154</v>
       </c>
@@ -15107,7 +15116,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="117"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="27" t="s">
         <v>155</v>
       </c>
@@ -15133,7 +15142,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="117" t="s">
+      <c r="B84" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -15161,7 +15170,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="117"/>
+      <c r="B85" s="118"/>
       <c r="C85" s="27" t="s">
         <v>154</v>
       </c>
@@ -15187,7 +15196,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="117"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="27" t="s">
         <v>155</v>
       </c>
@@ -15251,7 +15260,7 @@
       <c r="A89" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="117" t="s">
+      <c r="B89" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="27" t="s">
@@ -15279,7 +15288,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="117"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="27" t="s">
         <v>154</v>
       </c>
@@ -15305,7 +15314,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="117"/>
+      <c r="B91" s="118"/>
       <c r="C91" s="27" t="s">
         <v>155</v>
       </c>
@@ -15331,7 +15340,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="117" t="s">
+      <c r="B92" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="27" t="s">
@@ -15359,7 +15368,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="117"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="27" t="s">
         <v>154</v>
       </c>
@@ -15385,7 +15394,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="117"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="27" t="s">
         <v>155</v>
       </c>
@@ -15411,7 +15420,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="117" t="s">
+      <c r="B95" s="118" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="27" t="s">
@@ -15439,7 +15448,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="117"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="27" t="s">
         <v>154</v>
       </c>
@@ -15465,7 +15474,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="117"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="27" t="s">
         <v>155</v>
       </c>
@@ -15491,7 +15500,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="118" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="27" t="s">
@@ -15519,7 +15528,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="117"/>
+      <c r="B99" s="118"/>
       <c r="C99" s="27" t="s">
         <v>154</v>
       </c>
@@ -15545,7 +15554,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="117"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="27" t="s">
         <v>155</v>
       </c>
@@ -15571,7 +15580,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="117" t="s">
+      <c r="B101" s="118" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="27" t="s">
@@ -15599,7 +15608,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="117"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="27" t="s">
         <v>154</v>
       </c>
@@ -15625,7 +15634,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="117"/>
+      <c r="B103" s="118"/>
       <c r="C103" s="27" t="s">
         <v>155</v>
       </c>
@@ -15720,7 +15729,7 @@
       <c r="A108" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="117" t="s">
+      <c r="B108" s="118" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="27" t="s">
@@ -15748,7 +15757,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="117"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="27" t="s">
         <v>154</v>
       </c>
@@ -1